--- a/examples/HEAT/JAIS_2023/topic_model_results/hazard_extraction_mismatches.xlsx
+++ b/examples/HEAT/JAIS_2023/topic_model_results/hazard_extraction_mismatches.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Hydraulic Fluid Leak" sheetId="1" r:id="rId1"/>
+    <sheet name="Hydraulic Fluid Leaks and Malf" sheetId="1" r:id="rId1"/>
     <sheet name="Intrusion" sheetId="2" r:id="rId2"/>
     <sheet name="Bucket Drop Failure" sheetId="3" r:id="rId3"/>
     <sheet name="Tanker Loading Failure" sheetId="4" r:id="rId4"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="1194">
   <si>
     <t>True</t>
   </si>
@@ -2619,16 +2619,13 @@
     <t>[34, 3]</t>
   </si>
   <si>
-    <t>05-0337</t>
-  </si>
-  <si>
     <t>07-0481</t>
   </si>
   <si>
     <t>20-0599</t>
   </si>
   <si>
-    <t>18-0512</t>
+    <t>13-0862</t>
   </si>
   <si>
     <t>07-0415</t>
@@ -2637,901 +2634,820 @@
     <t>08-0656</t>
   </si>
   <si>
+    <t>09-0569</t>
+  </si>
+  <si>
+    <t>99-0189</t>
+  </si>
+  <si>
+    <t>05-0873</t>
+  </si>
+  <si>
+    <t>17-0761</t>
+  </si>
+  <si>
+    <t>02-0758</t>
+  </si>
+  <si>
+    <t>11-0845</t>
+  </si>
+  <si>
+    <t>20-0868</t>
+  </si>
+  <si>
+    <t>Half of the plastic strobe cover on the vertical fin was misssing.</t>
+  </si>
+  <si>
+    <t>On 7/16/2020 Helicopter N625CK was assigned a water dropping mission on the Mineral Fire in FKU. While on it's initial dip and extracting water, the Pilot noticed the tank was not filling via snorkel. Upon return to helibase the assigned mechanic inspected the snorkel and tank doors. The mechanic found a sheared rod and a sheared bolt which controlled one of the tank doors. The sheared rod did not allow the retraction of the tank door and thus the helicopter was unable to retain water. The aircraft was placed out of service.</t>
+  </si>
+  <si>
+    <t>Helicopter had flown 3 cycles, for 5.3 hrs. and shut down for night at 1945. Menchanic upon doing cleanup/inspection of tail rotor found crack in one blade: notified manager at 2100 that aircraft would be out of service tomorrow morning for balancing, tracking and check ride prior to being available. HEB1 notified at 2100 of delay to use helicopter the next day. Mechanics replaced tail rotor blade. 09/02 0830: HMGB called AMI and informed of repair.</t>
+  </si>
+  <si>
+    <t>While doing bucket work on a small fire, the pilot felt an abnormal jerk after releasing the bucket of water on a target. He made a call to the manager on the fire and said that he had felt something strange when he released the water but that the bucket was still in place. The decision was to land the helicopter and inspect the bucket. Upon inspection it was confirmed that the primary release wire on the Bambi Bucket (model 1214 / 144 gallon) had sheered. The bucket was replaced with the secondary Bambi bucket carried on the fuel truck and the mission continued. Later upon further inspection of the bucket it was determined that the cable had gotten pinched between the pulley and the bracket holding the pulley. This did not allow for the control head to retract the cable, thus exerting intense force on the cable and the cable broke. The bucket was relatively new with only a couple seasons of use. No one was injured, and the last load of water carried by the bucket released from the bucket prior to the cable breaking (thus there was not an unexpected release of water from the bucket).</t>
+  </si>
+  <si>
+    <t>Upon dispatch pilot was distracted from completing his normal walk around of the aircraft. Upon taxi of the aircraft about 30Ft. The pilot noticed through the rudder pedals there was no movement of the rudder. Pilot instantly realized what had happened. Pilot took appropriate actions to correct the situation. The aircraft responded to the incident and returned without further incident.</t>
+  </si>
+  <si>
+    <t>At approximately 1200 Dispatch notified the Tanker Base that a heavy airtanker was going to arrive to hold or possibly reload. SEAT aircraft T-XX and T-XXX were relocated from the loading pit area to the East side of the taxiway, tie down area, in preparation for the arrival of the Heavy Airtanker. They were repositioned by contract personnel via vehicle tow. An adiditonal SEAT remained in the lower loading pit, which allowed room to accommodate the passing of The Large Airtanker. The Large Airtanker arrived at the Tanker Base at approximately 1250 PDT. They contacted the ramp and were instructed that a marshaller would direct them on the taxiway to the upper loading pit. The Large Airtanker successfully made it past T-XX. There were two SEATs and a C-182 parked in the East-side tie-down area, to the left of Large Airtanker. This created a situation that caused the Large Airtanker to taxi well to right of the taxiway centerline to avoid the parked aircraft. Because they were so far to the right of the taxiway, the Large Airtanker`s right main landing gear wheels had traveled off the tarmac and the pilot adjusted the aircraft back onto the tarmac. The pilots’ attention was also focused on the taxiway light pylons as there was some concern that the right outboard propeller might strike one of these. The marshaller continued to marshal the aircraft past T-XXX. The position of T-XXX did not allow adequate room for the Large Airtanker to pass as it was parked slightly more forward than the other aircraft. The left wing fairing of the Large Airtanker rolled through the propeller {not in motion} of T-XXX. The Large Airtankerwas directed into the pit and damage was inspected. The left wing fairing of the Large Airtanker and the propeller blades of T-XXX were damaged.</t>
+  </si>
+  <si>
+    <t>On the return flight to the water source in turbulent conditions pilots hand slipped on the cyclic control releasing the Bambi Bucket.  Crew retrieved the bucket.  Minor repairs were made to the bucket and returned to service.  The major correctable factor in this incident is the position of the cargo release button which will be relocated by the mechanic on the next 100 hour inspection.</t>
+  </si>
+  <si>
+    <t>During pre-flight crew observed Tail Rotor cable #3 sections missing plastic coating. Tail Rotor cable R&amp;R. Rig pins H,Q,&amp; R installed @ Tail Rotor Control quadrants to facilitate removal of cable. Aircraft returned to contractual availability on 13 sept 05 via R-5 Maint, Inspector (G. Burney). TOTAL NON-AVAILABILITY: 6 Hours</t>
+  </si>
+  <si>
+    <t>Upon takeoff for a water delivery mission{third cycle of the day}, the PIC noticed hydraulic fluid leaking from aircraft onto the helipad. The aircraft was immediately set back down. The leak turned out to be the yaw number 1 transfer tube. The leak was fixed and another leak was found during the leak check, which was in the pitch tube.</t>
+  </si>
+  <si>
+    <t>Pilot reported low torque, inspection revealed fuel stream from P1 port in the inlet.  P1 bellows cracked.  Removed fuel control, installed fuel control with Allied Signal 1330.2 manual, chapter 73.  Put back into contract availability by the Regional Aviation Maintenance Inspector.</t>
+  </si>
+  <si>
+    <t>Upon coming in to land at the airport the convex cargo mirror came off approximately 10-15 feet above the ground. The mirror bounced off the ground and rolled forward onto the asphalt under the rotor wash. After the helicopter landed and shut down, a further inspection of the mirror bracket arm revealed that the attachment point had snapped off where the mirror was mounted. A discussion with the mechanic determined that the mirror and bracket arm were likely the originals from the helicopter`s manufacture dated 2001. The articulating arm was subjected to the normal vibrations of the aircraft, which over time may have weakened the connection point.</t>
+  </si>
+  <si>
+    <t>On initial taxi, pilot noticed unusually high power settings(~15% to start moving), stopped, cycled the parking break a few times, noted normal taxi power settings and continued to the runway.  On the takeoff roll, pilot noted 10 kts below the local S-2 minimum acceleration check speed but elected to continue the takeoff.  At rotation and during the initial portion of the upwind leg, the pilot faintly smelled hot brakes then at ~500 feet lowered the gear to cool the brakes and prevent the possibility for a nacelle fire.  The pilot then cleaned up and jettisoned the retardant load at the nearest jettison area, declared an emergency with NORCAL In order to have crash response available at at KMCC and proceeds to KMCC in a dirty configuration to increase fuel burn and land light.  Pilot touched down as slow as possible.  Rollout and taxi to AMU were uneventful.  Pilot terminated emergency response with ARFF 1 while rolling out.</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>pedal</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>pitch</t>
+  </si>
+  <si>
+    <t>[23, 80]</t>
+  </si>
+  <si>
+    <t>[18, 23, 55, 87]</t>
+  </si>
+  <si>
+    <t>[23, 92]</t>
+  </si>
+  <si>
+    <t>[3, 18, 23]</t>
+  </si>
+  <si>
+    <t>[42, 82]</t>
+  </si>
+  <si>
+    <t>[2, 23, 80]</t>
+  </si>
+  <si>
+    <t>[3, 14, 23, 56, 97]</t>
+  </si>
+  <si>
+    <t>[42, 67]</t>
+  </si>
+  <si>
+    <t>[7, 23, 43, 97]</t>
+  </si>
+  <si>
+    <t>[18, 23, 63, 88, 92]</t>
+  </si>
+  <si>
+    <t>[0, 8, 21, 42, 82]</t>
+  </si>
+  <si>
+    <t>[23]</t>
+  </si>
+  <si>
+    <t>[42]</t>
+  </si>
+  <si>
+    <t>11-0119</t>
+  </si>
+  <si>
+    <t>08-0154</t>
+  </si>
+  <si>
+    <t>07-0042</t>
+  </si>
+  <si>
+    <t>10-0126</t>
+  </si>
+  <si>
+    <t>Original Text:Tested Premo machine at helibase before loading in the helicopter. Everything ran fine. Landed at helispot and shut down. Took doors off helicopter and mounted Premo machine to the helicopter. Had the pilot turn on the battery to test machine for the go/no go checklist. Everything was operational. Turned off the machine, filled out the paperwork, and waited for the call from the DFMO to start aerial ignition. At 1335 the DFMO said he was ready for the helicopter. Flew to the burn, reconned, and made a plan for ignitions. Firing Boss gave me the go ahead to start firing. Turned on the Premo machine and it ran for a short period{2 seconds}. The drive line quit running so I notified the pilot then pulled out the knob and manually turned it figuring there was a jam. I dropped a couple of balls and let the knob pop back in. The machine still wouldn`t run so I checked the switches and pop out circut breakers. There was no lights on but the water pump would still work. Couldn`t find anything wrong with the machine. Decided to set down to look at the machine better. The pilot set down on the dam adjacent to the burn. Took top off the machine and couldn`t find anything wrong. Then I could tell the 5 amp fuse was blown. Had to go back to the helispot where the equipment was for the machine. Landed there and tried 2 fuses and blew both of them. Had the pilot shut down the helicopter to look more thoroughly at the machine. Took the top off the machine, unplugged the power supply wire and plugged it back in and put another fuse in the 5 amp. Had the pilot turn on the battery and instantly the connection on the back side of the switch panel went to smoking. Checked the wires and couldn`t find any bare spots where it could be grounding out. Decided to go back to Helibase to swap machines and work on the broken machine. Hooked drive motor up to inverter and instantly it blew the fuse in the inverter. Found corrosion around the connections on the back side of the switch panel box. Took the 3 prong connection{`IN` wire} loose from the switch panel box. Realized the prongs were burnt and the connector was cracked between 2 prongs.</t>
+  </si>
+  <si>
+    <t>Pilot ran the helicopter up this morning, which was not normal operation and the Mechanic told us at 735 that the helicopter was grounded because of a kinked hydraulic line that runs to the reservoir. The mechanic told us that he had been keeping an eye on it for a few days and did not say anything about it to us.The relief pilot also knew and did not tell the regular pilot when he came back yesterday. Pilot said he was not told about it until last night when mechanic informed him. The maintenance inspector was called and told about the hydaulic line and the mechanic not telling us about it, since we have been flying and doing prescribe burns (PSDO operations) and we should have been informed of the mechanical problem.</t>
+  </si>
+  <si>
+    <t>After landing to get the helitorch barrel refilled the pilot got out of the helicopter with the blades still turning and power to them to go to the bathroom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At aprox 1254 March 14, 2010 the helicopter was spooling up at the Airport. In aircraft were Pilot, FIRB, and PLDO. HMGB was aprox 50 feet in front of aircraft as crash rescue/fire protection. Aircraft was configured for aerial ignition mission on NF. Pilot and HMGB established good communication on air to ground frequency as a routine and did so as aircraft spooled up. Left front door of aircraft was off at FIRB’s request with Pilot’s approval. Aircraft was at flight idle. After comm check HMGB heard FIRB seconds later, on air to ground say, “could you hold on to this” as FIRB was digging in his left front pocket. HMGB then made it two steps toward aircraft to take object from FIRB then heard a sharp noise followed by several other noises aprox twenty feet to left side of aircraft. HMGB then hand signaled pilot to shut aircraft down. Pilot did not fully understand so HMGB approached pilot door to tell him to shut down. Dispatch was notified there was a situation and aircraft would be unable to perform aerial ignition for RX burn. Pilot, FIRB, PLDO, and HMGB discussed what had just happened. A pocket knife was under-hand tossed by FIRB from aircraft toward HMGB, which made contact with one main rotor blade. FIRB had attempted to toss the knife in the grass just off the asphalt in front of aircraft to avoid anything falling from aircraft during flight. Upon contact with the rotor, the knife burst into pieces landing off to the left side of the aircraft. Pilot inspected blades finding place of impact. HMGB called and notified Regional maintenance inspector at 1305. Pilot contacted Helicopter’s mechanic at same time. HMGB notified COR/AFMO of situation at 1328, and FMO 1444. Helicopter mechanic arrived at aprox 1530 and performed inspection of blades and aircraft. Inspection revealed two small gashes aprox 9 inches from tip of one blade and aprox 2 millimeters deep on the leading edge. Also found were several small paint chips on underside of blade which did not enter “honey comb” of blade. Mechanic then spoke with Regional Maintenance Inspector and Helicopter operator’s Chief of Maintenance for directions. Aircraft will remain at airport for the night to allow mechanic time to obtain proper equipment for a possible repair. </t>
+  </si>
+  <si>
+    <t>aerial ignition</t>
+  </si>
+  <si>
+    <t>psd</t>
+  </si>
+  <si>
+    <t>helitorch</t>
+  </si>
+  <si>
+    <t>[11, 22, 31, 60, 95]</t>
+  </si>
+  <si>
+    <t>[31, 67, 99]</t>
+  </si>
+  <si>
+    <t>[29, 45]</t>
+  </si>
+  <si>
+    <t>[23, 60, 88]</t>
+  </si>
+  <si>
+    <t>[60]</t>
+  </si>
+  <si>
+    <t>[60, 95]</t>
+  </si>
+  <si>
+    <t>[99]</t>
+  </si>
+  <si>
+    <t>[45]</t>
+  </si>
+  <si>
+    <t>98-0148</t>
+  </si>
+  <si>
+    <t>05-0559</t>
+  </si>
+  <si>
+    <t>13-0038</t>
+  </si>
+  <si>
+    <t>06-0519</t>
+  </si>
+  <si>
+    <t>15-0631</t>
+  </si>
+  <si>
+    <t>09-0269</t>
+  </si>
+  <si>
+    <t>98-0399</t>
+  </si>
+  <si>
+    <t>16-0289</t>
+  </si>
+  <si>
+    <t>13-0606</t>
+  </si>
+  <si>
+    <t>03-0188</t>
+  </si>
+  <si>
+    <t>03-0497</t>
+  </si>
+  <si>
+    <t>11-0798</t>
+  </si>
+  <si>
+    <t>16-0706</t>
+  </si>
+  <si>
+    <t>08-0326</t>
+  </si>
+  <si>
+    <t>07-0302</t>
+  </si>
+  <si>
+    <t>02-0803</t>
+  </si>
+  <si>
+    <t>10-0278</t>
+  </si>
+  <si>
+    <t>05-0435</t>
+  </si>
+  <si>
+    <t>17-0895</t>
+  </si>
+  <si>
+    <t>04-0434</t>
+  </si>
+  <si>
+    <t>16-0815</t>
+  </si>
+  <si>
+    <t>07-0629</t>
+  </si>
+  <si>
+    <t>00-0698</t>
+  </si>
+  <si>
+    <t>13-0416</t>
+  </si>
+  <si>
+    <t>05-0384</t>
+  </si>
+  <si>
+    <t>12-0813</t>
+  </si>
+  <si>
+    <t>03-1106</t>
+  </si>
+  <si>
+    <t>19-0126</t>
+  </si>
+  <si>
+    <t>This is to doument Tanker 65 being unavailable for dispatch from 1550 to 1740.Panel engine gauges.  The power cable for this was left off the breaker whena new light circuit breaker was replaced in the panel.  A &amp; P mechanic Norberg made the repairs.</t>
+  </si>
+  <si>
+    <t>NXXXX was flying air attack on the Burnt River Complex, over incident 154, call dispatch with a report that they lost an engine and were going to try to fly back to Baker on a single engine. At the time of engine failure, they were 22 miles out of Baker. Maintained Contact with NXXXX throughout the flight to Baker. They were able maintain altitude and land safely @ Baker without incident.Contacted Forest Aviation Officer and vendor. Also requested emergency response at the Baker Airport.</t>
+  </si>
+  <si>
+    <t>On Runup to respond to the fire, {#}1 Jet would not start. Taxied back to base informed base manager of problem. AMI was notified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilot failed to untie main rotor blades before start up. Pilot noticed that he did not untie at the same time he attempted to start engine. Immediately aborted start. Total time was approximately one second. Pilot untied blades and started helicopter. </t>
+  </si>
+  <si>
+    <t>Turbocharged 337 Cessna Skymaster pilot started the front engine without any problems. Attempted to start the rear engine but it would not start. The pilot followed other starting procedures as recommended by the owner but without success. The company mechanic was contacted and it was determined the fuel pump had failed. At 1900 aircraft was unavailable.</t>
+  </si>
+  <si>
+    <t>The helicopter departed CKX and upon arrival at the fire several warning lights{particle separator, rpm, engine 1 out, and engine 2 out} became illuminated. The pilot immediately began maneuvering toward the nearest landing spot, but all other gauges read normally &amp; we could still hear the engines running, so we returned to CKX. Enroute all warning lights except one paticle separator light went out. The helicopter landed without incident and the mechanic, IC, and AMD maintenance inspector were notified of the problem.</t>
+  </si>
+  <si>
+    <t>While returning to California from the Florida Incidents the aircraft was preparing to leave Lake Front Airport in Louisiana.  During pre takeoffrunup on the engines the pilot noticed that the right engine was not coming upto 100% power.  An air deverter valve had failed which would not allow the engine to get enough air to function properly.  A certified aviation mechanictemporarily repaired the valve but would not sign off a Part 135 Cert.  ACORthe aircraft on unavilability and paid for the ferry flight back to Fresno.The Forest Service employee returned to Fresno on a commercial airline.</t>
+  </si>
+  <si>
+    <t>We left the Airtanker Base at 1046 to do a requested Recon mission over the Galeuros and the Chirichua Ranges. We finished the Galeuros and were at the Dos Cabezas Mountains enroute to the Chrichuas when the pilot alerted me that the right engine tachometer needle was falling. I looked at the gauges and was a slow descent to 0 rpms. The pilot checked all the other gauges and they were all in the green. I visually looked at the right engine which showed no outward abnormalities. The pilot said that the xxx airport was close and we agreed that we would head the aircraft to there. Once that decision was made I called Dispatch and informed them that we had a malfunction with one of the gauges but operations were good and we were proceeding to the airport. We landed and went to maintenance facilities. Once parked, I notified Dispatch we were safe on the ground, and then notified management, and the OAS Maintenance Inspector of the situation.</t>
+  </si>
+  <si>
+    <t>While conducting an Air Attack mission I encounter a rise in N2/NR. I was unable to get the rpm`s down to normal operating range so I opted to land immediately at a near by military training area. Upon landing I ran a few ground checks confirming that the turbine governor had failed completely. A call was made to heli base informing them of our situation and to order another helicopter to fly back to LADD to pick up our mechanic.</t>
+  </si>
+  <si>
+    <t>I hope that this Safecom gets wide distribution to all aircraft ground support personnel (fixed wing and rotor). There are some very valuable lessons learned within this Safecom.I was on standby in Grand Junction acting as ATP (Air Tactical Pilot.) It was the end of the standby shift and we had just finished plugging the aircraft with intake plugs, pitot covers and prop stops. I was inside the cabin when ramp manager approached with a dispatch to a fire. The mechanic that is always with the aircraft, standing outside, said that he would unplug the aircraft while I stayed inside the plane. I watched him as he traveled around the airplane grabbing the plugs and other equipment. I watched as he placed the bag of items unplugged into the plane. The cockpit checklist was complete up to engine start and started the right engine. The ATS (Air Tactical Supervisor) yelled stop engine, which I did. At the same time I noticed the ramp manager giving the stop engine sign. There was still and engine plug in the intake of the engine. There was no damage caused, as there were only one or two revolutions of the prop before the cut sign was given (no engine light off). A complete walk around was performed and a restart was done after another complete checklist was completed. Engine was started with no mishap.As embarrassing as this is for me, there are several lessons learned here that I would like to comment on.1.	As pilot in command I should have been the person to remove all the plugs from the aircraft. The PIC is responsible for the pre-flight of the aircraft. It would have only taken me but a few seconds to perform the task and ensure of a proper preflight. This is a classic example of “complacency.”2.	The use of ramp managers and other personnel such as them are invaluable to the safety of the aircraft and the crews in and around them.3.	This situation shouts CRM. In the many years of aerial fire fighting, I have had several ground personnel come up to me and point out things on the aircraft that they had a question about. 90% of the time it was something if importance. The ATS was watching the ramp manager as I was looking at the flight panel. Using the two-crew members in the ASM role caught the engine stop signal way before I would have if it had been a single pilot operation.Job well done on the part of Ramp Manager, because of his actions, we didn’t cause any damage to the aircraft and were able to continue with the mission.</t>
+  </si>
+  <si>
+    <t>Assign to lighting recon flight at 1050 Hrs. At end of planned flight, pilot noted right engine HP would not come back below 250 HP. Made landing at SBA at 1200 hrs. Mechanic worked on aircraft with test flight being OK. SZ Aviation Maintenace Inspector was called and aircraft was return to availability status. At 1549 hrs response to SB co fire #5209. 1615 hrs right engine would not come back below 250 HP, landed at SBA at 1641 hrs. SZ Maintenance Inspector was called on the situation, log book entry will be fax to Jerry when aircraft is returned to availability status.</t>
+  </si>
+  <si>
+    <t>Tanker XX departed LMT at 1442 loaded to the Annie fire. At 14:55 notified LMT airtanker base of problem with {{#}}1 jet and needs to jettisson retardant and return for maint. Gave Tanker XX coordinates for jettisson area. Tanker XX proceeded to area and aborted load. Came into LMT at 15:16.</t>
+  </si>
+  <si>
+    <t>Bird strike on engine number 1 noticed by crew chief on walk-around and discontinued reload for fire. Operations shut down. Pilots did not notice any engine concerns. Do not know the altitude, coordinates of strike or time it happened.</t>
+  </si>
+  <si>
+    <t>On 6.16.2008 at approximately 1730 airtanker Lockheed P2 Neptune tail number xx was in the blocks and was under supervision of fixed wing parking tender. Aircraft had just completed loading retardent, loading crew was cleared, and airtanker was given permission to start engines. Pilot signaled to FWPT to clear him to start engine {#}2, clearance was given. As engine {#}2 was starting the suction from the propeller sucked a collapsible fabric and wire sunscreen out of the copilots window. The sunscreen disappeared with the engine blowby smoke behind the aircraft. Clearance was asked and given to start engine {#}1. As engine {#}1 cleared of smoke the sunscreen reappeared and swirled with the engine turbulence, threatening to be sucked into engine air intakes of both engine {#}1 and engine {#}2. Parking tender gave the pilot an emergency immediate cut-engine signal. Pilot responded immediately. The sunscreen fell to the ground in front of engine {#}2 and was retrieved by FWPT.</t>
+  </si>
+  <si>
+    <t>During bucket operations while on approach for a drop the pilot recieved a transmission pressure caution light with no other guage indications of a problem. The pilot elected to release the load of water and land the aircraft at the closest landing area. Once on the ground the pilot checked all digital readings with no anamolies. The contract mechainc was flown to the site by the vendor to perform a maintenance check of the system. Transmission was full of fluid and no signs of leakage. The aircraft computer system was downloaded and showed no faults in the system. The mechanic checked all the cannon plugs to the transmission and found one to be slightly loose and have a film on the contacts, it was determined that this may have cause the light to occur. The plug was cleaned and reinstalled on the aircraft. Aircraft had made a maintenance check flight with the pilot and mechanic with no problems. Due to no Sat or cell phone coverage the contract maintenance inspector was called upon arrival at S Rim Helibase, he cleared the aircraft for return to service.</t>
+  </si>
+  <si>
+    <t>#1 engine input coupling observed running hot.  Noticed grease drying out permaturely.  Removed and replaced input seal and bearing housing assembly with serviceable unit.  Inspected and repacked input coupling.  Ground test run-up checked out OK.  Maintenance inspector advised/approved return to contract availability a/c (o/s) N/A 0800-1400 hrs.</t>
+  </si>
+  <si>
+    <t>T-XX captain informed base manager they needed a one hour maintenance break to check a fuel leak on {{#}}2 engine.</t>
+  </si>
+  <si>
+    <t>Immediately after takeoff the pilot experienced a loss of power. He jettisoned his load of retardant adjacent to the runway (500 gallons). This was his first sortie of the day. After inspection the engine appeared fine. SEAT flew the rest of the day without problems. Temperatures were hot (+ or - 110 degrees F.)</t>
+  </si>
+  <si>
+    <t>The AC was off contract after dropping off the ATGS at MSO. After takeoff the pilot said the aircraft was running rough and would not climb. He turned the aircraft around and made an emergency landing at Missoula.</t>
+  </si>
+  <si>
+    <t>While performing large fire support on the Incident, an oil leak was discovered. Oil was dripping out of the valve and pooling in the carriage. 7/2/04 This narrative is an ammendment to the SAFECOM filed for this helicopter on 6/30/2004 (submitted by Helicopter Manager). Narrative: While performing a longline hookup I noticed a couple of puffs of white smoke come out of the left side cowl. I immediately had the pilot land and shut down the A/C. Upon inspection a leak was discovered on the breather tube flange that returns excess oil to the exhaust to be burned off. After discussion with the pilot it was determined that the helicopter needed to be repaired and that it would become un-available. I discussed the problem with my HELB(t) and we decided one of us needed to return to helibase to begin working on getting the helicopter repaired. The HELB(t) flew to helibase with the A/C. While I had confidence in the judgement of the pilot that the leak did not jeopardize the safety of the flight, I should have not asked the HELB(t) to fly down with the ship. This was a MAJOR oversight on my part. Policy dictates that when a problem is discovered that the A/C becomes unavailable @ that point. Once unavailable NO government personnel should be transported until the A/C is returned to service by an appropriate maintenance inspector.</t>
+  </si>
+  <si>
+    <t>Pilot attempted start of aircraft with main rotor tie down still in place. It was recognized prior to light off of engine by crew followed by immediate shut-down of starter generator.</t>
+  </si>
+  <si>
+    <t>During departure with 2 nets weighing 1600lbs, NXXX did not gain enough altitude to clear the canopy north of the Helibase. Load calc at 7000 @ 25 was 1825lbs. Manager told pilot to return to cargo and place loads on deck, pilot did so. NXXXX than took different loads weighing less with no problem. Upon completion of mission the pilot realized he turned the pitch control setting (dial) 30 degrees in the wrong direction. He set it at -30 instead of +30. This caused the ship to show itself redlining while it still had enough power for the load.</t>
+  </si>
+  <si>
+    <t>The helicopter was getting ready to start and depart for the project site.  The pilot tried to start the helicopter and it did not.  He tried a second time and was uncessful.  He motioned to the fuel truck driver to bring out the APU and hook it up.  The pilot then tried a thrid time and determined the ignitor had gone bad.  Pilot called the office and had a mechanic dispatched.  A maintenance inspector was contacted and he said that in order to put the helicopter back in service the ignitor would have to be replaced and make a entry in the log book.</t>
+  </si>
+  <si>
+    <t>On duty at 0900, this would be day 3 for mission over site for the Fire within the Zone. At 0920 we did a aircraft systems check before departure and all ops normal, at 0941 we departed airport for the incident with: two souls, 4 1/2 hours of fuel, on a heading 214 degree`s for a 22 min, ETE to the incident. at this point all operations were normal and during this time was calculating the times for relief air attack over the fire. At 12 miles from incident contacted IA helicopter on victor for entry into the airspace of the fire TFR in place, we proceeded into the area at 10,000 dropping to 9,000 ft all ops normal. Established ground contact with operations and IC for operational update and reconfiguration of divisions from the previous day. ordered up fixed wing aircraft: 2 seats for retardant line across the west flank of the fire towards the head. All ops normal. about 3 3/4 hours into the flight the pilot noticed that the fuel use gauge that reads pounds of fuel used per sec was not operational for the right engine, the engine never quit running. The pilot re-calculated the weights and measures for passenger, fuel and cargo, determined that it was either a gauge failure or sending unit and we had plenty of fuel. At 1348 air attack relief was over the fire, did a brief on the tactics and division break downs and handed off to the relief air attack. We proceeded back to The designated base, all ops normal except for the faulty reading of the right fuel/use gauge. Landed safely, notified UAM and Dispatch that aircraft was unavailable due to gauge failure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On shut-down from the first fuel cycle of bucket work on the fire, I exited the left seat and visually checked the left side of the aircraft for any leaks. The co-pilot exited the right seat. Since the fire was still active and more bucket work was needed, I did not open any cowlings, as we frequently do when we shut down this model helicopter for refueling. I then went to the right side of the aircraft to monitor refueling. Some time during the refueling procedure, the co-pilot opened the left side engine cowl and left it open. After the refueling was complete, I checked the fuel cap, looked at the right side of the aircraft for any leaks and asked the co-pilot if he was ready to go. He indicated he was ready to go, so I walked around the nose of the aircraft and climbed in the left door to strap in the left seat for the start. The co-pilot strapped in the right seat. The left side lower engine cowl, when open, cannot be seen from the front door without stepping away from the aircraft a few steps, which I had not done. After a normal start, we lifted off and proceeded toward the fire, about 4 miles away, to resume bucket work. Firefighters on the ground called on the radio and informed us that there was an open cowl. Apparently, the co-pilot had forgotten about the open cowl until the radio call was received. I immediately landed, inspected the cowl to make sure it was not damaged, secured it and then uneventfully continued the mission. As pilot-in-command, I did not adhere to a vital safety precept that I usually use, which is: Always make one quick walk-around inspection around the whole helicopter prior to climbing in to start it. Deficient communication and inadequate Crew Resource Management (CRM) between the pilot and co-pilot also contributed to this incident. </t>
+  </si>
+  <si>
+    <t>A chip light came on during the return from bucket drops to helibase. The pilot continued flying to the helibase with no major decreases to the helicopter performance as the left fuel pump and auxiliary fuel pumps were still functioning properly. Upon landing, the mechanic diagnosed the problem as not enough power flowing through the right fuel boost pump. After inspection it was determined that the fuel boost pump was no longer working correctly and needed to be replaced. A replacement fuel boost pump was ordered and arrangements were made by the vendor to deliver the pump to the Burley airport the following day.</t>
+  </si>
+  <si>
+    <t>After refueling in Ely Nevada, XXX was enroute back to Battle Mountain Nevada.  Two minutes outside of Battle Mountain the pilot and I noticed the aroma of fuel.  Upon landing in Battle Mountain, we were in the process of parking the aircraft and noticed a fuel leak on the right side engine.  The pilot shut down the aircraft and made his inspections.  The problem appeared to be a broken fuel line.  The pilot then made calls to his company and mechanics.  I notified Battle Mountain Dispatch, WGBCC and Boise Smokejumpers Duty Officer.  Returned to service 7/1/03.  All repairs done at 0800.</t>
+  </si>
+  <si>
+    <t>As we were coming in to the LZ, one of the crew members on the ground noticed something leaking by the fuel tank. Once we landed and shut the helicopter down the pilot came and examined the leak. He said it was for sure fuel and we needed to find out where it was coming from. The pilot looked into the engine a little more and found out it was leaking between the electric fuel shut off valve. The pilot pressurized the system with the boost pumps and could not recreate the leak. He returned to base without the helitack crew.</t>
+  </si>
+  <si>
+    <t>generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">engine </t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>chip</t>
+  </si>
+  <si>
+    <t>white smoke come</t>
+  </si>
+  <si>
+    <t>stall</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>[11, 14, 69, 83, 97]</t>
+  </si>
+  <si>
+    <t>[7, 11, 59, 65, 69]</t>
+  </si>
+  <si>
+    <t>[29, 83]</t>
+  </si>
+  <si>
+    <t>[7, 88]</t>
+  </si>
+  <si>
+    <t>[73, 82, 85]</t>
+  </si>
+  <si>
+    <t>[2, 22, 38, 44, 97]</t>
+  </si>
+  <si>
+    <t>[21, 43, 82]</t>
+  </si>
+  <si>
+    <t>[47, 82]</t>
+  </si>
+  <si>
+    <t>[2, 69, 80, 82, 88]</t>
+  </si>
+  <si>
+    <t>[3, 69, 80]</t>
+  </si>
+  <si>
+    <t>[25, 41]</t>
+  </si>
+  <si>
+    <t>[2, 8, 50, 88]</t>
+  </si>
+  <si>
+    <t>[30, 50, 53]</t>
+  </si>
+  <si>
+    <t>[23, 69, 80, 97]</t>
+  </si>
+  <si>
+    <t>[0, 29, 30, 82]</t>
+  </si>
+  <si>
+    <t>[8, 54]</t>
+  </si>
+  <si>
+    <t>[64, 67, 68, 80]</t>
+  </si>
+  <si>
+    <t>[3, 63, 82]</t>
+  </si>
+  <si>
+    <t>[11, 22, 58, 68, 97]</t>
+  </si>
+  <si>
+    <t>[63, 83]</t>
+  </si>
+  <si>
+    <t>[41, 80, 82, 88]</t>
+  </si>
+  <si>
+    <t>[22, 41, 70, 93]</t>
+  </si>
+  <si>
+    <t>[8, 53, 67]</t>
+  </si>
+  <si>
+    <t>[41, 67, 88]</t>
+  </si>
+  <si>
+    <t>[50, 8]</t>
+  </si>
+  <si>
+    <t>[8, 41]</t>
+  </si>
+  <si>
+    <t>[54, 8]</t>
+  </si>
+  <si>
+    <t>[64]</t>
+  </si>
+  <si>
+    <t>[82, 41]</t>
+  </si>
+  <si>
+    <t>[93, 41]</t>
+  </si>
+  <si>
+    <t>[82, 8]</t>
+  </si>
+  <si>
+    <t>[50, 82]</t>
+  </si>
+  <si>
+    <t>13-0562</t>
+  </si>
+  <si>
+    <t>08-0682</t>
+  </si>
+  <si>
+    <t>00-0509</t>
+  </si>
+  <si>
+    <t>Original Text:This is in regards to a fan for for this aircraft that has gotten bad in recent flights. It sounds like the bearings in the fan are going out and makes really bad noise when on. This fan is for the cooling the transmission fluid.  I`m told from the pilot, that if he were to hover, the temp is going to spike causing severe damage to the engine. This noise seems to have gotten really bad, suddenly, from the day before, therefore, we agreed to put the aircraft un-available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The relief pilot had found the hydraulic fluid resevoir low and called to the AvCenter line staff to bring  to him some hydraulic fluid. They brought the Skydrol high altitude fuild and the pilot put it in the reservoir. He then put the jug in the baggage compartment where the mechanics found it during the 100 hour  inspection, on 8/1/08. The oil was added on 7/4/2008 and the aircraft has been flown with the Skydrol in the system. </t>
+  </si>
+  <si>
+    <t>Subject:  SAFECOM - Canadian Bird Dog#52,           Left Engine Failure.At approximately 1100 hours MDT Canadian Bird Dog#52, a Turbo Commander, departed Miles City, Montana for Helena, MT.  After reaching cruising altitude of 12,500 feet westbound, and 25 minutes out of Miles City, the left engine suddenly lost power and went to auto feather.  There were no prior indications (instrumentation) that there was a problem developing.  After a cool down period of approximately 2 minutes, and attempt to restart the engine was made but immediately aborted due to no indication of oil pressure.The aircraft was under FS flight following with Lewistown as Billings could not be raised.  Flight following and position reports were also conveyed to Helena on FS nets.The aircraft had no difficulty maintaining altitude and was operating in CAVU conditions.  The flight crew made a judgement call to continue on to Missoula where they had maintenance support even though it was somewhat further than Helena where the logistics of repair would be difficult.  This decision was based on what the flight crew believed to be inpracticablein given the circumstances of clear air, no problems in maintaining altitude, other available landing places along the route, and the availability of maintenance support in Missoula.Bird Dog #52 continued west at 12,500 feet MSL with no further difficulties, other than reduced airspeed, and maintained visuals on airports and landing area's they could reach if problems developed with the right engine.Landing was affected in Missoula at near 1200 hours where they taxied to Northstar Aviation and met with their maintenance team.  The cowling was removed, screens pulled showing a lot of evidence of metal particle, i.e., steel and brass.  The engine had failed and required an engine change.USDA Forest Service LiaisonCanadian Airtanker Deployment</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> temp</t>
+  </si>
+  <si>
+    <t>[31, 50, 51, 82]</t>
+  </si>
+  <si>
+    <t>[67, 94]</t>
+  </si>
+  <si>
+    <t>[8, 14, 62, 80, 82]</t>
+  </si>
+  <si>
+    <t>[53, 82]</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>load calc</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>[63]</t>
+  </si>
+  <si>
+    <t>98-0356</t>
+  </si>
+  <si>
+    <t>08-0698</t>
+  </si>
+  <si>
+    <t>11-0349</t>
+  </si>
+  <si>
+    <t>14-0698</t>
+  </si>
+  <si>
+    <t>13-0863</t>
+  </si>
+  <si>
+    <t>14-0425</t>
+  </si>
+  <si>
+    <t>15-0755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilot went to refuel at Cascade airport without manager on board and with bucket still attached.  Over flew highway 55 and landed with out a marshler.  Pilot hot refueled with the vendor.The pilot was asked; about fuel situation by the manager at the dip site and replyed that he had 4-5 turns left.  He was informed to hold up on the refueling until the manager checked with the IC to see if they would be released.  While talking to the IC about release, the pilot monitored the conversation.  The pilot informed the IC that he was going for fuel and would return and was told by the IC, inThanks but you are being released.in  The manager tried to contact the A/C on air to ground with no response.  When he returned from refueling, the manager directed the pilot to land and shut down.  The Manager discussed the ship flying off for refueling without a manager on board, flying accross highway 55 with an external load and was asked if he had hot refueled, as it was realized that it was a very short turn around.  Pilot stated that it was a hot refuel and that it was in their ops plan.  Further research revealed that hot refueling was only for EMS operations and stated that the doors on the fuel side will remain closed.  The door was removed and was in the back seat.  The manager explained the need for the manager to be on board when the A/C left the fire when there was no helitack  on the other end, procedures for overflying roads and populated areas with external loads and what the hot refueling procedures were.  There was no flight following from the time that the aircraft left the fire until he was 3 miles out on the return flight from refueling. /s/ Helicopter Manager  </t>
+  </si>
+  <si>
+    <t>During a mission to backhaul cargo off of H-xx, the helitack on the helispot observed two military jets low in the canyon traveling west to east through the TFR, and over the spot. The helitack contacted the helibase and reported the intrusion. H-xxx was enroute to the helibase with an external load, so was not in the area at the time of the incident. There is a MTR in the area, so the Helibase Manager contacted the scheduler to report the intrusion. There were no flights scheduled for the route on that day. AOBD was advised.</t>
+  </si>
+  <si>
+    <t>The incident occurred on the Hastings Fire at the Moose helibase outside Fairbanks, AK. The location of the incident was Pad 5 which had been used by the aircraft in previous days. The aircraft had one Bambi bucket, one 150’ synthetic long line and one 100’ steel cable long line with remote hook staged at the pad. The aircraft flew into the helibase from Ft. Wainwright on the morning of June 5, 2011 and landed at its assigned Pad 5. Upon arrival on the fire, the aircraft landed at its pad and was shut down to await an assignment. The helicopter manager  and helitack came over to the aircraft to brief the pilot and orient the helitack crew member on the aircraft configuration. The steel cable long line was where it had been left the day before with the end of the cable/pig tail laying next to the pad marker. While looking at the long line, it was noticed that there were fresh {wet and muddy} tire tracks across the end on the long line, pig tail and a portion of the cable ~8’ from the end. The end electrical connection had mud in it, the eye was bent and the end of the cable/splice was opened. The long line was not damaged when the crew left the pad on June 4, 2011 and the pad was not occupied by helitack until the aircraft arrived in the morning. At the time the aircraft arrived, no water tenders were at the Pad 5 end of the helibase. The helibase Deck, helicopter manager , Pilot, helitack and Safety Officer  indicated that from an inspection of the scene that it appeared that a water tender had caused the incident.</t>
+  </si>
+  <si>
+    <t>AT 1800 we were dispatched from the Tanker Base to a fire on state protection. The other helicopter on the base NXXX launched before us and as manager asked the pilot to follow them to the fire. After clearing the airport traffic I tried contacting dispatch. I could not establish radio communications with dispatch on the Forest direct frequency that is usually used for aircraft in the valley. I had just arrived as Helicopter Manager and had taken over the Manager position from another HMGB. He had informed me all frequencies were in the aircraft and it was ready to go. I did not check before lifting off, as the Helicopter had flew the day before. What I did not find out till later was that they were transmitting OK, but were not receiving well. I tried a few other frequencies then dispatch did hear me on the state repeater, by then we had established VHF-AM radio communication with Air Tactical and the 4 other Helicopters on the fire. Traffic was getting congested so we landed at the Fire Helibase and found a receive tone programmed into the Direct Frequency we were trying to use in the radio. Another potential problem was that I may have also been using the intercom button rather than the transmit button on the radio controls that may have further hampered communications. When landing on the Helibase the Helibase Manager said I was coming through the Air to Ground frequency while instructing the helitack crew to get the bucket ready on the belly rather than a long line. I called dispatch to let them know we were on the ground with 5 souls and everything was OK. They had been tracking us on AFF, so did not worry about the lack of communications. Dispatch did not have a victor radio to hear that traffic. After talking to dispatch and Air Tactical they all felt that we had enough communications to not cause a safety hazard and the pilot and manager are now more familiar with the radio controls. For the Manager both previous CWN assignments were with restricted aircraft and not passenger hauling, so the manager had not used the TDFM for 6 years. Also dispatch did not have National Flight following capabilities out of the valley which was another one of the frequencies that the manager had tried to use to reestablish communications.</t>
+  </si>
+  <si>
+    <t>On August 28, 2013 a cargo mission involving multiple loads delivered to multiple helispots was initiated by a handcrew’s request via cell phone to the Air Ops. At the time, the type 2 helibase had four helicopters, a USFS exclusive use AS350-B3 with crew, a National CWN 214 with a CWN crew, a National exclusive use S-61 with manager, and a National CWN UH-1H {restricted} with a manager and manager trainee. Other HECMs on base were assigned to ABRO, ABRO trainee, and cargo. Supply dropped off the cargo midafternoon and loads were built in the designated cargo area using the HOGE-J allowable from the 214’s load calc. At some point it was decided by HEB2 that the loads should be shared between the 214 and the UH-1H. Helitack in cargo divided up the loads between the two ships according to the receiving crew’s point of contact. It was determined that the 214 would deliver three loads, the UH-1H would deliver two loads, and whoever returned first would fly the last load {total of 6 picks}. The manager and pilots of the 214 were fully aware of their mission and already spooling when an individual came to the managers of the UH-1H with two pieces of paper containing a lat/long, contact, and weight for the two loads they would take. They were told each ship would fly two loads and that there was a fifth load going with the first aircraft back. The managers briefed their pilot, discussing a number of concerns, but determined that the mission could be carried out safely and that they would proceed. The first red flag was that the HECM who brought the load info from cargo did not know the weight of the last load, but that would be easily resolved with a radio call prior to the final pick, and because the 214 would be the first one out they would probably be the first back thus taking the load in question, making the concern irrelevant. The second topic of concern related to the fact that the first pick would not only be the heaviest, but its weight was actually 2 pounds above the UH-1H’s allowable for the day. It was determined that taking a load over allowable was mitigated due to the pick-up and delivery locations being much lower in elevation than the load calc was completed for coupled with fuel burn from a maintenance run-up and power check completed prior to the mission. All involved agreed the mission could be safely completed. As the 214 called deck to lift and the UH-1H began his start up, ABRO{t} called cargo asking for manifests and other info relating to the mission. A very confusing radio exchange in which cargo told the ABRO{t} “load 3 will be {{{{#}}}}1 going to ____, load 1 will be {{{{#}}}}2 going to lat/long with a contact of ___, BREAK.” At which point ABRO{t} stepped in saying “all I need to know is what is the first load out, and who is it going to so I can inform Div.___,” and to “please bring the manifests for each load to the box.” After the 4th pick, the UH-1H managers saw that there were actually six loads… not the five they were briefed about. Due to a seemingly large amount of confusion at the helibase for a simple cargo mission, the UH-1H manager decided to walk down to the box and look at the manifests and posted load calcs. He discovered a number of discrepancies in the numbers on the manifests. The allowables for all manifested loads were based off of the 214’s HOGE-J, which was 376 pounds heavier than the UH-1H’s. The manifest showed a remote hook with longline at 60 pounds, when the UH-1H hook and longline combined weight was 91 pounds. Although the cargo area was too far from their pad too see all the equipment clearly, the manager could tell each load consisted of three daisy-chained nets or blivets, which should’ve used two leadlines and three swivels. The manifests did not show the appropriate weights for that combination of equipment</t>
+  </si>
+  <si>
+    <t>Duplicate of 14-0414.  Aircraft was performing bucket operations on the Fire with a 100 ft. synthetic long line and 160 gal. FAST Bucket. Making descending left turns in steep terrain the aircraft went into the dip-site. Pilot watched the bucket fill and began to ascend. Pilot felt the aircraft `want to roll` and corrected for the issue initially. Realizing something was wrong pilot set bucket back into dip and looked in mirror to see the long line over the heel of the left skid. Pilot released water from bucket to minimize roll over effect and slowly pulled up out of the dip. Pilot contacted the IC on A/G, notified him of the issue and asked if there was someone at the helispot that could remove the line from the skid. Pilot flew at a reduced airspeed to the fires helispot where a helitack crew was present and mitigated the problem. While being more cautious going into the dip and monitoring the mirror closely, pilot finished fuel cycle and returned to helibase. Once on the ground Pilot notified HMGB and FAO of what had happened.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While picking up out of a dipsite {pond} at 7150```` the pilot, noticed the bucket was unusually ``tipped`` indicating a harness attachment point failure. He began to release the water {Variable fill} and the 7 other attachment points failed and the bucket fell {detached from the longline} into the water and disappeared from sight into the pond. The A/C returned to helibase with longline and bucket suspension harness only. Bucket type: Non-standard {not Bambi nor Fast} variable fill. The powerhead and Variable fill valve are one unit located at the bottom of the bucket. </t>
+  </si>
+  <si>
+    <t>external load</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hook </t>
+  </si>
+  <si>
+    <t>long line</t>
+  </si>
+  <si>
+    <t>longline</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>sling</t>
+  </si>
+  <si>
+    <t>[14, 58, 68, 69, 76]</t>
+  </si>
+  <si>
+    <t>[39, 68]</t>
+  </si>
+  <si>
+    <t>[18, 29, 56, 72, 88]</t>
+  </si>
+  <si>
+    <t>[68, 74]</t>
+  </si>
+  <si>
+    <t>[29, 63, 68]</t>
+  </si>
+  <si>
+    <t>[3, 31, 56, 70]</t>
+  </si>
+  <si>
+    <t>[13, 18, 22, 68]</t>
+  </si>
+  <si>
+    <t>[68]</t>
+  </si>
+  <si>
+    <t>05-0446</t>
+  </si>
+  <si>
+    <t>At approximately 1050 on July 20, 2005 while flying over the Dammeron Incident, the right engine of the aircraft suddenly began to run rough. Engine indicators were normal, the RPM began to fluctuate causing further vibration. Procedural checklist was followed and the right engine continued to run rough and vibrate. At this time the engine started losing power. Engine was secured, prop feathered and shut-down. Flight from the fire (Dammeron) to St. George was approximately 7 miles. Landing of the aircraft was successful with no incident. After mechanical inspection a faulty magneto was determined to be at fault.</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>compartment</t>
+  </si>
+  <si>
+    <t>door open</t>
+  </si>
+  <si>
+    <t>[8, 54, 80, 82]</t>
+  </si>
+  <si>
+    <t>00-0573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116 was enroute back from the fire to the helibase for water and noticed a 206-L3 flying 300-400' AGL just south of the helibase.  No evasive maneuvers were needed.  Helibase personnel recognized the L3 as a Globe medivac ship. </t>
+  </si>
+  <si>
+    <t>13-0868</t>
+  </si>
+  <si>
+    <t>06-0961</t>
+  </si>
+  <si>
+    <t>16-0945</t>
+  </si>
+  <si>
+    <t>02-0664</t>
+  </si>
+  <si>
+    <t>11-0318</t>
+  </si>
+  <si>
+    <t>04-0145</t>
+  </si>
+  <si>
+    <t>15-0703</t>
+  </si>
+  <si>
+    <t>07-0833</t>
+  </si>
+  <si>
+    <t>11-0849</t>
+  </si>
+  <si>
+    <t>06-0673</t>
+  </si>
+  <si>
+    <t>02-1289</t>
+  </si>
+  <si>
+    <t>97-0148</t>
+  </si>
+  <si>
+    <t>While the mechanic was in the process of pulling out the auxiliary fuel tank and doing a preflight inspection after ferrying from Alaska to Washington, he discovered that the lower lift link bracket had a fracture running through the aft flange. Helicopter was grounded and made unavailable at 0800 PST.</t>
+  </si>
+  <si>
+    <t>Was informed by the night ramp supervisor at NIFC there was an aircraft parked at the ramp that was assigned to one of our fires that had a fuel leak. He needed to get in touch with the pilot to inform him of the problem. That aircraft was assigned to the Red Mt. fire on the Boise N.F. and had flown that day on the fire. I got the information and passed it on to the ramp supervisor. The next morning I went to the ramp to see what had transpired. After talking to the pilot about the leak and what had been done to correct the problem, I contacted Gil Elmy the R-4 maintenance inspector to let him know what transpired. After Gil and the pilot talked, Gil informed me that the aircraft was not in contract available status until the problem was fixed. The problem was an inoperative auxillary fuel pump. The replacement part was ordered, was delivered today 8/18/2006 this am. Pilot informed me the wrong part was sent, right part should be tommorrow in the am. At the time of this submittal situation is unresolved.........</t>
+  </si>
+  <si>
+    <t>Upon landing at airport the fueler discovered a missing fuel cap. The aircraft had been fueled at a local FBO prior to the flight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Upon completing a crew shuttle, to H-6, Helicopter 23V returned to the Oxbow Helibase and shutdown.  The mechanic was looking over the ship and noticed a little fuel around the engine area.  After checking further, he found the fuel line to the #2 engine was dripping fuel.  Pilot informed me of this and 23V was made unavailable.  This same line was replaced 2 or 3 weeks ago.</t>
+  </si>
+  <si>
+    <t>On May 23, 2011 while performing ATGS mission on the Horseshoe 2 fire right engine indications made it necessary to divert from mission and return to Bisbee Douglas Airport. At the time of decision, aircraft was maintaining 10,500 ft msl over the fire. First indication of possible problem was a reduced fuel flow indication. All other indications were normal and well matched with left engine. During decent to KDUG oil pressure indication decreased to low normal range. Approximately 5 miles from airport right engine failed. Engine was secured through emergency procedures, followed up with checklist. Normal landing was performed on runway 17 Bisbee Douglas airport. subsequent inspection found engine driven fuel pump shaft spined sheered. Fuel pump was replaced and aircraft was flown to Safford, Az. for further maintenance evaluation and returned to service</t>
+  </si>
+  <si>
+    <t>After being dispatched to a fire, as aircraft was spooling-up, the marshaler noticed a small amount of fuel leaking out of the drain port under the aircraft and onto the concrete pad. Upon receiving the marshaler''s message about the fuel leak, the aircraft was shut down and everyone exited the aircraft. The leak was not evident until the aircraft was started up. Pilot investigated the cause of the leak and found that as pressure was put on the fuel pump hose during start up, the cock valve did not close and this caused some fuel to purge out into the drain port where the leak was noticed. The valve was correctly positioned and this fixed the fuel leak problem. The small amount of fuel lost was mopped up and dried off the aircraft, and the helicopter was restarted while the marshaler observed the fuel port to make sure no more fuel was leaking. No further problems were encountered.</t>
+  </si>
+  <si>
+    <t>While doing the morning fuel testing it was found that there was rust in the fuel. A new fuel truck was brought out that same day and when the mechanic checked the fuel in the new truck it was found that the fuel in the replacement truck had more rust in it than the original truck.</t>
+  </si>
+  <si>
+    <t>On takeoff fuel pressure gauges read normal, 10 minutes into the flight the right engine fuel pressure gauge was reading high. So the pilot decided to terminate the flight on return to the airport. aircraft was placed into contract unavailable status. Company maintenance chief decided to replace the right engine driven fuel pump and do the scheduled 50 hr inspection at the same time. During the inspection the mechanic found the right engine driven hydraulic pump had failed. Hydraulic pump was replaced 8/8/07.</t>
+  </si>
+  <si>
+    <t>During refueling I looked into the cowling at the front of the aircraft. I noticed a broken metal line on the right side of the front engine. After removing the engine cowling the pilot determined it was the fuel primer line. Note: The fuel priming system is normally used only during cold wx ops, so the pilot had not been using the priming system.</t>
+  </si>
+  <si>
+    <t>On July 20th at approximately 0916 air attack departed Redmond Tanker base to respond to Incident #0521 with pilot, air attack trainee and air attack instructor on board. Immediately after take-off, pilot in command informed air attack that we have a mechanical problem and we are returning to Redmond. After landing pilot informed air attack that the fuel flow gauge was inoperable and that he will take the plane to the local A&amp;P mechanic to inspect faulty gauge.</t>
+  </si>
+  <si>
+    <t>Upon doing pre-use inspection I noticed fuel on the ground.  After looking closer, there was a leak on the fuel tank on the support/service trailer.  The leak was located on the lower right side of the tank.  A previous impact to the tank appeared to have created a crack that had rusted and a leak start.</t>
+  </si>
+  <si>
+    <t>The helicopter was trailered to Boise, ID. A new fuel control system was installed. This problem had occurred at Cottonwood, Idaho two weeks earlier. A fuel governor was replaced. This did not solve the problem.</t>
+  </si>
+  <si>
+    <t>auxiliary fuel tank</t>
+  </si>
+  <si>
+    <t>fuel cap</t>
+  </si>
+  <si>
+    <t>leakage</t>
+  </si>
+  <si>
+    <t>fuel pressure</t>
+  </si>
+  <si>
+    <t>[2, 7, 23, 70]</t>
+  </si>
+  <si>
+    <t>[51, 80]</t>
+  </si>
+  <si>
+    <t>[55]</t>
+  </si>
+  <si>
+    <t>[29, 31, 67, 97]</t>
+  </si>
+  <si>
+    <t>[5, 64, 67, 82]</t>
+  </si>
+  <si>
+    <t>[31, 55, 67]</t>
+  </si>
+  <si>
+    <t>[18, 22, 23, 58]</t>
+  </si>
+  <si>
+    <t>[53, 67, 82]</t>
+  </si>
+  <si>
+    <t>[67, 88]</t>
+  </si>
+  <si>
+    <t>[18, 23, 69, 97]</t>
+  </si>
+  <si>
+    <t>[8, 14, 22, 39, 97]</t>
+  </si>
+  <si>
+    <t>[70, 23]</t>
+  </si>
+  <si>
+    <t>[55, 55]</t>
+  </si>
+  <si>
+    <t>[55, 14, 8, 80, 55]</t>
+  </si>
+  <si>
+    <t>[67, 97, 29]</t>
+  </si>
+  <si>
+    <t>[67, 82]</t>
+  </si>
+  <si>
+    <t>[55, 67, 55]</t>
+  </si>
+  <si>
+    <t>[53, 30, 50]</t>
+  </si>
+  <si>
+    <t>[97, 23]</t>
+  </si>
+  <si>
+    <t>[41, 82, 80]</t>
+  </si>
+  <si>
+    <t>[82, 97, 80]</t>
+  </si>
+  <si>
+    <t>[97, 14, 8]</t>
+  </si>
+  <si>
+    <t>[53, 67, 8]</t>
+  </si>
+  <si>
+    <t>[41, 67]</t>
+  </si>
+  <si>
+    <t>12-0088</t>
+  </si>
+  <si>
     <t>00-0128</t>
   </si>
   <si>
-    <t>09-0569</t>
-  </si>
-  <si>
-    <t>99-0189</t>
-  </si>
-  <si>
-    <t>99-0923</t>
-  </si>
-  <si>
-    <t>13-0438</t>
-  </si>
-  <si>
-    <t>05-0873</t>
-  </si>
-  <si>
-    <t>17-0761</t>
-  </si>
-  <si>
-    <t>08-0212</t>
+    <t>08-0364</t>
+  </si>
+  <si>
+    <t>20-1131</t>
+  </si>
+  <si>
+    <t>05-0246</t>
+  </si>
+  <si>
+    <t>00-0689</t>
+  </si>
+  <si>
+    <t>20-0383</t>
+  </si>
+  <si>
+    <t>00-0163</t>
   </si>
   <si>
     <t>01-0355</t>
   </si>
   <si>
-    <t>19-0395</t>
-  </si>
-  <si>
-    <t>02-0758</t>
-  </si>
-  <si>
-    <t>03-0291</t>
+    <t>18-0633</t>
+  </si>
+  <si>
+    <t>02-1263</t>
+  </si>
+  <si>
+    <t>20-0369</t>
   </si>
   <si>
     <t>18-0866</t>
   </si>
   <si>
-    <t>11-0845</t>
-  </si>
-  <si>
-    <t>20-0868</t>
-  </si>
-  <si>
-    <t>03-0688</t>
-  </si>
-  <si>
-    <t>Shortly after taking off from (GJT)Grand Junction, CO the pilot asked the personnel in the back if they had opened a window and the response was the windows were already opened. We then proceded to the next fuel stop. After landing it was immediately noticed that there was grease all over the tail boom, rotors, and body of the ship. We were at Classic helicopters service center in Page, AZ and we were having a 50 hour done so the mechanic said he would check it out. Upon returning from lunch I was notified that one of the excluder seals had gone bad and lost some of its grease. The mechanic had said we could still fly and it would need to be replaced shortly, after contacting the region nine maintenence inspector it was determined the ship was unavailable until the seals were replaced. It was not determined if the pilots question about the windows being opened could have been the seal going or not. After the initial question no abnormalities were experienced.</t>
-  </si>
-  <si>
-    <t>Half of the plastic strobe cover on the vertical fin was misssing.</t>
-  </si>
-  <si>
-    <t>On 7/16/2020 Helicopter N625CK was assigned a water dropping mission on the Mineral Fire in FKU. While on it's initial dip and extracting water, the Pilot noticed the tank was not filling via snorkel. Upon return to helibase the assigned mechanic inspected the snorkel and tank doors. The mechanic found a sheared rod and a sheared bolt which controlled one of the tank doors. The sheared rod did not allow the retraction of the tank door and thus the helicopter was unable to retain water. The aircraft was placed out of service.</t>
-  </si>
-  <si>
-    <t>July 9, 2018 @ 935 am Helicopter NXXX was lifting to depart from the Airport for bucket work on the Golden Butte Fire when the ground crew noticed black rubber flying out near the main rotor of the helicopter.The aircraft returned to airport and landed. After landing and inspection the mechanic found that the rotating swash-plate boot was disintegrating. The mechanic cut out what was left of the boot. The aircraft was made unavailable at 10am until further notice. The manager informed the helicopter vendor director and DOI maintenance inspector, Travis Shepard. The vendor ordered the part AOG. Pilot noted that on preflight he did not notice anything odd or recognize anything wrong on the swash plate. At 12:30 the vendor completed taking the necessary parts off the helicopter in preparation to install a new swash-plate boot.The vendor advised they would be unavailable for the rest of day and possibly half the following day. The mechanic covered the helicopter head with tape and plastic to prevent rain and moisture from entering the bare open swash-plate bearing. Vendor dispatched a company helicopter mechanic the following morning with the part and tools to complete the part installation.</t>
-  </si>
-  <si>
-    <t>While doing bucket work on a small fire, the pilot felt an abnormal jerk after releasing the bucket of water on a target. He made a call to the manager on the fire and said that he had felt something strange when he released the water but that the bucket was still in place. The decision was to land the helicopter and inspect the bucket. Upon inspection it was confirmed that the primary release wire on the Bambi Bucket (model 1214 / 144 gallon) had sheered. The bucket was replaced with the secondary Bambi bucket carried on the fuel truck and the mission continued. Later upon further inspection of the bucket it was determined that the cable had gotten pinched between the pulley and the bracket holding the pulley. This did not allow for the control head to retract the cable, thus exerting intense force on the cable and the cable broke. The bucket was relatively new with only a couple seasons of use. No one was injured, and the last load of water carried by the bucket released from the bucket prior to the cable breaking (thus there was not an unexpected release of water from the bucket).</t>
-  </si>
-  <si>
-    <t>Upon dispatch pilot was distracted from completing his normal walk around of the aircraft. Upon taxi of the aircraft about 30Ft. The pilot noticed through the rudder pedals there was no movement of the rudder. Pilot instantly realized what had happened. Pilot took appropriate actions to correct the situation. The aircraft responded to the incident and returned without further incident.</t>
+    <t>08-0924</t>
+  </si>
+  <si>
+    <t>06-1277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While operating the PSD machine on four fast, the operator noticed a ball jam. The ball appeared to be stuck at the bottom of chute 1. The operator, attempted to clear the jam by turning the manual assist wheel. However, the wheel spun freely. After, trying the manual assist wheel, the operator took another look at the sphere placement and noticed that it appeared to be stuck in the chute above the slipper block. During this chain of events, approximately 30 seconds had passed without the ball catching on fire or smoking. The operator then notified the ignitions specialist and pilot that there was a jam in the machine and only three chutes were functional. The operator also stated that the jammed sphere was not igniting. A few more passes were completed, and then the helicopter set down at the helispot to refuel and clear the jam. While on the ground, the hopper and chute were removed from the helicopter to examine and clear the jam. Upon closer inspection, it was noticed that the sphere had half of another sphere stuck to it. The extra half a sphere prevented the sphere from falling down the chute into the slipper block, thereby creating the jam. The jammed sphere was shaken loose from the chute and the machine was reassembled and ready for continued operations. </t>
   </si>
   <si>
     <t xml:space="preserve">Aircraft was landing at the helibase when a box containing a spare rotor blade was blown by rotor wash from the top of the company fuel truck.  The blade was damaged to the point of not being serviceable as a spare for the helicopter.  The combined total weight of the blade and the box is about 600 lbs.  Had anyone been in the area when the box fell, they could've been seriously injured or killed.  The box had been untied by one of the contractor's employees in preparation for placement of the blade on the helicopter. The pilot held a safety meeting with the crew and clarified duties of each.  The meeting was mandated by the company home office.  </t>
-  </si>
-  <si>
-    <t>At approximately 1200 Dispatch notified the Tanker Base that a heavy airtanker was going to arrive to hold or possibly reload. SEAT aircraft T-XX and T-XXX were relocated from the loading pit area to the East side of the taxiway, tie down area, in preparation for the arrival of the Heavy Airtanker. They were repositioned by contract personnel via vehicle tow. An adiditonal SEAT remained in the lower loading pit, which allowed room to accommodate the passing of The Large Airtanker. The Large Airtanker arrived at the Tanker Base at approximately 1250 PDT. They contacted the ramp and were instructed that a marshaller would direct them on the taxiway to the upper loading pit. The Large Airtanker successfully made it past T-XX. There were two SEATs and a C-182 parked in the East-side tie-down area, to the left of Large Airtanker. This created a situation that caused the Large Airtanker to taxi well to right of the taxiway centerline to avoid the parked aircraft. Because they were so far to the right of the taxiway, the Large Airtanker`s right main landing gear wheels had traveled off the tarmac and the pilot adjusted the aircraft back onto the tarmac. The pilots’ attention was also focused on the taxiway light pylons as there was some concern that the right outboard propeller might strike one of these. The marshaller continued to marshal the aircraft past T-XXX. The position of T-XXX did not allow adequate room for the Large Airtanker to pass as it was parked slightly more forward than the other aircraft. The left wing fairing of the Large Airtanker rolled through the propeller {not in motion} of T-XXX. The Large Airtankerwas directed into the pit and damage was inspected. The left wing fairing of the Large Airtanker and the propeller blades of T-XXX were damaged.</t>
-  </si>
-  <si>
-    <t>On the return flight to the water source in turbulent conditions pilots hand slipped on the cyclic control releasing the Bambi Bucket.  Crew retrieved the bucket.  Minor repairs were made to the bucket and returned to service.  The major correctable factor in this incident is the position of the cargo release button which will be relocated by the mechanic on the next 100 hour inspection.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After returning to Elko from the Sadler Fire the mechanic at the vendor'sdiscovered hairline cracks in the flanges connecting the tailboom to the fuselage.  Helicopter NXXXX was taken out of service, the district Aviation Manager, OAS, and Bell Helicopters were contacted.  The flanges were replaced and the helicopter repaired, inspected and returned to service on 13 August. </t>
-  </si>
-  <si>
-    <t>After a Ferry Flight lasting 30 minutes, and during post flight inspection performed by the mechanics, a blade delimitation {a bubble approximatly 8 inches long by 3 inches wide} was found at the underside and outer 1/4 of the right blade. The inspection revealed the delamination was due to what appeared to be a manufacture defect. The Pilot was consulted and reported no unusual or abnormal flight characteristics during the ferry flight. Mechanic informed the Helicopter Manager of the situation and made the aircraft unavailable.</t>
-  </si>
-  <si>
-    <t>During pre-flight crew observed Tail Rotor cable #3 sections missing plastic coating. Tail Rotor cable R&amp;R. Rig pins H,Q,&amp; R installed @ Tail Rotor Control quadrants to facilitate removal of cable. Aircraft returned to contractual availability on 13 sept 05 via R-5 Maint, Inspector (G. Burney). TOTAL NON-AVAILABILITY: 6 Hours</t>
-  </si>
-  <si>
-    <t>Upon takeoff for a water delivery mission{third cycle of the day}, the PIC noticed hydraulic fluid leaking from aircraft onto the helipad. The aircraft was immediately set back down. The leak turned out to be the yaw number 1 transfer tube. The leak was fixed and another leak was found during the leak check, which was in the pitch tube.</t>
-  </si>
-  <si>
-    <t>While performing a routine maintenance inspection on the aircraft following a water dropping mission on the fire the mechanic discovered that the tail rotor box on the aircraft was cracked. The aircraft was made unavailable until a new tail rotor box could be installed.</t>
-  </si>
-  <si>
-    <t>Due to multiple types and numbers of aircraft, the ATGS on 07/07/01 at 1720 requested a second air to air AM victor Freq. to use for Rotor wing A/C, the order was placed and the freq. was received at 1800 and relayed to the ATGS. At the end of his shift the ATGS requested an additional AM freq. to be used for fixed wing a/c and an air to ground FM frequency for 07/08/01 at 0600, to free up the initial attack frequencies.  The order was placed from GJC to RMC at 2110.  Upon arriving at work the next morning I received the frequencies assigned from RMC. After checking the frequencies assigned, I noticed that the air to ground FM freq. was already assigned and being used in vicinity of the Deer Creek fire.</t>
-  </si>
-  <si>
-    <t>XXXXX XXX had their mechanic inspect their Fire Bosses per a directive from Air Tractor. The inspection involved an air pressure test of the structural tubing in the tail section of the fuselage. XX-XXX failed this test. As a result it was made unavailable at 1326 on 7/26/2019. The cause appears to be a crack in a weld joint {see attachment}. .</t>
-  </si>
-  <si>
-    <t>Pilot reported low torque, inspection revealed fuel stream from P1 port in the inlet.  P1 bellows cracked.  Removed fuel control, installed fuel control with Allied Signal 1330.2 manual, chapter 73.  Put back into contract availability by the Regional Aviation Maintenance Inspector.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After returning from fire to helibase for refuel and pilot swap, the fuel truck driver noticed that the exhaust stack was damaged. The aircraft was shutdown for further inspection. The mechanics discovered that not only was the exhaust port damaged, but the tail rotor had been damaged as well. They believe that part of the exhaust stack came off and made contact with the tail rotor, causing damage to all four blades.  </t>
-  </si>
-  <si>
-    <t>The number one engine was started with the tail-cone {exhaust} cover installed. No damage or injury.</t>
-  </si>
-  <si>
-    <t>Upon coming in to land at the airport the convex cargo mirror came off approximately 10-15 feet above the ground. The mirror bounced off the ground and rolled forward onto the asphalt under the rotor wash. After the helicopter landed and shut down, a further inspection of the mirror bracket arm revealed that the attachment point had snapped off where the mirror was mounted. A discussion with the mechanic determined that the mirror and bracket arm were likely the originals from the helicopter`s manufacture dated 2001. The articulating arm was subjected to the normal vibrations of the aircraft, which over time may have weakened the connection point.</t>
-  </si>
-  <si>
-    <t>On initial taxi, pilot noticed unusually high power settings(~15% to start moving), stopped, cycled the parking break a few times, noted normal taxi power settings and continued to the runway.  On the takeoff roll, pilot noted 10 kts below the local S-2 minimum acceleration check speed but elected to continue the takeoff.  At rotation and during the initial portion of the upwind leg, the pilot faintly smelled hot brakes then at ~500 feet lowered the gear to cool the brakes and prevent the possibility for a nacelle fire.  The pilot then cleaned up and jettisoned the retardant load at the nearest jettison area, declared an emergency with NORCAL In order to have crash response available at at KMCC and proceeds to KMCC in a dirty configuration to increase fuel burn and land light.  Pilot touched down as slow as possible.  Rollout and taxi to AMU were uneventful.  Pilot terminated emergency response with ARFF 1 while rolling out.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foward rotor head horizontal pin bearing inspection due.  </t>
-  </si>
-  <si>
-    <t>rotor</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>pedal</t>
-  </si>
-  <si>
-    <t>blade</t>
-  </si>
-  <si>
-    <t>roll</t>
-  </si>
-  <si>
-    <t>tail</t>
-  </si>
-  <si>
-    <t>pitch</t>
-  </si>
-  <si>
-    <t>tail rotor</t>
-  </si>
-  <si>
-    <t>[23, 50, 88]</t>
-  </si>
-  <si>
-    <t>[23, 80]</t>
-  </si>
-  <si>
-    <t>[18, 23, 55, 87]</t>
-  </si>
-  <si>
-    <t>[22, 23, 65]</t>
-  </si>
-  <si>
-    <t>[3, 18, 23]</t>
-  </si>
-  <si>
-    <t>[42, 82]</t>
-  </si>
-  <si>
-    <t>[14, 23, 29, 80, 88]</t>
-  </si>
-  <si>
-    <t>[2, 23, 80]</t>
-  </si>
-  <si>
-    <t>[3, 14, 23, 56, 97]</t>
-  </si>
-  <si>
-    <t>[14, 20, 23, 69, 97]</t>
-  </si>
-  <si>
-    <t>[23]</t>
-  </si>
-  <si>
-    <t>[42, 67]</t>
-  </si>
-  <si>
-    <t>[14, 23, 69, 80, 97]</t>
-  </si>
-  <si>
-    <t>[10, 23]</t>
-  </si>
-  <si>
-    <t>[7, 23, 43, 97]</t>
-  </si>
-  <si>
-    <t>[23, 58, 69, 97]</t>
-  </si>
-  <si>
-    <t>[18, 23]</t>
-  </si>
-  <si>
-    <t>[18, 23, 63, 88, 92]</t>
-  </si>
-  <si>
-    <t>[0, 8, 21, 42, 82]</t>
-  </si>
-  <si>
-    <t>[23, 69, 80]</t>
-  </si>
-  <si>
-    <t>[42]</t>
-  </si>
-  <si>
-    <t>11-0119</t>
-  </si>
-  <si>
-    <t>08-0154</t>
-  </si>
-  <si>
-    <t>07-0042</t>
-  </si>
-  <si>
-    <t>10-0126</t>
-  </si>
-  <si>
-    <t>Original Text:Tested Premo machine at helibase before loading in the helicopter. Everything ran fine. Landed at helispot and shut down. Took doors off helicopter and mounted Premo machine to the helicopter. Had the pilot turn on the battery to test machine for the go/no go checklist. Everything was operational. Turned off the machine, filled out the paperwork, and waited for the call from the DFMO to start aerial ignition. At 1335 the DFMO said he was ready for the helicopter. Flew to the burn, reconned, and made a plan for ignitions. Firing Boss gave me the go ahead to start firing. Turned on the Premo machine and it ran for a short period{2 seconds}. The drive line quit running so I notified the pilot then pulled out the knob and manually turned it figuring there was a jam. I dropped a couple of balls and let the knob pop back in. The machine still wouldn`t run so I checked the switches and pop out circut breakers. There was no lights on but the water pump would still work. Couldn`t find anything wrong with the machine. Decided to set down to look at the machine better. The pilot set down on the dam adjacent to the burn. Took top off the machine and couldn`t find anything wrong. Then I could tell the 5 amp fuse was blown. Had to go back to the helispot where the equipment was for the machine. Landed there and tried 2 fuses and blew both of them. Had the pilot shut down the helicopter to look more thoroughly at the machine. Took the top off the machine, unplugged the power supply wire and plugged it back in and put another fuse in the 5 amp. Had the pilot turn on the battery and instantly the connection on the back side of the switch panel went to smoking. Checked the wires and couldn`t find any bare spots where it could be grounding out. Decided to go back to Helibase to swap machines and work on the broken machine. Hooked drive motor up to inverter and instantly it blew the fuse in the inverter. Found corrosion around the connections on the back side of the switch panel box. Took the 3 prong connection{`IN` wire} loose from the switch panel box. Realized the prongs were burnt and the connector was cracked between 2 prongs.</t>
-  </si>
-  <si>
-    <t>Pilot ran the helicopter up this morning, which was not normal operation and the Mechanic told us at 735 that the helicopter was grounded because of a kinked hydraulic line that runs to the reservoir. The mechanic told us that he had been keeping an eye on it for a few days and did not say anything about it to us.The relief pilot also knew and did not tell the regular pilot when he came back yesterday. Pilot said he was not told about it until last night when mechanic informed him. The maintenance inspector was called and told about the hydaulic line and the mechanic not telling us about it, since we have been flying and doing prescribe burns (PSDO operations) and we should have been informed of the mechanical problem.</t>
-  </si>
-  <si>
-    <t>After landing to get the helitorch barrel refilled the pilot got out of the helicopter with the blades still turning and power to them to go to the bathroom.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At aprox 1254 March 14, 2010 the helicopter was spooling up at the Airport. In aircraft were Pilot, FIRB, and PLDO. HMGB was aprox 50 feet in front of aircraft as crash rescue/fire protection. Aircraft was configured for aerial ignition mission on NF. Pilot and HMGB established good communication on air to ground frequency as a routine and did so as aircraft spooled up. Left front door of aircraft was off at FIRB’s request with Pilot’s approval. Aircraft was at flight idle. After comm check HMGB heard FIRB seconds later, on air to ground say, “could you hold on to this” as FIRB was digging in his left front pocket. HMGB then made it two steps toward aircraft to take object from FIRB then heard a sharp noise followed by several other noises aprox twenty feet to left side of aircraft. HMGB then hand signaled pilot to shut aircraft down. Pilot did not fully understand so HMGB approached pilot door to tell him to shut down. Dispatch was notified there was a situation and aircraft would be unable to perform aerial ignition for RX burn. Pilot, FIRB, PLDO, and HMGB discussed what had just happened. A pocket knife was under-hand tossed by FIRB from aircraft toward HMGB, which made contact with one main rotor blade. FIRB had attempted to toss the knife in the grass just off the asphalt in front of aircraft to avoid anything falling from aircraft during flight. Upon contact with the rotor, the knife burst into pieces landing off to the left side of the aircraft. Pilot inspected blades finding place of impact. HMGB called and notified Regional maintenance inspector at 1305. Pilot contacted Helicopter’s mechanic at same time. HMGB notified COR/AFMO of situation at 1328, and FMO 1444. Helicopter mechanic arrived at aprox 1530 and performed inspection of blades and aircraft. Inspection revealed two small gashes aprox 9 inches from tip of one blade and aprox 2 millimeters deep on the leading edge. Also found were several small paint chips on underside of blade which did not enter “honey comb” of blade. Mechanic then spoke with Regional Maintenance Inspector and Helicopter operator’s Chief of Maintenance for directions. Aircraft will remain at airport for the night to allow mechanic time to obtain proper equipment for a possible repair. </t>
-  </si>
-  <si>
-    <t>aerial ignition</t>
-  </si>
-  <si>
-    <t>psd</t>
-  </si>
-  <si>
-    <t>helitorch</t>
-  </si>
-  <si>
-    <t>[11, 22, 31, 60, 95]</t>
-  </si>
-  <si>
-    <t>[31, 67, 99]</t>
-  </si>
-  <si>
-    <t>[29, 45]</t>
-  </si>
-  <si>
-    <t>[23, 60, 88]</t>
-  </si>
-  <si>
-    <t>[60]</t>
-  </si>
-  <si>
-    <t>[60, 95]</t>
-  </si>
-  <si>
-    <t>[99]</t>
-  </si>
-  <si>
-    <t>[45]</t>
-  </si>
-  <si>
-    <t>98-0148</t>
-  </si>
-  <si>
-    <t>05-0559</t>
-  </si>
-  <si>
-    <t>13-0038</t>
-  </si>
-  <si>
-    <t>06-0519</t>
-  </si>
-  <si>
-    <t>15-0631</t>
-  </si>
-  <si>
-    <t>09-0269</t>
-  </si>
-  <si>
-    <t>98-0399</t>
-  </si>
-  <si>
-    <t>16-0289</t>
-  </si>
-  <si>
-    <t>13-0606</t>
-  </si>
-  <si>
-    <t>03-0188</t>
-  </si>
-  <si>
-    <t>03-0497</t>
-  </si>
-  <si>
-    <t>11-0798</t>
-  </si>
-  <si>
-    <t>16-0706</t>
-  </si>
-  <si>
-    <t>08-0326</t>
-  </si>
-  <si>
-    <t>07-0302</t>
-  </si>
-  <si>
-    <t>02-0803</t>
-  </si>
-  <si>
-    <t>10-0278</t>
-  </si>
-  <si>
-    <t>05-0435</t>
-  </si>
-  <si>
-    <t>17-0895</t>
-  </si>
-  <si>
-    <t>04-0434</t>
-  </si>
-  <si>
-    <t>16-0815</t>
-  </si>
-  <si>
-    <t>07-0629</t>
-  </si>
-  <si>
-    <t>00-0698</t>
-  </si>
-  <si>
-    <t>13-0416</t>
-  </si>
-  <si>
-    <t>05-0384</t>
-  </si>
-  <si>
-    <t>12-0813</t>
-  </si>
-  <si>
-    <t>03-1106</t>
-  </si>
-  <si>
-    <t>19-0126</t>
-  </si>
-  <si>
-    <t>This is to doument Tanker 65 being unavailable for dispatch from 1550 to 1740.Panel engine gauges.  The power cable for this was left off the breaker whena new light circuit breaker was replaced in the panel.  A &amp; P mechanic Norberg made the repairs.</t>
-  </si>
-  <si>
-    <t>NXXXX was flying air attack on the Burnt River Complex, over incident 154, call dispatch with a report that they lost an engine and were going to try to fly back to Baker on a single engine. At the time of engine failure, they were 22 miles out of Baker. Maintained Contact with NXXXX throughout the flight to Baker. They were able maintain altitude and land safely @ Baker without incident.Contacted Forest Aviation Officer and vendor. Also requested emergency response at the Baker Airport.</t>
-  </si>
-  <si>
-    <t>On Runup to respond to the fire, {#}1 Jet would not start. Taxied back to base informed base manager of problem. AMI was notified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilot failed to untie main rotor blades before start up. Pilot noticed that he did not untie at the same time he attempted to start engine. Immediately aborted start. Total time was approximately one second. Pilot untied blades and started helicopter. </t>
-  </si>
-  <si>
-    <t>Turbocharged 337 Cessna Skymaster pilot started the front engine without any problems. Attempted to start the rear engine but it would not start. The pilot followed other starting procedures as recommended by the owner but without success. The company mechanic was contacted and it was determined the fuel pump had failed. At 1900 aircraft was unavailable.</t>
-  </si>
-  <si>
-    <t>The helicopter departed CKX and upon arrival at the fire several warning lights{particle separator, rpm, engine 1 out, and engine 2 out} became illuminated. The pilot immediately began maneuvering toward the nearest landing spot, but all other gauges read normally &amp; we could still hear the engines running, so we returned to CKX. Enroute all warning lights except one paticle separator light went out. The helicopter landed without incident and the mechanic, IC, and AMD maintenance inspector were notified of the problem.</t>
-  </si>
-  <si>
-    <t>While returning to California from the Florida Incidents the aircraft was preparing to leave Lake Front Airport in Louisiana.  During pre takeoffrunup on the engines the pilot noticed that the right engine was not coming upto 100% power.  An air deverter valve had failed which would not allow the engine to get enough air to function properly.  A certified aviation mechanictemporarily repaired the valve but would not sign off a Part 135 Cert.  ACORthe aircraft on unavilability and paid for the ferry flight back to Fresno.The Forest Service employee returned to Fresno on a commercial airline.</t>
-  </si>
-  <si>
-    <t>We left the Airtanker Base at 1046 to do a requested Recon mission over the Galeuros and the Chirichua Ranges. We finished the Galeuros and were at the Dos Cabezas Mountains enroute to the Chrichuas when the pilot alerted me that the right engine tachometer needle was falling. I looked at the gauges and was a slow descent to 0 rpms. The pilot checked all the other gauges and they were all in the green. I visually looked at the right engine which showed no outward abnormalities. The pilot said that the xxx airport was close and we agreed that we would head the aircraft to there. Once that decision was made I called Dispatch and informed them that we had a malfunction with one of the gauges but operations were good and we were proceeding to the airport. We landed and went to maintenance facilities. Once parked, I notified Dispatch we were safe on the ground, and then notified management, and the OAS Maintenance Inspector of the situation.</t>
-  </si>
-  <si>
-    <t>While conducting an Air Attack mission I encounter a rise in N2/NR. I was unable to get the rpm`s down to normal operating range so I opted to land immediately at a near by military training area. Upon landing I ran a few ground checks confirming that the turbine governor had failed completely. A call was made to heli base informing them of our situation and to order another helicopter to fly back to LADD to pick up our mechanic.</t>
-  </si>
-  <si>
-    <t>I hope that this Safecom gets wide distribution to all aircraft ground support personnel (fixed wing and rotor). There are some very valuable lessons learned within this Safecom.I was on standby in Grand Junction acting as ATP (Air Tactical Pilot.) It was the end of the standby shift and we had just finished plugging the aircraft with intake plugs, pitot covers and prop stops. I was inside the cabin when ramp manager approached with a dispatch to a fire. The mechanic that is always with the aircraft, standing outside, said that he would unplug the aircraft while I stayed inside the plane. I watched him as he traveled around the airplane grabbing the plugs and other equipment. I watched as he placed the bag of items unplugged into the plane. The cockpit checklist was complete up to engine start and started the right engine. The ATS (Air Tactical Supervisor) yelled stop engine, which I did. At the same time I noticed the ramp manager giving the stop engine sign. There was still and engine plug in the intake of the engine. There was no damage caused, as there were only one or two revolutions of the prop before the cut sign was given (no engine light off). A complete walk around was performed and a restart was done after another complete checklist was completed. Engine was started with no mishap.As embarrassing as this is for me, there are several lessons learned here that I would like to comment on.1.	As pilot in command I should have been the person to remove all the plugs from the aircraft. The PIC is responsible for the pre-flight of the aircraft. It would have only taken me but a few seconds to perform the task and ensure of a proper preflight. This is a classic example of “complacency.”2.	The use of ramp managers and other personnel such as them are invaluable to the safety of the aircraft and the crews in and around them.3.	This situation shouts CRM. In the many years of aerial fire fighting, I have had several ground personnel come up to me and point out things on the aircraft that they had a question about. 90% of the time it was something if importance. The ATS was watching the ramp manager as I was looking at the flight panel. Using the two-crew members in the ASM role caught the engine stop signal way before I would have if it had been a single pilot operation.Job well done on the part of Ramp Manager, because of his actions, we didn’t cause any damage to the aircraft and were able to continue with the mission.</t>
-  </si>
-  <si>
-    <t>Assign to lighting recon flight at 1050 Hrs. At end of planned flight, pilot noted right engine HP would not come back below 250 HP. Made landing at SBA at 1200 hrs. Mechanic worked on aircraft with test flight being OK. SZ Aviation Maintenace Inspector was called and aircraft was return to availability status. At 1549 hrs response to SB co fire #5209. 1615 hrs right engine would not come back below 250 HP, landed at SBA at 1641 hrs. SZ Maintenance Inspector was called on the situation, log book entry will be fax to Jerry when aircraft is returned to availability status.</t>
-  </si>
-  <si>
-    <t>Tanker XX departed LMT at 1442 loaded to the Annie fire. At 14:55 notified LMT airtanker base of problem with {{#}}1 jet and needs to jettisson retardant and return for maint. Gave Tanker XX coordinates for jettisson area. Tanker XX proceeded to area and aborted load. Came into LMT at 15:16.</t>
-  </si>
-  <si>
-    <t>Bird strike on engine number 1 noticed by crew chief on walk-around and discontinued reload for fire. Operations shut down. Pilots did not notice any engine concerns. Do not know the altitude, coordinates of strike or time it happened.</t>
-  </si>
-  <si>
-    <t>On 6.16.2008 at approximately 1730 airtanker Lockheed P2 Neptune tail number xx was in the blocks and was under supervision of fixed wing parking tender. Aircraft had just completed loading retardent, loading crew was cleared, and airtanker was given permission to start engines. Pilot signaled to FWPT to clear him to start engine {#}2, clearance was given. As engine {#}2 was starting the suction from the propeller sucked a collapsible fabric and wire sunscreen out of the copilots window. The sunscreen disappeared with the engine blowby smoke behind the aircraft. Clearance was asked and given to start engine {#}1. As engine {#}1 cleared of smoke the sunscreen reappeared and swirled with the engine turbulence, threatening to be sucked into engine air intakes of both engine {#}1 and engine {#}2. Parking tender gave the pilot an emergency immediate cut-engine signal. Pilot responded immediately. The sunscreen fell to the ground in front of engine {#}2 and was retrieved by FWPT.</t>
-  </si>
-  <si>
-    <t>During bucket operations while on approach for a drop the pilot recieved a transmission pressure caution light with no other guage indications of a problem. The pilot elected to release the load of water and land the aircraft at the closest landing area. Once on the ground the pilot checked all digital readings with no anamolies. The contract mechainc was flown to the site by the vendor to perform a maintenance check of the system. Transmission was full of fluid and no signs of leakage. The aircraft computer system was downloaded and showed no faults in the system. The mechanic checked all the cannon plugs to the transmission and found one to be slightly loose and have a film on the contacts, it was determined that this may have cause the light to occur. The plug was cleaned and reinstalled on the aircraft. Aircraft had made a maintenance check flight with the pilot and mechanic with no problems. Due to no Sat or cell phone coverage the contract maintenance inspector was called upon arrival at S Rim Helibase, he cleared the aircraft for return to service.</t>
-  </si>
-  <si>
-    <t>#1 engine input coupling observed running hot.  Noticed grease drying out permaturely.  Removed and replaced input seal and bearing housing assembly with serviceable unit.  Inspected and repacked input coupling.  Ground test run-up checked out OK.  Maintenance inspector advised/approved return to contract availability a/c (o/s) N/A 0800-1400 hrs.</t>
-  </si>
-  <si>
-    <t>T-XX captain informed base manager they needed a one hour maintenance break to check a fuel leak on {{#}}2 engine.</t>
-  </si>
-  <si>
-    <t>Immediately after takeoff the pilot experienced a loss of power. He jettisoned his load of retardant adjacent to the runway (500 gallons). This was his first sortie of the day. After inspection the engine appeared fine. SEAT flew the rest of the day without problems. Temperatures were hot (+ or - 110 degrees F.)</t>
-  </si>
-  <si>
-    <t>The AC was off contract after dropping off the ATGS at MSO. After takeoff the pilot said the aircraft was running rough and would not climb. He turned the aircraft around and made an emergency landing at Missoula.</t>
-  </si>
-  <si>
-    <t>While performing large fire support on the Incident, an oil leak was discovered. Oil was dripping out of the valve and pooling in the carriage. 7/2/04 This narrative is an ammendment to the SAFECOM filed for this helicopter on 6/30/2004 (submitted by Helicopter Manager). Narrative: While performing a longline hookup I noticed a couple of puffs of white smoke come out of the left side cowl. I immediately had the pilot land and shut down the A/C. Upon inspection a leak was discovered on the breather tube flange that returns excess oil to the exhaust to be burned off. After discussion with the pilot it was determined that the helicopter needed to be repaired and that it would become un-available. I discussed the problem with my HELB(t) and we decided one of us needed to return to helibase to begin working on getting the helicopter repaired. The HELB(t) flew to helibase with the A/C. While I had confidence in the judgement of the pilot that the leak did not jeopardize the safety of the flight, I should have not asked the HELB(t) to fly down with the ship. This was a MAJOR oversight on my part. Policy dictates that when a problem is discovered that the A/C becomes unavailable @ that point. Once unavailable NO government personnel should be transported until the A/C is returned to service by an appropriate maintenance inspector.</t>
-  </si>
-  <si>
-    <t>Pilot attempted start of aircraft with main rotor tie down still in place. It was recognized prior to light off of engine by crew followed by immediate shut-down of starter generator.</t>
-  </si>
-  <si>
-    <t>During departure with 2 nets weighing 1600lbs, NXXX did not gain enough altitude to clear the canopy north of the Helibase. Load calc at 7000 @ 25 was 1825lbs. Manager told pilot to return to cargo and place loads on deck, pilot did so. NXXXX than took different loads weighing less with no problem. Upon completion of mission the pilot realized he turned the pitch control setting (dial) 30 degrees in the wrong direction. He set it at -30 instead of +30. This caused the ship to show itself redlining while it still had enough power for the load.</t>
-  </si>
-  <si>
-    <t>The helicopter was getting ready to start and depart for the project site.  The pilot tried to start the helicopter and it did not.  He tried a second time and was uncessful.  He motioned to the fuel truck driver to bring out the APU and hook it up.  The pilot then tried a thrid time and determined the ignitor had gone bad.  Pilot called the office and had a mechanic dispatched.  A maintenance inspector was contacted and he said that in order to put the helicopter back in service the ignitor would have to be replaced and make a entry in the log book.</t>
-  </si>
-  <si>
-    <t>On duty at 0900, this would be day 3 for mission over site for the Fire within the Zone. At 0920 we did a aircraft systems check before departure and all ops normal, at 0941 we departed airport for the incident with: two souls, 4 1/2 hours of fuel, on a heading 214 degree`s for a 22 min, ETE to the incident. at this point all operations were normal and during this time was calculating the times for relief air attack over the fire. At 12 miles from incident contacted IA helicopter on victor for entry into the airspace of the fire TFR in place, we proceeded into the area at 10,000 dropping to 9,000 ft all ops normal. Established ground contact with operations and IC for operational update and reconfiguration of divisions from the previous day. ordered up fixed wing aircraft: 2 seats for retardant line across the west flank of the fire towards the head. All ops normal. about 3 3/4 hours into the flight the pilot noticed that the fuel use gauge that reads pounds of fuel used per sec was not operational for the right engine, the engine never quit running. The pilot re-calculated the weights and measures for passenger, fuel and cargo, determined that it was either a gauge failure or sending unit and we had plenty of fuel. At 1348 air attack relief was over the fire, did a brief on the tactics and division break downs and handed off to the relief air attack. We proceeded back to The designated base, all ops normal except for the faulty reading of the right fuel/use gauge. Landed safely, notified UAM and Dispatch that aircraft was unavailable due to gauge failure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On shut-down from the first fuel cycle of bucket work on the fire, I exited the left seat and visually checked the left side of the aircraft for any leaks. The co-pilot exited the right seat. Since the fire was still active and more bucket work was needed, I did not open any cowlings, as we frequently do when we shut down this model helicopter for refueling. I then went to the right side of the aircraft to monitor refueling. Some time during the refueling procedure, the co-pilot opened the left side engine cowl and left it open. After the refueling was complete, I checked the fuel cap, looked at the right side of the aircraft for any leaks and asked the co-pilot if he was ready to go. He indicated he was ready to go, so I walked around the nose of the aircraft and climbed in the left door to strap in the left seat for the start. The co-pilot strapped in the right seat. The left side lower engine cowl, when open, cannot be seen from the front door without stepping away from the aircraft a few steps, which I had not done. After a normal start, we lifted off and proceeded toward the fire, about 4 miles away, to resume bucket work. Firefighters on the ground called on the radio and informed us that there was an open cowl. Apparently, the co-pilot had forgotten about the open cowl until the radio call was received. I immediately landed, inspected the cowl to make sure it was not damaged, secured it and then uneventfully continued the mission. As pilot-in-command, I did not adhere to a vital safety precept that I usually use, which is: Always make one quick walk-around inspection around the whole helicopter prior to climbing in to start it. Deficient communication and inadequate Crew Resource Management (CRM) between the pilot and co-pilot also contributed to this incident. </t>
-  </si>
-  <si>
-    <t>A chip light came on during the return from bucket drops to helibase. The pilot continued flying to the helibase with no major decreases to the helicopter performance as the left fuel pump and auxiliary fuel pumps were still functioning properly. Upon landing, the mechanic diagnosed the problem as not enough power flowing through the right fuel boost pump. After inspection it was determined that the fuel boost pump was no longer working correctly and needed to be replaced. A replacement fuel boost pump was ordered and arrangements were made by the vendor to deliver the pump to the Burley airport the following day.</t>
-  </si>
-  <si>
-    <t>After refueling in Ely Nevada, XXX was enroute back to Battle Mountain Nevada.  Two minutes outside of Battle Mountain the pilot and I noticed the aroma of fuel.  Upon landing in Battle Mountain, we were in the process of parking the aircraft and noticed a fuel leak on the right side engine.  The pilot shut down the aircraft and made his inspections.  The problem appeared to be a broken fuel line.  The pilot then made calls to his company and mechanics.  I notified Battle Mountain Dispatch, WGBCC and Boise Smokejumpers Duty Officer.  Returned to service 7/1/03.  All repairs done at 0800.</t>
-  </si>
-  <si>
-    <t>As we were coming in to the LZ, one of the crew members on the ground noticed something leaking by the fuel tank. Once we landed and shut the helicopter down the pilot came and examined the leak. He said it was for sure fuel and we needed to find out where it was coming from. The pilot looked into the engine a little more and found out it was leaking between the electric fuel shut off valve. The pilot pressurized the system with the boost pumps and could not recreate the leak. He returned to base without the helitack crew.</t>
-  </si>
-  <si>
-    <t>generator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">engine </t>
-  </si>
-  <si>
-    <t>battery</t>
-  </si>
-  <si>
-    <t>chip</t>
-  </si>
-  <si>
-    <t>white smoke come</t>
-  </si>
-  <si>
-    <t>stall</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>[11, 14, 69, 83, 97]</t>
-  </si>
-  <si>
-    <t>[7, 11, 59, 65, 69]</t>
-  </si>
-  <si>
-    <t>[29, 83]</t>
-  </si>
-  <si>
-    <t>[7, 88]</t>
-  </si>
-  <si>
-    <t>[73, 82, 85]</t>
-  </si>
-  <si>
-    <t>[2, 22, 38, 44, 97]</t>
-  </si>
-  <si>
-    <t>[21, 43, 82]</t>
-  </si>
-  <si>
-    <t>[47, 82]</t>
-  </si>
-  <si>
-    <t>[2, 69, 80, 82, 88]</t>
-  </si>
-  <si>
-    <t>[3, 69, 80]</t>
-  </si>
-  <si>
-    <t>[25, 41]</t>
-  </si>
-  <si>
-    <t>[2, 8, 50, 88]</t>
-  </si>
-  <si>
-    <t>[30, 50, 53]</t>
-  </si>
-  <si>
-    <t>[23, 69, 80, 97]</t>
-  </si>
-  <si>
-    <t>[0, 29, 30, 82]</t>
-  </si>
-  <si>
-    <t>[8, 54]</t>
-  </si>
-  <si>
-    <t>[64, 67, 68, 80]</t>
-  </si>
-  <si>
-    <t>[3, 63, 82]</t>
-  </si>
-  <si>
-    <t>[11, 22, 58, 68, 97]</t>
-  </si>
-  <si>
-    <t>[63, 83]</t>
-  </si>
-  <si>
-    <t>[41, 80, 82, 88]</t>
-  </si>
-  <si>
-    <t>[22, 41, 70, 93]</t>
-  </si>
-  <si>
-    <t>[8, 53, 67]</t>
-  </si>
-  <si>
-    <t>[41, 67, 88]</t>
-  </si>
-  <si>
-    <t>[50, 8]</t>
-  </si>
-  <si>
-    <t>[8, 41]</t>
-  </si>
-  <si>
-    <t>[54, 8]</t>
-  </si>
-  <si>
-    <t>[64]</t>
-  </si>
-  <si>
-    <t>[82, 41]</t>
-  </si>
-  <si>
-    <t>[93, 41]</t>
-  </si>
-  <si>
-    <t>[82, 8]</t>
-  </si>
-  <si>
-    <t>[50, 82]</t>
-  </si>
-  <si>
-    <t>13-0562</t>
-  </si>
-  <si>
-    <t>08-0682</t>
-  </si>
-  <si>
-    <t>00-0509</t>
-  </si>
-  <si>
-    <t>Original Text:This is in regards to a fan for for this aircraft that has gotten bad in recent flights. It sounds like the bearings in the fan are going out and makes really bad noise when on. This fan is for the cooling the transmission fluid.  I`m told from the pilot, that if he were to hover, the temp is going to spike causing severe damage to the engine. This noise seems to have gotten really bad, suddenly, from the day before, therefore, we agreed to put the aircraft un-available.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The relief pilot had found the hydraulic fluid resevoir low and called to the AvCenter line staff to bring  to him some hydraulic fluid. They brought the Skydrol high altitude fuild and the pilot put it in the reservoir. He then put the jug in the baggage compartment where the mechanics found it during the 100 hour  inspection, on 8/1/08. The oil was added on 7/4/2008 and the aircraft has been flown with the Skydrol in the system. </t>
-  </si>
-  <si>
-    <t>Subject:  SAFECOM - Canadian Bird Dog#52,           Left Engine Failure.At approximately 1100 hours MDT Canadian Bird Dog#52, a Turbo Commander, departed Miles City, Montana for Helena, MT.  After reaching cruising altitude of 12,500 feet westbound, and 25 minutes out of Miles City, the left engine suddenly lost power and went to auto feather.  There were no prior indications (instrumentation) that there was a problem developing.  After a cool down period of approximately 2 minutes, and attempt to restart the engine was made but immediately aborted due to no indication of oil pressure.The aircraft was under FS flight following with Lewistown as Billings could not be raised.  Flight following and position reports were also conveyed to Helena on FS nets.The aircraft had no difficulty maintaining altitude and was operating in CAVU conditions.  The flight crew made a judgement call to continue on to Missoula where they had maintenance support even though it was somewhat further than Helena where the logistics of repair would be difficult.  This decision was based on what the flight crew believed to be inpracticablein given the circumstances of clear air, no problems in maintaining altitude, other available landing places along the route, and the availability of maintenance support in Missoula.Bird Dog #52 continued west at 12,500 feet MSL with no further difficulties, other than reduced airspeed, and maintained visuals on airports and landing area's they could reach if problems developed with the right engine.Landing was affected in Missoula at near 1200 hours where they taxied to Northstar Aviation and met with their maintenance team.  The cowling was removed, screens pulled showing a lot of evidence of metal particle, i.e., steel and brass.  The engine had failed and required an engine change.USDA Forest Service LiaisonCanadian Airtanker Deployment</t>
-  </si>
-  <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> temp</t>
-  </si>
-  <si>
-    <t>[31, 50, 51, 82]</t>
-  </si>
-  <si>
-    <t>[67, 94]</t>
-  </si>
-  <si>
-    <t>[8, 14, 62, 80, 82]</t>
-  </si>
-  <si>
-    <t>[53, 82]</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>load calc</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>[63]</t>
-  </si>
-  <si>
-    <t>98-0356</t>
-  </si>
-  <si>
-    <t>08-0698</t>
-  </si>
-  <si>
-    <t>11-0349</t>
-  </si>
-  <si>
-    <t>14-0698</t>
-  </si>
-  <si>
-    <t>13-0863</t>
-  </si>
-  <si>
-    <t>14-0425</t>
-  </si>
-  <si>
-    <t>15-0755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilot went to refuel at Cascade airport without manager on board and with bucket still attached.  Over flew highway 55 and landed with out a marshler.  Pilot hot refueled with the vendor.The pilot was asked; about fuel situation by the manager at the dip site and replyed that he had 4-5 turns left.  He was informed to hold up on the refueling until the manager checked with the IC to see if they would be released.  While talking to the IC about release, the pilot monitored the conversation.  The pilot informed the IC that he was going for fuel and would return and was told by the IC, inThanks but you are being released.in  The manager tried to contact the A/C on air to ground with no response.  When he returned from refueling, the manager directed the pilot to land and shut down.  The Manager discussed the ship flying off for refueling without a manager on board, flying accross highway 55 with an external load and was asked if he had hot refueled, as it was realized that it was a very short turn around.  Pilot stated that it was a hot refuel and that it was in their ops plan.  Further research revealed that hot refueling was only for EMS operations and stated that the doors on the fuel side will remain closed.  The door was removed and was in the back seat.  The manager explained the need for the manager to be on board when the A/C left the fire when there was no helitack  on the other end, procedures for overflying roads and populated areas with external loads and what the hot refueling procedures were.  There was no flight following from the time that the aircraft left the fire until he was 3 miles out on the return flight from refueling. /s/ Helicopter Manager  </t>
-  </si>
-  <si>
-    <t>During a mission to backhaul cargo off of H-xx, the helitack on the helispot observed two military jets low in the canyon traveling west to east through the TFR, and over the spot. The helitack contacted the helibase and reported the intrusion. H-xxx was enroute to the helibase with an external load, so was not in the area at the time of the incident. There is a MTR in the area, so the Helibase Manager contacted the scheduler to report the intrusion. There were no flights scheduled for the route on that day. AOBD was advised.</t>
-  </si>
-  <si>
-    <t>The incident occurred on the Hastings Fire at the Moose helibase outside Fairbanks, AK. The location of the incident was Pad 5 which had been used by the aircraft in previous days. The aircraft had one Bambi bucket, one 150’ synthetic long line and one 100’ steel cable long line with remote hook staged at the pad. The aircraft flew into the helibase from Ft. Wainwright on the morning of June 5, 2011 and landed at its assigned Pad 5. Upon arrival on the fire, the aircraft landed at its pad and was shut down to await an assignment. The helicopter manager  and helitack came over to the aircraft to brief the pilot and orient the helitack crew member on the aircraft configuration. The steel cable long line was where it had been left the day before with the end of the cable/pig tail laying next to the pad marker. While looking at the long line, it was noticed that there were fresh {wet and muddy} tire tracks across the end on the long line, pig tail and a portion of the cable ~8’ from the end. The end electrical connection had mud in it, the eye was bent and the end of the cable/splice was opened. The long line was not damaged when the crew left the pad on June 4, 2011 and the pad was not occupied by helitack until the aircraft arrived in the morning. At the time the aircraft arrived, no water tenders were at the Pad 5 end of the helibase. The helibase Deck, helicopter manager , Pilot, helitack and Safety Officer  indicated that from an inspection of the scene that it appeared that a water tender had caused the incident.</t>
-  </si>
-  <si>
-    <t>AT 1800 we were dispatched from the Tanker Base to a fire on state protection. The other helicopter on the base NXXX launched before us and as manager asked the pilot to follow them to the fire. After clearing the airport traffic I tried contacting dispatch. I could not establish radio communications with dispatch on the Forest direct frequency that is usually used for aircraft in the valley. I had just arrived as Helicopter Manager and had taken over the Manager position from another HMGB. He had informed me all frequencies were in the aircraft and it was ready to go. I did not check before lifting off, as the Helicopter had flew the day before. What I did not find out till later was that they were transmitting OK, but were not receiving well. I tried a few other frequencies then dispatch did hear me on the state repeater, by then we had established VHF-AM radio communication with Air Tactical and the 4 other Helicopters on the fire. Traffic was getting congested so we landed at the Fire Helibase and found a receive tone programmed into the Direct Frequency we were trying to use in the radio. Another potential problem was that I may have also been using the intercom button rather than the transmit button on the radio controls that may have further hampered communications. When landing on the Helibase the Helibase Manager said I was coming through the Air to Ground frequency while instructing the helitack crew to get the bucket ready on the belly rather than a long line. I called dispatch to let them know we were on the ground with 5 souls and everything was OK. They had been tracking us on AFF, so did not worry about the lack of communications. Dispatch did not have a victor radio to hear that traffic. After talking to dispatch and Air Tactical they all felt that we had enough communications to not cause a safety hazard and the pilot and manager are now more familiar with the radio controls. For the Manager both previous CWN assignments were with restricted aircraft and not passenger hauling, so the manager had not used the TDFM for 6 years. Also dispatch did not have National Flight following capabilities out of the valley which was another one of the frequencies that the manager had tried to use to reestablish communications.</t>
-  </si>
-  <si>
-    <t>On August 28, 2013 a cargo mission involving multiple loads delivered to multiple helispots was initiated by a handcrew’s request via cell phone to the Air Ops. At the time, the type 2 helibase had four helicopters, a USFS exclusive use AS350-B3 with crew, a National CWN 214 with a CWN crew, a National exclusive use S-61 with manager, and a National CWN UH-1H {restricted} with a manager and manager trainee. Other HECMs on base were assigned to ABRO, ABRO trainee, and cargo. Supply dropped off the cargo midafternoon and loads were built in the designated cargo area using the HOGE-J allowable from the 214’s load calc. At some point it was decided by HEB2 that the loads should be shared between the 214 and the UH-1H. Helitack in cargo divided up the loads between the two ships according to the receiving crew’s point of contact. It was determined that the 214 would deliver three loads, the UH-1H would deliver two loads, and whoever returned first would fly the last load {total of 6 picks}. The manager and pilots of the 214 were fully aware of their mission and already spooling when an individual came to the managers of the UH-1H with two pieces of paper containing a lat/long, contact, and weight for the two loads they would take. They were told each ship would fly two loads and that there was a fifth load going with the first aircraft back. The managers briefed their pilot, discussing a number of concerns, but determined that the mission could be carried out safely and that they would proceed. The first red flag was that the HECM who brought the load info from cargo did not know the weight of the last load, but that would be easily resolved with a radio call prior to the final pick, and because the 214 would be the first one out they would probably be the first back thus taking the load in question, making the concern irrelevant. The second topic of concern related to the fact that the first pick would not only be the heaviest, but its weight was actually 2 pounds above the UH-1H’s allowable for the day. It was determined that taking a load over allowable was mitigated due to the pick-up and delivery locations being much lower in elevation than the load calc was completed for coupled with fuel burn from a maintenance run-up and power check completed prior to the mission. All involved agreed the mission could be safely completed. As the 214 called deck to lift and the UH-1H began his start up, ABRO{t} called cargo asking for manifests and other info relating to the mission. A very confusing radio exchange in which cargo told the ABRO{t} “load 3 will be {{{{#}}}}1 going to ____, load 1 will be {{{{#}}}}2 going to lat/long with a contact of ___, BREAK.” At which point ABRO{t} stepped in saying “all I need to know is what is the first load out, and who is it going to so I can inform Div.___,” and to “please bring the manifests for each load to the box.” After the 4th pick, the UH-1H managers saw that there were actually six loads… not the five they were briefed about. Due to a seemingly large amount of confusion at the helibase for a simple cargo mission, the UH-1H manager decided to walk down to the box and look at the manifests and posted load calcs. He discovered a number of discrepancies in the numbers on the manifests. The allowables for all manifested loads were based off of the 214’s HOGE-J, which was 376 pounds heavier than the UH-1H’s. The manifest showed a remote hook with longline at 60 pounds, when the UH-1H hook and longline combined weight was 91 pounds. Although the cargo area was too far from their pad too see all the equipment clearly, the manager could tell each load consisted of three daisy-chained nets or blivets, which should’ve used two leadlines and three swivels. The manifests did not show the appropriate weights for that combination of equipment</t>
-  </si>
-  <si>
-    <t>Duplicate of 14-0414.  Aircraft was performing bucket operations on the Fire with a 100 ft. synthetic long line and 160 gal. FAST Bucket. Making descending left turns in steep terrain the aircraft went into the dip-site. Pilot watched the bucket fill and began to ascend. Pilot felt the aircraft `want to roll` and corrected for the issue initially. Realizing something was wrong pilot set bucket back into dip and looked in mirror to see the long line over the heel of the left skid. Pilot released water from bucket to minimize roll over effect and slowly pulled up out of the dip. Pilot contacted the IC on A/G, notified him of the issue and asked if there was someone at the helispot that could remove the line from the skid. Pilot flew at a reduced airspeed to the fires helispot where a helitack crew was present and mitigated the problem. While being more cautious going into the dip and monitoring the mirror closely, pilot finished fuel cycle and returned to helibase. Once on the ground Pilot notified HMGB and FAO of what had happened.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While picking up out of a dipsite {pond} at 7150```` the pilot, noticed the bucket was unusually ``tipped`` indicating a harness attachment point failure. He began to release the water {Variable fill} and the 7 other attachment points failed and the bucket fell {detached from the longline} into the water and disappeared from sight into the pond. The A/C returned to helibase with longline and bucket suspension harness only. Bucket type: Non-standard {not Bambi nor Fast} variable fill. The powerhead and Variable fill valve are one unit located at the bottom of the bucket. </t>
-  </si>
-  <si>
-    <t>external load</t>
-  </si>
-  <si>
-    <t>cargo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hook </t>
-  </si>
-  <si>
-    <t>long line</t>
-  </si>
-  <si>
-    <t>longline</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>sling</t>
-  </si>
-  <si>
-    <t>[14, 58, 68, 69, 76]</t>
-  </si>
-  <si>
-    <t>[39, 68]</t>
-  </si>
-  <si>
-    <t>[18, 29, 56, 72, 88]</t>
-  </si>
-  <si>
-    <t>[68, 74]</t>
-  </si>
-  <si>
-    <t>[29, 63, 68]</t>
-  </si>
-  <si>
-    <t>[3, 31, 56, 70]</t>
-  </si>
-  <si>
-    <t>[13, 18, 22, 68]</t>
-  </si>
-  <si>
-    <t>[68]</t>
-  </si>
-  <si>
-    <t>05-0446</t>
-  </si>
-  <si>
-    <t>At approximately 1050 on July 20, 2005 while flying over the Dammeron Incident, the right engine of the aircraft suddenly began to run rough. Engine indicators were normal, the RPM began to fluctuate causing further vibration. Procedural checklist was followed and the right engine continued to run rough and vibrate. At this time the engine started losing power. Engine was secured, prop feathered and shut-down. Flight from the fire (Dammeron) to St. George was approximately 7 miles. Landing of the aircraft was successful with no incident. After mechanical inspection a faulty magneto was determined to be at fault.</t>
-  </si>
-  <si>
-    <t>secure</t>
-  </si>
-  <si>
-    <t>compartment</t>
-  </si>
-  <si>
-    <t>door open</t>
-  </si>
-  <si>
-    <t>[8, 54, 80, 82]</t>
-  </si>
-  <si>
-    <t>00-0573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116 was enroute back from the fire to the helibase for water and noticed a 206-L3 flying 300-400' AGL just south of the helibase.  No evasive maneuvers were needed.  Helibase personnel recognized the L3 as a Globe medivac ship. </t>
-  </si>
-  <si>
-    <t>13-0868</t>
-  </si>
-  <si>
-    <t>06-0961</t>
-  </si>
-  <si>
-    <t>16-0945</t>
-  </si>
-  <si>
-    <t>02-0664</t>
-  </si>
-  <si>
-    <t>11-0318</t>
-  </si>
-  <si>
-    <t>04-0145</t>
-  </si>
-  <si>
-    <t>15-0703</t>
-  </si>
-  <si>
-    <t>07-0833</t>
-  </si>
-  <si>
-    <t>11-0849</t>
-  </si>
-  <si>
-    <t>06-0673</t>
-  </si>
-  <si>
-    <t>02-1289</t>
-  </si>
-  <si>
-    <t>97-0148</t>
-  </si>
-  <si>
-    <t>While the mechanic was in the process of pulling out the auxiliary fuel tank and doing a preflight inspection after ferrying from Alaska to Washington, he discovered that the lower lift link bracket had a fracture running through the aft flange. Helicopter was grounded and made unavailable at 0800 PST.</t>
-  </si>
-  <si>
-    <t>Was informed by the night ramp supervisor at NIFC there was an aircraft parked at the ramp that was assigned to one of our fires that had a fuel leak. He needed to get in touch with the pilot to inform him of the problem. That aircraft was assigned to the Red Mt. fire on the Boise N.F. and had flown that day on the fire. I got the information and passed it on to the ramp supervisor. The next morning I went to the ramp to see what had transpired. After talking to the pilot about the leak and what had been done to correct the problem, I contacted Gil Elmy the R-4 maintenance inspector to let him know what transpired. After Gil and the pilot talked, Gil informed me that the aircraft was not in contract available status until the problem was fixed. The problem was an inoperative auxillary fuel pump. The replacement part was ordered, was delivered today 8/18/2006 this am. Pilot informed me the wrong part was sent, right part should be tommorrow in the am. At the time of this submittal situation is unresolved.........</t>
-  </si>
-  <si>
-    <t>Upon landing at airport the fueler discovered a missing fuel cap. The aircraft had been fueled at a local FBO prior to the flight.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Upon completing a crew shuttle, to H-6, Helicopter 23V returned to the Oxbow Helibase and shutdown.  The mechanic was looking over the ship and noticed a little fuel around the engine area.  After checking further, he found the fuel line to the #2 engine was dripping fuel.  Pilot informed me of this and 23V was made unavailable.  This same line was replaced 2 or 3 weeks ago.</t>
-  </si>
-  <si>
-    <t>On May 23, 2011 while performing ATGS mission on the Horseshoe 2 fire right engine indications made it necessary to divert from mission and return to Bisbee Douglas Airport. At the time of decision, aircraft was maintaining 10,500 ft msl over the fire. First indication of possible problem was a reduced fuel flow indication. All other indications were normal and well matched with left engine. During decent to KDUG oil pressure indication decreased to low normal range. Approximately 5 miles from airport right engine failed. Engine was secured through emergency procedures, followed up with checklist. Normal landing was performed on runway 17 Bisbee Douglas airport. subsequent inspection found engine driven fuel pump shaft spined sheered. Fuel pump was replaced and aircraft was flown to Safford, Az. for further maintenance evaluation and returned to service</t>
-  </si>
-  <si>
-    <t>After being dispatched to a fire, as aircraft was spooling-up, the marshaler noticed a small amount of fuel leaking out of the drain port under the aircraft and onto the concrete pad. Upon receiving the marshaler''s message about the fuel leak, the aircraft was shut down and everyone exited the aircraft. The leak was not evident until the aircraft was started up. Pilot investigated the cause of the leak and found that as pressure was put on the fuel pump hose during start up, the cock valve did not close and this caused some fuel to purge out into the drain port where the leak was noticed. The valve was correctly positioned and this fixed the fuel leak problem. The small amount of fuel lost was mopped up and dried off the aircraft, and the helicopter was restarted while the marshaler observed the fuel port to make sure no more fuel was leaking. No further problems were encountered.</t>
-  </si>
-  <si>
-    <t>While doing the morning fuel testing it was found that there was rust in the fuel. A new fuel truck was brought out that same day and when the mechanic checked the fuel in the new truck it was found that the fuel in the replacement truck had more rust in it than the original truck.</t>
-  </si>
-  <si>
-    <t>On takeoff fuel pressure gauges read normal, 10 minutes into the flight the right engine fuel pressure gauge was reading high. So the pilot decided to terminate the flight on return to the airport. aircraft was placed into contract unavailable status. Company maintenance chief decided to replace the right engine driven fuel pump and do the scheduled 50 hr inspection at the same time. During the inspection the mechanic found the right engine driven hydraulic pump had failed. Hydraulic pump was replaced 8/8/07.</t>
-  </si>
-  <si>
-    <t>During refueling I looked into the cowling at the front of the aircraft. I noticed a broken metal line on the right side of the front engine. After removing the engine cowling the pilot determined it was the fuel primer line. Note: The fuel priming system is normally used only during cold wx ops, so the pilot had not been using the priming system.</t>
-  </si>
-  <si>
-    <t>On July 20th at approximately 0916 air attack departed Redmond Tanker base to respond to Incident #0521 with pilot, air attack trainee and air attack instructor on board. Immediately after take-off, pilot in command informed air attack that we have a mechanical problem and we are returning to Redmond. After landing pilot informed air attack that the fuel flow gauge was inoperable and that he will take the plane to the local A&amp;P mechanic to inspect faulty gauge.</t>
-  </si>
-  <si>
-    <t>Upon doing pre-use inspection I noticed fuel on the ground.  After looking closer, there was a leak on the fuel tank on the support/service trailer.  The leak was located on the lower right side of the tank.  A previous impact to the tank appeared to have created a crack that had rusted and a leak start.</t>
-  </si>
-  <si>
-    <t>The helicopter was trailered to Boise, ID. A new fuel control system was installed. This problem had occurred at Cottonwood, Idaho two weeks earlier. A fuel governor was replaced. This did not solve the problem.</t>
-  </si>
-  <si>
-    <t>auxiliary fuel tank</t>
-  </si>
-  <si>
-    <t>fuel cap</t>
-  </si>
-  <si>
-    <t>leakage</t>
-  </si>
-  <si>
-    <t>fuel pressure</t>
-  </si>
-  <si>
-    <t>[2, 7, 23, 70]</t>
-  </si>
-  <si>
-    <t>[51, 80]</t>
-  </si>
-  <si>
-    <t>[55]</t>
-  </si>
-  <si>
-    <t>[29, 31, 67, 97]</t>
-  </si>
-  <si>
-    <t>[5, 64, 67, 82]</t>
-  </si>
-  <si>
-    <t>[31, 55, 67]</t>
-  </si>
-  <si>
-    <t>[18, 22, 23, 58]</t>
-  </si>
-  <si>
-    <t>[53, 67, 82]</t>
-  </si>
-  <si>
-    <t>[67, 88]</t>
-  </si>
-  <si>
-    <t>[18, 23, 69, 97]</t>
-  </si>
-  <si>
-    <t>[8, 14, 22, 39, 97]</t>
-  </si>
-  <si>
-    <t>[70, 23]</t>
-  </si>
-  <si>
-    <t>[55, 55]</t>
-  </si>
-  <si>
-    <t>[55, 14, 8, 80, 55]</t>
-  </si>
-  <si>
-    <t>[67, 97, 29]</t>
-  </si>
-  <si>
-    <t>[67, 82]</t>
-  </si>
-  <si>
-    <t>[55, 67, 55]</t>
-  </si>
-  <si>
-    <t>[53, 30, 50]</t>
-  </si>
-  <si>
-    <t>[97, 23]</t>
-  </si>
-  <si>
-    <t>[41, 82, 80]</t>
-  </si>
-  <si>
-    <t>[82, 97, 80]</t>
-  </si>
-  <si>
-    <t>[97, 14, 8]</t>
-  </si>
-  <si>
-    <t>[53, 67, 8]</t>
-  </si>
-  <si>
-    <t>[41, 67]</t>
-  </si>
-  <si>
-    <t>12-0088</t>
-  </si>
-  <si>
-    <t>08-0364</t>
-  </si>
-  <si>
-    <t>20-1131</t>
-  </si>
-  <si>
-    <t>05-0246</t>
-  </si>
-  <si>
-    <t>00-0689</t>
-  </si>
-  <si>
-    <t>20-0383</t>
-  </si>
-  <si>
-    <t>00-0163</t>
-  </si>
-  <si>
-    <t>18-0633</t>
-  </si>
-  <si>
-    <t>02-1263</t>
-  </si>
-  <si>
-    <t>20-0369</t>
-  </si>
-  <si>
-    <t>08-0924</t>
-  </si>
-  <si>
-    <t>06-1277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While operating the PSD machine on four fast, the operator noticed a ball jam. The ball appeared to be stuck at the bottom of chute 1. The operator, attempted to clear the jam by turning the manual assist wheel. However, the wheel spun freely. After, trying the manual assist wheel, the operator took another look at the sphere placement and noticed that it appeared to be stuck in the chute above the slipper block. During this chain of events, approximately 30 seconds had passed without the ball catching on fire or smoking. The operator then notified the ignitions specialist and pilot that there was a jam in the machine and only three chutes were functional. The operator also stated that the jammed sphere was not igniting. A few more passes were completed, and then the helicopter set down at the helispot to refuel and clear the jam. While on the ground, the hopper and chute were removed from the helicopter to examine and clear the jam. Upon closer inspection, it was noticed that the sphere had half of another sphere stuck to it. The extra half a sphere prevented the sphere from falling down the chute into the slipper block, thereby creating the jam. The jammed sphere was shaken loose from the chute and the machine was reassembled and ready for continued operations. </t>
   </si>
   <si>
     <t>An oil scavange return line seal failed which allowed the return line to back out of the rocker cover, which in turn resulted in engine oil to flow onto the engine and ground.</t>
@@ -3558,6 +3474,9 @@
     <t>After landing at KGCN for fuel the cowl of the right engine was observed to have a coating of grease that appeared to have come from the area of the propeller hub.  The aircraft had returned from spending 3.5 hours conducting leadplane activities on the Outlet Fire.</t>
   </si>
   <si>
+    <t>Due to multiple types and numbers of aircraft, the ATGS on 07/07/01 at 1720 requested a second air to air AM victor Freq. to use for Rotor wing A/C, the order was placed and the freq. was received at 1800 and relayed to the ATGS. At the end of his shift the ATGS requested an additional AM freq. to be used for fixed wing a/c and an air to ground FM frequency for 07/08/01 at 0600, to free up the initial attack frequencies.  The order was placed from GJC to RMC at 2110.  Upon arriving at work the next morning I received the frequencies assigned from RMC. After checking the frequencies assigned, I noticed that the air to ground FM freq. was already assigned and being used in vicinity of the Deer Creek fire.</t>
+  </si>
+  <si>
     <t>When T-XX was returning off the Bruneau fire PIC reported a bird strike. Upon landing in TWF, crew chief conducted an inspection. Bird remains were found on the 2nd right pylon. Crew Chief pulled the panel to ensure no damage. COR notified and COR Contacted AMI. No damage was found during inspection. Maintenance inspector returned aircraft returned to service @ 1530</t>
   </si>
   <si>
@@ -3567,6 +3486,9 @@
     <t>During the Avila Fire the CAL FIRE S2 began loading at PRAAB after 7 loads from SMX.  The firefighter loading the tanker noticed that a metal extension was left on the loading port of the aircraft.  It was about 6 inches long and appeared to be a extension for loading tankers.   The cap was securely placed on the end of the extension.</t>
   </si>
   <si>
+    <t>The number one engine was started with the tail-cone {exhaust} cover installed. No damage or injury.</t>
+  </si>
+  <si>
     <t>On assignment for the Lonesome Complex the aircraft was ordered up with a bucket. The Helicopter is equiped with a fixed tank under the exclusive-use National Helicopter contract and within section B-12 is necessary to have a variable capacity collapsible bucket as an addition or back-up with the fixed-tank helicopter. The contracted fixed-tank helicopter has along with it a FAST {Fire Attack Storm Tank} Bucket, manufactured by Absolute Fire Solutions, INC and distributed by Simplex MFG. While making a dip at the dip site, one of the purse string wires hooked underneath the bolts rubber stopper and nut on the metal frame; this resulting in the frame bending under the added stress to the frame itself rather than the anchor points as intended. The frame was bent in a twisting manor and the purse string wire had groves {ware} along it showing that it caught on ''something'' with an edge.</t>
   </si>
   <si>
@@ -3597,6 +3519,9 @@
     <t>cowl</t>
   </si>
   <si>
+    <t>tail rotor</t>
+  </si>
+  <si>
     <t>wing</t>
   </si>
   <si>
@@ -3606,6 +3531,9 @@
     <t>[13, 23, 60]</t>
   </si>
   <si>
+    <t>[14, 23, 29, 80, 88]</t>
+  </si>
+  <si>
     <t>[31, 35, 82]</t>
   </si>
   <si>
@@ -3624,6 +3552,9 @@
     <t>[3, 14, 23, 69, 97]</t>
   </si>
   <si>
+    <t>[14, 23, 69, 80, 97]</t>
+  </si>
+  <si>
     <t>[23, 24]</t>
   </si>
   <si>
@@ -3631,6 +3562,9 @@
   </si>
   <si>
     <t>[23, 55, 93]</t>
+  </si>
+  <si>
+    <t>[18, 23]</t>
   </si>
   <si>
     <t>[3, 23, 35, 68, 81]</t>
@@ -6240,7 +6174,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6297,27 +6231,27 @@
         <v>853</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="E3" t="s">
-        <v>897</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>905</v>
+        <v>881</v>
       </c>
       <c r="G3" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>706</v>
+        <v>854</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6326,21 +6260,21 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>712</v>
+        <v>866</v>
       </c>
       <c r="E4" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="F4" t="s">
-        <v>721</v>
+        <v>882</v>
       </c>
       <c r="G4" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6349,21 +6283,21 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>906</v>
+        <v>883</v>
       </c>
       <c r="G5" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6372,21 +6306,21 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>868</v>
+      </c>
+      <c r="E6" t="s">
         <v>877</v>
       </c>
-      <c r="E6" t="s">
-        <v>898</v>
-      </c>
       <c r="F6" t="s">
-        <v>907</v>
+        <v>884</v>
       </c>
       <c r="G6" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>857</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6395,21 +6329,21 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>869</v>
       </c>
       <c r="E7" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>885</v>
       </c>
       <c r="G7" t="s">
-        <v>915</v>
+        <v>893</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6418,21 +6352,21 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="E8" t="s">
-        <v>897</v>
+        <v>879</v>
       </c>
       <c r="F8" t="s">
-        <v>908</v>
+        <v>886</v>
       </c>
       <c r="G8" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>859</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6441,44 +6375,44 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>871</v>
       </c>
       <c r="E9" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>887</v>
       </c>
       <c r="G9" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>857</v>
+        <v>73</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>879</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>898</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>909</v>
+        <v>178</v>
       </c>
       <c r="G10" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>858</v>
+        <v>518</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6487,21 +6421,21 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>880</v>
+        <v>550</v>
       </c>
       <c r="E11" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="F11" t="s">
-        <v>910</v>
+        <v>592</v>
       </c>
       <c r="G11" t="s">
-        <v>925</v>
+        <v>893</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6510,21 +6444,21 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
+        <v>872</v>
+      </c>
+      <c r="E12" t="s">
+        <v>877</v>
+      </c>
+      <c r="F12" t="s">
         <v>881</v>
       </c>
-      <c r="E12" t="s">
-        <v>900</v>
-      </c>
-      <c r="F12" t="s">
-        <v>911</v>
-      </c>
       <c r="G12" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6533,21 +6467,21 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="E13" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
       <c r="F13" t="s">
-        <v>912</v>
+        <v>888</v>
       </c>
       <c r="G13" t="s">
-        <v>915</v>
+        <v>893</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -6556,21 +6490,21 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="E14" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
       <c r="F14" t="s">
-        <v>913</v>
+        <v>889</v>
       </c>
       <c r="G14" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>862</v>
+        <v>742</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -6579,44 +6513,44 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>884</v>
+        <v>767</v>
       </c>
       <c r="E15" t="s">
-        <v>902</v>
+        <v>879</v>
       </c>
       <c r="F15" t="s">
-        <v>914</v>
+        <v>803</v>
       </c>
       <c r="G15" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>863</v>
+        <v>90</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>885</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
-        <v>900</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>915</v>
+        <v>195</v>
       </c>
       <c r="G16" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>518</v>
+        <v>863</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -6625,16 +6559,16 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>550</v>
+        <v>875</v>
       </c>
       <c r="E17" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
       <c r="F17" t="s">
-        <v>592</v>
+        <v>890</v>
       </c>
       <c r="G17" t="s">
-        <v>925</v>
+        <v>892</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -6648,361 +6582,39 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="E18" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
       <c r="F18" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
       <c r="G18" t="s">
-        <v>915</v>
+        <v>893</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>865</v>
+        <v>423</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>887</v>
+        <v>456</v>
       </c>
       <c r="E19" t="s">
-        <v>903</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>916</v>
+        <v>489</v>
       </c>
       <c r="G19" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>888</v>
-      </c>
-      <c r="E20" t="s">
-        <v>904</v>
-      </c>
-      <c r="F20" t="s">
-        <v>906</v>
-      </c>
-      <c r="G20" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" t="s">
-        <v>904</v>
-      </c>
-      <c r="F21" t="s">
-        <v>186</v>
-      </c>
-      <c r="G21" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>889</v>
-      </c>
-      <c r="E22" t="s">
-        <v>897</v>
-      </c>
-      <c r="F22" t="s">
-        <v>917</v>
-      </c>
-      <c r="G22" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>890</v>
-      </c>
-      <c r="E23" t="s">
-        <v>902</v>
-      </c>
-      <c r="F23" t="s">
-        <v>918</v>
-      </c>
-      <c r="G23" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>891</v>
-      </c>
-      <c r="E24" t="s">
-        <v>898</v>
-      </c>
-      <c r="F24" t="s">
-        <v>919</v>
-      </c>
-      <c r="G24" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>767</v>
-      </c>
-      <c r="E25" t="s">
-        <v>901</v>
-      </c>
-      <c r="F25" t="s">
-        <v>803</v>
-      </c>
-      <c r="G25" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>335</v>
-      </c>
-      <c r="E26" t="s">
-        <v>902</v>
-      </c>
-      <c r="F26" t="s">
-        <v>378</v>
-      </c>
-      <c r="G26" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>892</v>
-      </c>
-      <c r="E27" t="s">
-        <v>904</v>
-      </c>
-      <c r="F27" t="s">
-        <v>920</v>
-      </c>
-      <c r="G27" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>338</v>
-      </c>
-      <c r="E28" t="s">
-        <v>900</v>
-      </c>
-      <c r="F28" t="s">
-        <v>380</v>
-      </c>
-      <c r="G28" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>893</v>
-      </c>
-      <c r="E29" t="s">
-        <v>902</v>
-      </c>
-      <c r="F29" t="s">
-        <v>921</v>
-      </c>
-      <c r="G29" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>894</v>
-      </c>
-      <c r="E30" t="s">
-        <v>901</v>
-      </c>
-      <c r="F30" t="s">
-        <v>922</v>
-      </c>
-      <c r="G30" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>895</v>
-      </c>
-      <c r="E31" t="s">
-        <v>901</v>
-      </c>
-      <c r="F31" t="s">
-        <v>923</v>
-      </c>
-      <c r="G31" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>456</v>
-      </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s">
-        <v>489</v>
-      </c>
-      <c r="G32" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>896</v>
-      </c>
-      <c r="E33" t="s">
-        <v>897</v>
-      </c>
-      <c r="F33" t="s">
-        <v>924</v>
-      </c>
-      <c r="G33" t="s">
-        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -7055,18 +6667,18 @@
         <v>710</v>
       </c>
       <c r="E2" t="s">
-        <v>934</v>
+        <v>902</v>
       </c>
       <c r="F2" t="s">
         <v>720</v>
       </c>
       <c r="G2" t="s">
-        <v>941</v>
+        <v>909</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>926</v>
+        <v>894</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7075,21 +6687,21 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>930</v>
+        <v>898</v>
       </c>
       <c r="E3" t="s">
-        <v>934</v>
+        <v>902</v>
       </c>
       <c r="F3" t="s">
-        <v>937</v>
+        <v>905</v>
       </c>
       <c r="G3" t="s">
-        <v>942</v>
+        <v>910</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>927</v>
+        <v>895</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -7098,21 +6710,21 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>931</v>
+        <v>899</v>
       </c>
       <c r="E4" t="s">
-        <v>935</v>
+        <v>903</v>
       </c>
       <c r="F4" t="s">
-        <v>938</v>
+        <v>906</v>
       </c>
       <c r="G4" t="s">
-        <v>943</v>
+        <v>911</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>928</v>
+        <v>896</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7121,21 +6733,21 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>932</v>
+        <v>900</v>
       </c>
       <c r="E5" t="s">
-        <v>936</v>
+        <v>904</v>
       </c>
       <c r="F5" t="s">
-        <v>939</v>
+        <v>907</v>
       </c>
       <c r="G5" t="s">
-        <v>944</v>
+        <v>912</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>929</v>
+        <v>897</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7144,16 +6756,16 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>933</v>
+        <v>901</v>
       </c>
       <c r="E6" t="s">
-        <v>934</v>
+        <v>902</v>
       </c>
       <c r="F6" t="s">
-        <v>940</v>
+        <v>908</v>
       </c>
       <c r="G6" t="s">
-        <v>941</v>
+        <v>909</v>
       </c>
     </row>
   </sheetData>
@@ -7206,7 +6818,7 @@
         <v>532</v>
       </c>
       <c r="E2" t="s">
-        <v>1001</v>
+        <v>969</v>
       </c>
       <c r="F2" t="s">
         <v>576</v>
@@ -7217,7 +6829,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>945</v>
+        <v>913</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -7226,13 +6838,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>973</v>
+        <v>941</v>
       </c>
       <c r="E3" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F3" t="s">
-        <v>1008</v>
+        <v>976</v>
       </c>
       <c r="G3" t="s">
         <v>606</v>
@@ -7263,7 +6875,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>946</v>
+        <v>914</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -7272,13 +6884,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>974</v>
+        <v>942</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>1009</v>
+        <v>977</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -7309,7 +6921,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>947</v>
+        <v>915</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -7318,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>975</v>
+        <v>943</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -7344,7 +6956,7 @@
         <v>228</v>
       </c>
       <c r="E8" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F8" t="s">
         <v>249</v>
@@ -7355,7 +6967,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>948</v>
+        <v>916</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7364,13 +6976,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>976</v>
+        <v>944</v>
       </c>
       <c r="E9" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F9" t="s">
-        <v>1010</v>
+        <v>978</v>
       </c>
       <c r="G9" t="s">
         <v>606</v>
@@ -7378,7 +6990,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>949</v>
+        <v>917</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -7387,13 +6999,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>977</v>
+        <v>945</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>1011</v>
+        <v>979</v>
       </c>
       <c r="G10" t="s">
         <v>22</v>
@@ -7401,7 +7013,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>950</v>
+        <v>918</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7410,13 +7022,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>978</v>
+        <v>946</v>
       </c>
       <c r="E11" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F11" t="s">
-        <v>1012</v>
+        <v>980</v>
       </c>
       <c r="G11" t="s">
         <v>471</v>
@@ -7470,7 +7082,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>951</v>
+        <v>919</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -7479,13 +7091,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>979</v>
+        <v>947</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>1013</v>
+        <v>981</v>
       </c>
       <c r="G14" t="s">
         <v>22</v>
@@ -7493,7 +7105,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>952</v>
+        <v>920</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7502,13 +7114,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>980</v>
+        <v>948</v>
       </c>
       <c r="E15" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F15" t="s">
-        <v>1014</v>
+        <v>982</v>
       </c>
       <c r="G15" t="s">
         <v>471</v>
@@ -7516,7 +7128,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>953</v>
+        <v>921</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -7525,13 +7137,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>981</v>
+        <v>949</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>1015</v>
+        <v>983</v>
       </c>
       <c r="G16" t="s">
         <v>471</v>
@@ -7539,7 +7151,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>954</v>
+        <v>922</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7548,13 +7160,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>982</v>
+        <v>950</v>
       </c>
       <c r="E17" t="s">
         <v>571</v>
       </c>
       <c r="F17" t="s">
-        <v>1016</v>
+        <v>984</v>
       </c>
       <c r="G17" t="s">
         <v>471</v>
@@ -7585,7 +7197,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>955</v>
+        <v>923</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -7594,13 +7206,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>983</v>
+        <v>951</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>1017</v>
+        <v>985</v>
       </c>
       <c r="G19" t="s">
         <v>22</v>
@@ -7608,7 +7220,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>956</v>
+        <v>924</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7617,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>984</v>
+        <v>952</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -7643,7 +7255,7 @@
         <v>545</v>
       </c>
       <c r="E21" t="s">
-        <v>1003</v>
+        <v>971</v>
       </c>
       <c r="F21" t="s">
         <v>588</v>
@@ -7654,7 +7266,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>957</v>
+        <v>925</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7663,13 +7275,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="E22" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F22" t="s">
-        <v>1018</v>
+        <v>986</v>
       </c>
       <c r="G22" t="s">
         <v>492</v>
@@ -7689,7 +7301,7 @@
         <v>546</v>
       </c>
       <c r="E23" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F23" t="s">
         <v>589</v>
@@ -7712,7 +7324,7 @@
         <v>840</v>
       </c>
       <c r="E24" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F24" t="s">
         <v>848</v>
@@ -7723,7 +7335,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>958</v>
+        <v>926</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -7732,16 +7344,16 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="E25" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F25" t="s">
-        <v>1019</v>
+        <v>987</v>
       </c>
       <c r="G25" t="s">
-        <v>1032</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -7758,18 +7370,18 @@
         <v>438</v>
       </c>
       <c r="E26" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F26" t="s">
         <v>472</v>
       </c>
       <c r="G26" t="s">
-        <v>1033</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>959</v>
+        <v>927</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -7778,13 +7390,13 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="E27" t="s">
         <v>571</v>
       </c>
       <c r="F27" t="s">
-        <v>1020</v>
+        <v>988</v>
       </c>
       <c r="G27" t="s">
         <v>460</v>
@@ -7792,7 +7404,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>960</v>
+        <v>928</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -7801,13 +7413,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="E28" t="s">
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>1021</v>
+        <v>989</v>
       </c>
       <c r="G28" t="s">
         <v>22</v>
@@ -7873,7 +7485,7 @@
         <v>443</v>
       </c>
       <c r="E31" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F31" t="s">
         <v>476</v>
@@ -7884,7 +7496,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>961</v>
+        <v>929</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -7893,10 +7505,10 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>989</v>
+        <v>957</v>
       </c>
       <c r="E32" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F32" t="s">
         <v>697</v>
@@ -7907,7 +7519,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>962</v>
+        <v>930</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -7916,13 +7528,13 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
+        <v>958</v>
+      </c>
+      <c r="E33" t="s">
+        <v>970</v>
+      </c>
+      <c r="F33" t="s">
         <v>990</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1022</v>
       </c>
       <c r="G33" t="s">
         <v>471</v>
@@ -7930,7 +7542,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>963</v>
+        <v>931</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -7939,16 +7551,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>991</v>
+        <v>959</v>
       </c>
       <c r="E34" t="s">
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>1023</v>
+        <v>991</v>
       </c>
       <c r="G34" t="s">
-        <v>1034</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -7965,7 +7577,7 @@
         <v>445</v>
       </c>
       <c r="E35" t="s">
-        <v>1004</v>
+        <v>972</v>
       </c>
       <c r="F35" t="s">
         <v>478</v>
@@ -7976,7 +7588,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>964</v>
+        <v>932</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -7985,16 +7597,16 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
+        <v>960</v>
+      </c>
+      <c r="E36" t="s">
+        <v>973</v>
+      </c>
+      <c r="F36" t="s">
         <v>992</v>
       </c>
-      <c r="E36" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1024</v>
-      </c>
       <c r="G36" t="s">
-        <v>1035</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -8011,7 +7623,7 @@
         <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>1006</v>
+        <v>974</v>
       </c>
       <c r="F37" t="s">
         <v>190</v>
@@ -8034,7 +7646,7 @@
         <v>135</v>
       </c>
       <c r="E38" t="s">
-        <v>1007</v>
+        <v>975</v>
       </c>
       <c r="F38" t="s">
         <v>191</v>
@@ -8045,7 +7657,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>965</v>
+        <v>933</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -8054,13 +7666,13 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>993</v>
+        <v>961</v>
       </c>
       <c r="E39" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F39" t="s">
-        <v>1010</v>
+        <v>978</v>
       </c>
       <c r="G39" t="s">
         <v>606</v>
@@ -8068,7 +7680,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>966</v>
+        <v>934</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -8077,13 +7689,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>994</v>
+        <v>962</v>
       </c>
       <c r="E40" t="s">
-        <v>1007</v>
+        <v>975</v>
       </c>
       <c r="F40" t="s">
-        <v>1025</v>
+        <v>993</v>
       </c>
       <c r="G40" t="s">
         <v>471</v>
@@ -8103,7 +7715,7 @@
         <v>239</v>
       </c>
       <c r="E41" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F41" t="s">
         <v>260</v>
@@ -8114,7 +7726,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>967</v>
+        <v>935</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -8123,13 +7735,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>995</v>
+        <v>963</v>
       </c>
       <c r="E42" t="s">
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>1026</v>
+        <v>994</v>
       </c>
       <c r="G42" t="s">
         <v>22</v>
@@ -8137,7 +7749,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>968</v>
+        <v>936</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -8146,13 +7758,13 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>996</v>
+        <v>964</v>
       </c>
       <c r="E43" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F43" t="s">
-        <v>1027</v>
+        <v>995</v>
       </c>
       <c r="G43" t="s">
         <v>606</v>
@@ -8160,7 +7772,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>969</v>
+        <v>937</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -8169,16 +7781,16 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>997</v>
+        <v>965</v>
       </c>
       <c r="E44" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F44" t="s">
-        <v>1028</v>
+        <v>996</v>
       </c>
       <c r="G44" t="s">
-        <v>1036</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -8195,7 +7807,7 @@
         <v>692</v>
       </c>
       <c r="E45" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F45" t="s">
         <v>702</v>
@@ -8206,7 +7818,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>970</v>
+        <v>938</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -8215,16 +7827,16 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>998</v>
+        <v>966</v>
       </c>
       <c r="E46" t="s">
-        <v>1004</v>
+        <v>972</v>
       </c>
       <c r="F46" t="s">
-        <v>1029</v>
+        <v>997</v>
       </c>
       <c r="G46" t="s">
-        <v>1037</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -8264,7 +7876,7 @@
         <v>842</v>
       </c>
       <c r="E48" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F48" t="s">
         <v>850</v>
@@ -8287,7 +7899,7 @@
         <v>560</v>
       </c>
       <c r="E49" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F49" t="s">
         <v>602</v>
@@ -8298,7 +7910,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -8307,21 +7919,21 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
       <c r="E50" t="s">
-        <v>1007</v>
+        <v>975</v>
       </c>
       <c r="F50" t="s">
-        <v>923</v>
+        <v>891</v>
       </c>
       <c r="G50" t="s">
-        <v>1038</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>971</v>
+        <v>939</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -8330,13 +7942,13 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>999</v>
+        <v>967</v>
       </c>
       <c r="E51" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F51" t="s">
-        <v>1030</v>
+        <v>998</v>
       </c>
       <c r="G51" t="s">
         <v>266</v>
@@ -8356,7 +7968,7 @@
         <v>143</v>
       </c>
       <c r="E52" t="s">
-        <v>1007</v>
+        <v>975</v>
       </c>
       <c r="F52" t="s">
         <v>199</v>
@@ -8379,18 +7991,18 @@
         <v>455</v>
       </c>
       <c r="E53" t="s">
-        <v>1004</v>
+        <v>972</v>
       </c>
       <c r="F53" t="s">
         <v>488</v>
       </c>
       <c r="G53" t="s">
-        <v>1039</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>972</v>
+        <v>940</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -8399,13 +8011,13 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>1000</v>
+        <v>968</v>
       </c>
       <c r="E54" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F54" t="s">
-        <v>1031</v>
+        <v>999</v>
       </c>
       <c r="G54" t="s">
         <v>492</v>
@@ -8461,7 +8073,7 @@
         <v>425</v>
       </c>
       <c r="E2" t="s">
-        <v>1046</v>
+        <v>1014</v>
       </c>
       <c r="F2" t="s">
         <v>381</v>
@@ -8484,7 +8096,7 @@
         <v>541</v>
       </c>
       <c r="E3" t="s">
-        <v>1047</v>
+        <v>1015</v>
       </c>
       <c r="F3" t="s">
         <v>471</v>
@@ -8507,7 +8119,7 @@
         <v>440</v>
       </c>
       <c r="E4" t="s">
-        <v>1047</v>
+        <v>1015</v>
       </c>
       <c r="F4" t="s">
         <v>473</v>
@@ -8530,18 +8142,18 @@
         <v>443</v>
       </c>
       <c r="E5" t="s">
-        <v>1047</v>
+        <v>1015</v>
       </c>
       <c r="F5" t="s">
         <v>476</v>
       </c>
       <c r="G5" t="s">
-        <v>1051</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>962</v>
+        <v>930</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8550,13 +8162,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>958</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F6" t="s">
         <v>990</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1022</v>
       </c>
       <c r="G6" t="s">
         <v>471</v>
@@ -8564,7 +8176,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>1040</v>
+        <v>1008</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -8573,13 +8185,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1043</v>
+        <v>1011</v>
       </c>
       <c r="E7" t="s">
-        <v>1047</v>
+        <v>1015</v>
       </c>
       <c r="F7" t="s">
-        <v>1048</v>
+        <v>1016</v>
       </c>
       <c r="G7" t="s">
         <v>471</v>
@@ -8587,7 +8199,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>1041</v>
+        <v>1009</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -8596,13 +8208,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1044</v>
+        <v>1012</v>
       </c>
       <c r="E8" t="s">
-        <v>1046</v>
+        <v>1014</v>
       </c>
       <c r="F8" t="s">
-        <v>1049</v>
+        <v>1017</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
@@ -8622,7 +8234,7 @@
         <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>1047</v>
+        <v>1015</v>
       </c>
       <c r="F9" t="s">
         <v>199</v>
@@ -8633,7 +8245,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>1042</v>
+        <v>1010</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8642,13 +8254,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1045</v>
+        <v>1013</v>
       </c>
       <c r="E10" t="s">
-        <v>1046</v>
+        <v>1014</v>
       </c>
       <c r="F10" t="s">
-        <v>1050</v>
+        <v>1018</v>
       </c>
       <c r="G10" t="s">
         <v>471</v>
@@ -8704,18 +8316,18 @@
         <v>312</v>
       </c>
       <c r="E2" t="s">
-        <v>1052</v>
+        <v>1020</v>
       </c>
       <c r="F2" t="s">
         <v>356</v>
       </c>
       <c r="G2" t="s">
-        <v>1055</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>966</v>
+        <v>934</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -8724,21 +8336,21 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>994</v>
+        <v>962</v>
       </c>
       <c r="E3" t="s">
-        <v>1053</v>
+        <v>1021</v>
       </c>
       <c r="F3" t="s">
-        <v>1025</v>
+        <v>993</v>
       </c>
       <c r="G3" t="s">
-        <v>1055</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>968</v>
+        <v>936</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -8747,16 +8359,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>996</v>
+        <v>964</v>
       </c>
       <c r="E4" t="s">
-        <v>1054</v>
+        <v>1022</v>
       </c>
       <c r="F4" t="s">
-        <v>1027</v>
+        <v>995</v>
       </c>
       <c r="G4" t="s">
-        <v>1055</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8796,13 +8408,13 @@
         <v>645</v>
       </c>
       <c r="E6" t="s">
-        <v>1054</v>
+        <v>1022</v>
       </c>
       <c r="F6" t="s">
         <v>672</v>
       </c>
       <c r="G6" t="s">
-        <v>1055</v>
+        <v>1023</v>
       </c>
     </row>
   </sheetData>
@@ -9063,7 +8675,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>1056</v>
+        <v>1024</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -9072,21 +8684,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1063</v>
+        <v>1031</v>
       </c>
       <c r="E2" t="s">
-        <v>1070</v>
+        <v>1038</v>
       </c>
       <c r="F2" t="s">
-        <v>1077</v>
+        <v>1045</v>
       </c>
       <c r="G2" t="s">
-        <v>1084</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>1057</v>
+        <v>1025</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -9095,21 +8707,21 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1064</v>
+        <v>1032</v>
       </c>
       <c r="E3" t="s">
-        <v>1071</v>
+        <v>1039</v>
       </c>
       <c r="F3" t="s">
-        <v>1078</v>
+        <v>1046</v>
       </c>
       <c r="G3" t="s">
-        <v>1084</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>1058</v>
+        <v>1026</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -9118,13 +8730,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1065</v>
+        <v>1033</v>
       </c>
       <c r="E4" t="s">
-        <v>1072</v>
+        <v>1040</v>
       </c>
       <c r="F4" t="s">
-        <v>1079</v>
+        <v>1047</v>
       </c>
       <c r="G4" t="s">
         <v>206</v>
@@ -9132,7 +8744,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>1059</v>
+        <v>1027</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -9141,21 +8753,21 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1066</v>
+        <v>1034</v>
       </c>
       <c r="E5" t="s">
-        <v>1073</v>
+        <v>1041</v>
       </c>
       <c r="F5" t="s">
-        <v>1080</v>
+        <v>1048</v>
       </c>
       <c r="G5" t="s">
-        <v>1084</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -9164,13 +8776,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="E6" t="s">
         <v>152</v>
       </c>
       <c r="F6" t="s">
-        <v>913</v>
+        <v>887</v>
       </c>
       <c r="G6" t="s">
         <v>206</v>
@@ -9190,7 +8802,7 @@
         <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>1074</v>
+        <v>1042</v>
       </c>
       <c r="F7" t="s">
         <v>172</v>
@@ -9213,18 +8825,18 @@
         <v>325</v>
       </c>
       <c r="E8" t="s">
-        <v>1075</v>
+        <v>1043</v>
       </c>
       <c r="F8" t="s">
         <v>369</v>
       </c>
       <c r="G8" t="s">
-        <v>1084</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>1060</v>
+        <v>1028</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9233,16 +8845,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1067</v>
+        <v>1035</v>
       </c>
       <c r="E9" t="s">
-        <v>1071</v>
+        <v>1039</v>
       </c>
       <c r="F9" t="s">
-        <v>1081</v>
+        <v>1049</v>
       </c>
       <c r="G9" t="s">
-        <v>1084</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -9259,18 +8871,18 @@
         <v>641</v>
       </c>
       <c r="E10" t="s">
-        <v>1076</v>
+        <v>1044</v>
       </c>
       <c r="F10" t="s">
         <v>668</v>
       </c>
       <c r="G10" t="s">
-        <v>1084</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>964</v>
+        <v>932</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -9279,21 +8891,21 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
+        <v>960</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F11" t="s">
         <v>992</v>
       </c>
-      <c r="E11" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1024</v>
-      </c>
       <c r="G11" t="s">
-        <v>1084</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>1061</v>
+        <v>1029</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -9302,13 +8914,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1068</v>
+        <v>1036</v>
       </c>
       <c r="E12" t="s">
-        <v>1073</v>
+        <v>1041</v>
       </c>
       <c r="F12" t="s">
-        <v>1082</v>
+        <v>1050</v>
       </c>
       <c r="G12" t="s">
         <v>206</v>
@@ -9316,7 +8928,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>967</v>
+        <v>935</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -9325,21 +8937,21 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>995</v>
+        <v>963</v>
       </c>
       <c r="E13" t="s">
-        <v>1072</v>
+        <v>1040</v>
       </c>
       <c r="F13" t="s">
-        <v>1026</v>
+        <v>994</v>
       </c>
       <c r="G13" t="s">
-        <v>1084</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>1062</v>
+        <v>1030</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -9348,16 +8960,16 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>1069</v>
+        <v>1037</v>
       </c>
       <c r="E14" t="s">
-        <v>1074</v>
+        <v>1042</v>
       </c>
       <c r="F14" t="s">
-        <v>1083</v>
+        <v>1051</v>
       </c>
       <c r="G14" t="s">
-        <v>1084</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -9374,7 +8986,7 @@
         <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>1074</v>
+        <v>1042</v>
       </c>
       <c r="F15" t="s">
         <v>199</v>
@@ -9421,7 +9033,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>1085</v>
+        <v>1053</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -9430,13 +9042,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1086</v>
+        <v>1054</v>
       </c>
       <c r="E2" t="s">
-        <v>1087</v>
+        <v>1055</v>
       </c>
       <c r="F2" t="s">
-        <v>1090</v>
+        <v>1058</v>
       </c>
       <c r="G2" t="s">
         <v>266</v>
@@ -9456,7 +9068,7 @@
         <v>544</v>
       </c>
       <c r="E3" t="s">
-        <v>1088</v>
+        <v>1056</v>
       </c>
       <c r="F3" t="s">
         <v>587</v>
@@ -9479,7 +9091,7 @@
         <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>1087</v>
+        <v>1055</v>
       </c>
       <c r="F4" t="s">
         <v>256</v>
@@ -9502,7 +9114,7 @@
         <v>760</v>
       </c>
       <c r="E5" t="s">
-        <v>1089</v>
+        <v>1057</v>
       </c>
       <c r="F5" t="s">
         <v>797</v>
@@ -9525,7 +9137,7 @@
         <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>1087</v>
+        <v>1055</v>
       </c>
       <c r="F6" t="s">
         <v>187</v>
@@ -9536,7 +9148,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>969</v>
+        <v>937</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -9545,13 +9157,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>997</v>
+        <v>965</v>
       </c>
       <c r="E7" t="s">
-        <v>1087</v>
+        <v>1055</v>
       </c>
       <c r="F7" t="s">
-        <v>1028</v>
+        <v>996</v>
       </c>
       <c r="G7" t="s">
         <v>371</v>
@@ -9641,7 +9253,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>1091</v>
+        <v>1059</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9650,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>1092</v>
+        <v>1060</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -9700,7 +9312,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>1093</v>
+        <v>1061</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -9709,21 +9321,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1105</v>
+        <v>1073</v>
       </c>
       <c r="E2" t="s">
-        <v>1117</v>
+        <v>1085</v>
       </c>
       <c r="F2" t="s">
-        <v>1121</v>
+        <v>1089</v>
       </c>
       <c r="G2" t="s">
-        <v>1132</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>949</v>
+        <v>917</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -9732,13 +9344,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>977</v>
+        <v>945</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>1011</v>
+        <v>979</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
@@ -9746,7 +9358,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>1094</v>
+        <v>1062</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -9755,13 +9367,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>1106</v>
+        <v>1074</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>1122</v>
+        <v>1090</v>
       </c>
       <c r="G4" t="s">
         <v>823</v>
@@ -9769,7 +9381,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>1095</v>
+        <v>1063</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -9778,16 +9390,16 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1107</v>
+        <v>1075</v>
       </c>
       <c r="E5" t="s">
-        <v>1118</v>
+        <v>1086</v>
       </c>
       <c r="F5" t="s">
-        <v>1123</v>
+        <v>1091</v>
       </c>
       <c r="G5" t="s">
-        <v>1133</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9810,12 +9422,12 @@
         <v>359</v>
       </c>
       <c r="G6" t="s">
-        <v>1134</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>1096</v>
+        <v>1064</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -9824,21 +9436,21 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>1108</v>
+        <v>1076</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>1124</v>
+        <v>1092</v>
       </c>
       <c r="G7" t="s">
-        <v>1135</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>1097</v>
+        <v>1065</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -9847,21 +9459,21 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>1109</v>
+        <v>1077</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>1125</v>
+        <v>1093</v>
       </c>
       <c r="G8" t="s">
-        <v>1136</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>1098</v>
+        <v>1066</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -9870,21 +9482,21 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>1110</v>
+        <v>1078</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>1126</v>
+        <v>1094</v>
       </c>
       <c r="G9" t="s">
-        <v>1137</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>959</v>
+        <v>927</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -9893,21 +9505,21 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="E10" t="s">
-        <v>1119</v>
+        <v>1087</v>
       </c>
       <c r="F10" t="s">
-        <v>1020</v>
+        <v>988</v>
       </c>
       <c r="G10" t="s">
-        <v>1138</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>1099</v>
+        <v>1067</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -9916,21 +9528,21 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>1111</v>
+        <v>1079</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>1127</v>
+        <v>1095</v>
       </c>
       <c r="G11" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>1100</v>
+        <v>1068</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -9939,21 +9551,21 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1112</v>
+        <v>1080</v>
       </c>
       <c r="E12" t="s">
-        <v>1120</v>
+        <v>1088</v>
       </c>
       <c r="F12" t="s">
-        <v>1128</v>
+        <v>1096</v>
       </c>
       <c r="G12" t="s">
-        <v>1128</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>961</v>
+        <v>929</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -9962,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>989</v>
+        <v>957</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -9976,7 +9588,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -9985,21 +9597,21 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>891</v>
+        <v>874</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="G14" t="s">
-        <v>1139</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>1101</v>
+        <v>1069</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -10008,13 +9620,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>1113</v>
+        <v>1081</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>1129</v>
+        <v>1097</v>
       </c>
       <c r="G15" t="s">
         <v>21</v>
@@ -10022,7 +9634,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>968</v>
+        <v>936</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -10031,13 +9643,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>996</v>
+        <v>964</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>1027</v>
+        <v>995</v>
       </c>
       <c r="G16" t="s">
         <v>606</v>
@@ -10045,7 +9657,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>969</v>
+        <v>937</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -10054,21 +9666,21 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>997</v>
+        <v>965</v>
       </c>
       <c r="E17" t="s">
-        <v>1118</v>
+        <v>1086</v>
       </c>
       <c r="F17" t="s">
-        <v>1028</v>
+        <v>996</v>
       </c>
       <c r="G17" t="s">
-        <v>1140</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>1102</v>
+        <v>1070</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -10077,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>1114</v>
+        <v>1082</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
@@ -10109,12 +9721,12 @@
         <v>806</v>
       </c>
       <c r="G19" t="s">
-        <v>1141</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>1103</v>
+        <v>1071</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -10123,21 +9735,21 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>1115</v>
+        <v>1083</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>1130</v>
+        <v>1098</v>
       </c>
       <c r="G20" t="s">
-        <v>1139</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>1104</v>
+        <v>1072</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -10146,21 +9758,21 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>1116</v>
+        <v>1084</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>1131</v>
+        <v>1099</v>
       </c>
       <c r="G21" t="s">
-        <v>1142</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>971</v>
+        <v>939</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -10169,21 +9781,21 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>999</v>
+        <v>967</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>1030</v>
+        <v>998</v>
       </c>
       <c r="G22" t="s">
-        <v>1143</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>972</v>
+        <v>940</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -10192,16 +9804,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>1000</v>
+        <v>968</v>
       </c>
       <c r="E23" t="s">
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>1031</v>
+        <v>999</v>
       </c>
       <c r="G23" t="s">
-        <v>1144</v>
+        <v>1112</v>
       </c>
     </row>
   </sheetData>
@@ -10242,7 +9854,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -10251,21 +9863,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="E2" t="s">
-        <v>1169</v>
+        <v>1143</v>
       </c>
       <c r="F2" t="s">
-        <v>907</v>
+        <v>882</v>
       </c>
       <c r="G2" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -10274,44 +9886,44 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="E3" t="s">
-        <v>1170</v>
+        <v>1144</v>
       </c>
       <c r="F3" t="s">
-        <v>909</v>
+        <v>884</v>
       </c>
       <c r="G3" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E4" t="s">
         <v>1145</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1171</v>
-      </c>
       <c r="F4" t="s">
-        <v>1179</v>
+        <v>1154</v>
       </c>
       <c r="G4" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>859</v>
+        <v>1114</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -10320,21 +9932,21 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>881</v>
+        <v>1129</v>
       </c>
       <c r="E5" t="s">
-        <v>1172</v>
+        <v>1146</v>
       </c>
       <c r="F5" t="s">
-        <v>911</v>
+        <v>1155</v>
       </c>
       <c r="G5" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>1146</v>
+        <v>1115</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -10343,21 +9955,21 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1158</v>
+        <v>1130</v>
       </c>
       <c r="E6" t="s">
-        <v>1173</v>
+        <v>1147</v>
       </c>
       <c r="F6" t="s">
-        <v>1180</v>
+        <v>1156</v>
       </c>
       <c r="G6" t="s">
-        <v>1191</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -10366,39 +9978,39 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="E7" t="s">
-        <v>1174</v>
+        <v>1148</v>
       </c>
       <c r="F7" t="s">
-        <v>913</v>
+        <v>887</v>
       </c>
       <c r="G7" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E8" t="s">
         <v>1147</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1173</v>
-      </c>
       <c r="F8" t="s">
-        <v>1181</v>
+        <v>1157</v>
       </c>
       <c r="G8" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -10415,18 +10027,18 @@
         <v>544</v>
       </c>
       <c r="E9" t="s">
-        <v>1175</v>
+        <v>1149</v>
       </c>
       <c r="F9" t="s">
         <v>587</v>
       </c>
       <c r="G9" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>1148</v>
+        <v>1117</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -10435,16 +10047,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1160</v>
+        <v>1132</v>
       </c>
       <c r="E10" t="s">
-        <v>1173</v>
+        <v>1147</v>
       </c>
       <c r="F10" t="s">
-        <v>1182</v>
+        <v>1158</v>
       </c>
       <c r="G10" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -10461,41 +10073,41 @@
         <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>1172</v>
+        <v>1146</v>
       </c>
       <c r="F11" t="s">
         <v>177</v>
       </c>
       <c r="G11" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E12" t="s">
         <v>1149</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1175</v>
-      </c>
       <c r="F12" t="s">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="G12" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>1150</v>
+        <v>1119</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -10504,21 +10116,21 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>1162</v>
+        <v>1134</v>
       </c>
       <c r="E13" t="s">
-        <v>1172</v>
+        <v>1146</v>
       </c>
       <c r="F13" t="s">
-        <v>1184</v>
+        <v>1160</v>
       </c>
       <c r="G13" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>1151</v>
+        <v>1120</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -10527,21 +10139,21 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>1163</v>
+        <v>1135</v>
       </c>
       <c r="E14" t="s">
-        <v>1176</v>
+        <v>1150</v>
       </c>
       <c r="F14" t="s">
-        <v>1185</v>
+        <v>1161</v>
       </c>
       <c r="G14" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -10550,16 +10162,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>906</v>
+        <v>881</v>
       </c>
       <c r="G15" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -10576,18 +10188,18 @@
         <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>904</v>
+        <v>1151</v>
       </c>
       <c r="F16" t="s">
         <v>186</v>
       </c>
       <c r="G16" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>867</v>
+        <v>1121</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -10596,21 +10208,21 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>889</v>
+        <v>1136</v>
       </c>
       <c r="E17" t="s">
-        <v>1177</v>
+        <v>1152</v>
       </c>
       <c r="F17" t="s">
-        <v>917</v>
+        <v>1162</v>
       </c>
       <c r="G17" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -10619,21 +10231,21 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>891</v>
+        <v>874</v>
       </c>
       <c r="E18" t="s">
-        <v>1175</v>
+        <v>1149</v>
       </c>
       <c r="F18" t="s">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="G18" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>1152</v>
+        <v>1122</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -10642,21 +10254,21 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>1164</v>
+        <v>1137</v>
       </c>
       <c r="E19" t="s">
-        <v>1172</v>
+        <v>1146</v>
       </c>
       <c r="F19" t="s">
-        <v>1186</v>
+        <v>1163</v>
       </c>
       <c r="G19" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>1153</v>
+        <v>1123</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -10665,16 +10277,16 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>1165</v>
+        <v>1138</v>
       </c>
       <c r="E20" t="s">
-        <v>1173</v>
+        <v>1147</v>
       </c>
       <c r="F20" t="s">
-        <v>1187</v>
+        <v>1164</v>
       </c>
       <c r="G20" t="s">
-        <v>1191</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -10691,18 +10303,18 @@
         <v>335</v>
       </c>
       <c r="E21" t="s">
-        <v>1174</v>
+        <v>1148</v>
       </c>
       <c r="F21" t="s">
         <v>378</v>
       </c>
       <c r="G21" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>1154</v>
+        <v>1124</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -10711,16 +10323,16 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>1166</v>
+        <v>1139</v>
       </c>
       <c r="E22" t="s">
-        <v>1170</v>
+        <v>1144</v>
       </c>
       <c r="F22" t="s">
-        <v>1188</v>
+        <v>1165</v>
       </c>
       <c r="G22" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -10737,18 +10349,18 @@
         <v>139</v>
       </c>
       <c r="E23" t="s">
-        <v>1174</v>
+        <v>1148</v>
       </c>
       <c r="F23" t="s">
         <v>195</v>
       </c>
       <c r="G23" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>871</v>
+        <v>1125</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -10757,21 +10369,21 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>893</v>
+        <v>1140</v>
       </c>
       <c r="E24" t="s">
-        <v>1172</v>
+        <v>1146</v>
       </c>
       <c r="F24" t="s">
-        <v>921</v>
+        <v>1166</v>
       </c>
       <c r="G24" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>1103</v>
+        <v>1071</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -10780,21 +10392,21 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>1115</v>
+        <v>1083</v>
       </c>
       <c r="E25" t="s">
-        <v>1175</v>
+        <v>1149</v>
       </c>
       <c r="F25" t="s">
-        <v>1130</v>
+        <v>1098</v>
       </c>
       <c r="G25" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -10803,21 +10415,21 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>922</v>
+        <v>890</v>
       </c>
       <c r="G26" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>1155</v>
+        <v>1126</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -10826,21 +10438,21 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F27" t="s">
         <v>1167</v>
       </c>
-      <c r="E27" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1189</v>
-      </c>
       <c r="G27" t="s">
-        <v>1192</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>1156</v>
+        <v>1127</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -10849,16 +10461,16 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F28" t="s">
         <v>1168</v>
       </c>
-      <c r="E28" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1190</v>
-      </c>
       <c r="G28" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -10875,13 +10487,13 @@
         <v>776</v>
       </c>
       <c r="E29" t="s">
-        <v>1177</v>
+        <v>1152</v>
       </c>
       <c r="F29" t="s">
         <v>811</v>
       </c>
       <c r="G29" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -10922,7 +10534,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>1193</v>
+        <v>1171</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -10931,13 +10543,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>1200</v>
+        <v>1178</v>
       </c>
       <c r="E2" t="s">
         <v>347</v>
       </c>
       <c r="F2" t="s">
-        <v>1208</v>
+        <v>1186</v>
       </c>
       <c r="G2" t="s">
         <v>389</v>
@@ -10945,7 +10557,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>1194</v>
+        <v>1172</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -10954,13 +10566,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1201</v>
+        <v>1179</v>
       </c>
       <c r="E3" t="s">
         <v>347</v>
       </c>
       <c r="F3" t="s">
-        <v>1209</v>
+        <v>1187</v>
       </c>
       <c r="G3" t="s">
         <v>388</v>
@@ -10968,7 +10580,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>1195</v>
+        <v>1173</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -10977,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>1202</v>
+        <v>1180</v>
       </c>
       <c r="E4" t="s">
         <v>347</v>
@@ -10991,7 +10603,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>1196</v>
+        <v>1174</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -11000,16 +10612,16 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1203</v>
+        <v>1181</v>
       </c>
       <c r="E5" t="s">
-        <v>1207</v>
+        <v>1185</v>
       </c>
       <c r="F5" t="s">
-        <v>1210</v>
+        <v>1188</v>
       </c>
       <c r="G5" t="s">
-        <v>1214</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -11032,7 +10644,7 @@
         <v>359</v>
       </c>
       <c r="G6" t="s">
-        <v>1215</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -11072,7 +10684,7 @@
         <v>318</v>
       </c>
       <c r="E8" t="s">
-        <v>1207</v>
+        <v>1185</v>
       </c>
       <c r="F8" t="s">
         <v>362</v>
@@ -11083,7 +10695,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>1197</v>
+        <v>1175</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -11092,13 +10704,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1204</v>
+        <v>1182</v>
       </c>
       <c r="E9" t="s">
         <v>347</v>
       </c>
       <c r="F9" t="s">
-        <v>1211</v>
+        <v>1189</v>
       </c>
       <c r="G9" t="s">
         <v>388</v>
@@ -11141,7 +10753,7 @@
         <v>325</v>
       </c>
       <c r="E11" t="s">
-        <v>1207</v>
+        <v>1185</v>
       </c>
       <c r="F11" t="s">
         <v>369</v>
@@ -11164,7 +10776,7 @@
         <v>759</v>
       </c>
       <c r="E12" t="s">
-        <v>1207</v>
+        <v>1185</v>
       </c>
       <c r="F12" t="s">
         <v>796</v>
@@ -11187,7 +10799,7 @@
         <v>639</v>
       </c>
       <c r="E13" t="s">
-        <v>1207</v>
+        <v>1185</v>
       </c>
       <c r="F13" t="s">
         <v>666</v>
@@ -11267,7 +10879,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>1198</v>
+        <v>1176</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -11276,13 +10888,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>1205</v>
+        <v>1183</v>
       </c>
       <c r="E17" t="s">
-        <v>1207</v>
+        <v>1185</v>
       </c>
       <c r="F17" t="s">
-        <v>1212</v>
+        <v>1190</v>
       </c>
       <c r="G17" t="s">
         <v>387</v>
@@ -11313,7 +10925,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>1199</v>
+        <v>1177</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -11322,13 +10934,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>1206</v>
+        <v>1184</v>
       </c>
       <c r="E19" t="s">
-        <v>1207</v>
+        <v>1185</v>
       </c>
       <c r="F19" t="s">
-        <v>1213</v>
+        <v>1191</v>
       </c>
       <c r="G19" t="s">
         <v>387</v>

--- a/examples/HEAT/JAIS_2023/topic_model_results/hazard_extraction_mismatches.xlsx
+++ b/examples/HEAT/JAIS_2023/topic_model_results/hazard_extraction_mismatches.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="Hydraulic Fluid Leaks and Malf" sheetId="1" r:id="rId1"/>
     <sheet name="Intrusion" sheetId="2" r:id="rId2"/>
-    <sheet name="Water Bucket &amp; Tank Equipment " sheetId="3" r:id="rId3"/>
-    <sheet name="Premature Water &amp; Retardant Je" sheetId="4" r:id="rId4"/>
+    <sheet name="Water Drop Bucket or Tank Fail" sheetId="3" r:id="rId3"/>
+    <sheet name="Water or Retardant Loading &amp; J" sheetId="4" r:id="rId4"/>
     <sheet name="Radio Malfunction" sheetId="5" r:id="rId5"/>
     <sheet name="On-board Caution Light Illumin" sheetId="6" r:id="rId6"/>
     <sheet name="Inadequate PPE" sheetId="7" r:id="rId7"/>
@@ -23,7 +23,7 @@
     <sheet name="Personnel Duty Hours Exceeded" sheetId="14" r:id="rId14"/>
     <sheet name="Jumper Operations Hazards" sheetId="15" r:id="rId15"/>
     <sheet name="Control Surface Damage" sheetId="16" r:id="rId16"/>
-    <sheet name="Helitorch Operations Failure" sheetId="17" r:id="rId17"/>
+    <sheet name="Prescribed Burn Operations Fai" sheetId="17" r:id="rId17"/>
     <sheet name="Engine Malfunction" sheetId="18" r:id="rId18"/>
     <sheet name="Oil Malfunction" sheetId="19" r:id="rId19"/>
     <sheet name="Load Limits Exceeded" sheetId="20" r:id="rId20"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="558">
   <si>
     <t>True</t>
   </si>
@@ -748,18 +748,42 @@
     <t>97-0081</t>
   </si>
   <si>
+    <t>01-1095</t>
+  </si>
+  <si>
+    <t>05-0566</t>
+  </si>
+  <si>
     <t>Ordered an infra Red flight of our slash burns for 5/19/97. Was told by the vendor that their radio was not operating and so their helicopter had not been carded as yet. They arranged to use a Bell BIII to complete the flight using a Westcam infra red camera. When I arrived at the vendor's the camera installation was nearly complete and the pilot was waiting for the weights and balance calculations. The Westcam camera is a nose mount weighing 80 lbs. It was determined that you could operate as long as no one was in the left front seat and a 30 gallon fuel reserve was maintained. Mission went foreword with out incident however I have real concerns about the IR mounting system which is a temporary mount: 1) It obviously makes a significant change in aircraft CG and reduces the amount of useable fuel (this mission was flown by a light-weight pilot and I'm not aware of any lighter pilots, a heavier pilot may not have been able to complete this mission). 2) The ground clearance of the camera is approximately 4 inches. This is ok if your operating from a cement pad as this mission was but would be unworkable on most fires or other field operations. 3) No agency personnel were on this flight but on some IR missions it may be desirable. I think this system needs to be looked at before someone decides to do so.</t>
   </si>
   <si>
+    <t>At approximatley 1400 on 09/04/01 Flight Follow when out.  Jumper 59 and Helicopter 70B where both on Initial Attack missions at the time.  Established contact with both aircraft on Air Guard, switched both aircraft to local repeater and completed missions.Contacted local USFS Communications personnel.  He confimed that flight following was broken and would look at it on 09/05/01.Unable to determine when flight follow will be operable due to Communications personnel's response.</t>
+  </si>
+  <si>
+    <t>On my flight from Redmond to Missoula I continuously heard regular business, ground asset dispatching, equipment ordering, and just general chit-chat being done on the National Flight Following Frequency (Come to think of it the frequency could have been the Guard Frequency ).  This use of one or the other frequency is not authorized and did not cease until I was well into Idaho.</t>
+  </si>
+  <si>
     <t>camera</t>
   </si>
   <si>
+    <t>national flight following</t>
+  </si>
+  <si>
     <t>[14, 46, 63, 80, 88]</t>
   </si>
   <si>
+    <t>[14, 29, 69, 74, 97]</t>
+  </si>
+  <si>
+    <t>[3, 69, 80]</t>
+  </si>
+  <si>
     <t>[46]</t>
   </si>
   <si>
+    <t>[69]</t>
+  </si>
+  <si>
     <t>20-1248</t>
   </si>
   <si>
@@ -970,6 +994,9 @@
     <t xml:space="preserve"> tree</t>
   </si>
   <si>
+    <t>snag</t>
+  </si>
+  <si>
     <t>brush</t>
   </si>
   <si>
@@ -1000,510 +1027,492 @@
     <t>[24]</t>
   </si>
   <si>
-    <t>06-0484</t>
+    <t>04-0341</t>
+  </si>
+  <si>
+    <t>07-1118</t>
+  </si>
+  <si>
+    <t>06-0372</t>
+  </si>
+  <si>
+    <t>05-0347</t>
+  </si>
+  <si>
+    <t>02-1091</t>
   </si>
   <si>
     <t>16-0527</t>
   </si>
   <si>
-    <t>95-0286</t>
-  </si>
-  <si>
-    <t>01-0591</t>
-  </si>
-  <si>
     <t>06-0799</t>
   </si>
   <si>
-    <t>01-0112</t>
-  </si>
-  <si>
-    <t>06-0954</t>
-  </si>
-  <si>
-    <t>04-0859</t>
-  </si>
-  <si>
     <t>11-0136</t>
   </si>
   <si>
     <t>06-0673</t>
   </si>
   <si>
+    <t>01-0498</t>
+  </si>
+  <si>
+    <t>20-0256</t>
+  </si>
+  <si>
+    <t>After take-off, acft could not retract left main gear. Flight manual procedures were followed which directed the crew to lower the gear. A safe gear down and locked indication was displayed. Once a safe indication is indicated no further trouble shooting is allowed in flight. Flight engineer visually checked for safe indications thru inspection windows. Retardant was dumped at the fire site due to its proximity. Acft landed at IWA without incident.</t>
+  </si>
+  <si>
+    <t>Flying Fire Managers on Pattengail Fire Recon. Air Attack~above helicopters~air attack complained they could not see me on TCAS, but could see the helicopters below me. Reason is the helicopter''s transponder attenna is housed in plexiglass nose which transmits through. My transponder attenna is on the bottom of my fuselage. Air attack above me could not see me on TCAS as signal won''t go through aluminum fuselage.</t>
+  </si>
+  <si>
+    <t>Upon touchdown at Helibase, the aircraft bounced on wheels and skidded approx. 15 feet before coming to a stop. Crew was unloaded along with gear at Helibase. PIC did a walkaround of aircraft looking at wheels, landing struts, etc. inspecting for any damage, none found. Aircraft was later inspected by mechanics at airport and no damage was found. Upon review of load calculation it was found that aircraft was overloaded approx. 450 pounds for conditions at site. The Helibase was an inground location. Pilot directed aircraft into the wind for landing as per normal. Performance planning was not accurate for actual conditions at Helibase. This responsibility lies with the Helicopter manager who accepts responsibility for incident. We did not confirm actual conditions before landing as is normal SOP, I believe we were mission focused as the fire was in close proximity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We departed KSBA at 0830 on an infra-red flight over the Xxxxxxx incident. The weather at departure was IFR, light wind out of the west, 5 miles visibility and a ceiling of 500’ with tops reported at 1500’with VFR conditions on top. The mission took roughly 45 minutes over the incident, and we returned to KSBA under VFR conditions. Weather at the time of landing was reported at 6 miles visibility with ceilings of 600’ tops remained at 1500’. After receiving an IFR clearance, we were cleared for the ILS 7 approach to KSBA. I armed the approach mode of the flight director while hand flying the aircraft. The flight director did not seem to capture the localizer, and I intercepted the course with the HSI. Glide slope information appeared normal. I informed SBA approach that I may not have a good signal. At this time I was handed to tower and cleared to land. The tower informed me that I was slightly right of course; this appeared to agree with the GPS moving map. However, this information conflicted with both the flight director and the HSI which were showing opposing information and large fluctuations in course corrections. At this time the TWAS issued a “terrain pull up” alert at 1100’AGL. I initiated a missed approach and climbed back up to VFR conditions diverting to KPRB. Some fluctuations in the HSI were observed while in route, and the landing was without incident. R-5 Aviation Maintenance Inspector was called 7/3/2005. R-5 Contracting Officer was called 7/3/2005. The plane was later ferried to KFAT under VFR conditions for maintenance. </t>
+  </si>
+  <si>
+    <t>Helicopter NXXXXX (H-52) was assigned to the Big Wash fire on 6-6-02 (Cedar City BLM). H-52 was reconing division W with Operations and the Safety Officer. Air attack 69 November was on station along with helicopter Hotel Tango and Hotel Quebec (who where doing bucket work for division W). H-52 was orbiting Division W at 9000' MSL and coordinating with division (on air to ground). The elevation of the fire being around 8400'. While watching helicopter Hotel Tango returning from a drop, an unidentified fixed wing underflew H-52 going southbound (Later identified as Lead 44). Neither H-52 or helicopter Hotel Tango had heard that Lead 44 was in the area. When H-52 inquired to air attack about other fixed wing in the area, Air Attack responded in Lead 44in.</t>
+  </si>
+  <si>
+    <t>On July 8 2016 19:10 a Temporary Flight Restriction {TFR} intrusion occurred on the XXX Fire near Pine Valley Utah involving an Unmanned Aircraft System {UAS} or drone. This TFR intrusion resulted in a near collision with Air Attack XXX. XXX was at an altitude of 11,000 feet when they passed the drone 30 feet off the right wing of the plane. The incident occurred on the XXX Fire at approximately LAT/LONG 37 23 .104 113 31.149. Geographical location of Lloyds canyon and Forsythe Canyon on the Pine Valley Mountain range. This is the forth confirmed UAS intrusion on this fire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At 1751, MDC called and told me T-xx was en route from WYS to the incident, but that the fire had cancelled them. They wanted HLN aircraft to call T-xx and have him go directly to MSO instead of to the incident. AFF showed T-xx just SW of HLN. I called him on National Flight Following - no response at 1752. Tried again, 1753 - no response. 1753 - AIR GUARD contact attempted. No response. 1754, Tried contact on National Flight Following and again on AIR GUARD - no response. Icon went red on Automated Flight Following (AFF) screen. 1757, tried AIR GUARD again. No response. Called the HLN Tower. They had not seen T-xx in the skies (HLN tower does not have radar). A leadplane tried to raise him on NFF and on 125.125 (receiving incident''s Air-Air). I told Leadplane that the last point I had him on AFF was at 1739 (note time there - it is now 1758 on the clock), and relayed the last known position check: lat/long, heading 337 degrees @ 247 mph. Had MDC on the phone (to check the status of T-xx as far as they knew). They reported T-xx was ''yellow'' on their screen - relayed to leadplane. Moments later, MDC reported he''d gone ''red'' on her screen too. Relayed to Leadplane. Moments later, the lead successfully established contact with the tanker, who reported he was almost to the fire. HDC dispatcher checked with our Forest Aviation Officer, the GACC a/c desk (NRCC), neighboring dispatch center involved (MDC), as well as my center manager (HDC). All suggested a Safecom be filed for a number of related reasons, all centering on the fact that Air Guard is to be monitored at all times in aircraft, even when said a/c are employing Automated Flight Following. </t>
+  </si>
+  <si>
+    <t>While enroute to the Duke Fire and West of Midland Texas the pilot tried to adjust the pitch on the {{{{{#}}}}}2 engine prop. The prop control failed at 2200 rpm. The pilot made the decision to return to Midland International Airfield to have the prop control checked. He then contacted the company mechanic who was enroute to meet the A/C in Midland. The mechanic found a broken wire at a solder point.</t>
+  </si>
+  <si>
+    <t>On July 20th at approximately 0916 air attack departed Redmond Tanker base to respond to Incident #0521 with pilot, air attack trainee and air attack instructor on board. Immediately after take-off, pilot in command informed air attack that we have a mechanical problem and we are returning to Redmond. After landing pilot informed air attack that the fuel flow gauge was inoperable and that he will take the plane to the local A&amp;P mechanic to inspect faulty gauge.</t>
+  </si>
+  <si>
+    <t>Aircraft was observed flying from the Northwest, divert directly over the fireon one wing and depart the area to the southeast. Altitude was approximately 1000' AGL or 6000' MSL. Air tankers were working on the fire. The Roosevelt A &amp; B MOA curently extends from 11,000' MSL to Fl 180.Aircraft obviously deviated from original flight route to investigate the fire (against AP-1B instructions).Aircraft was obviously well below the floor of the MOA.</t>
+  </si>
+  <si>
+    <t>We, the smokejumper aircraft took runway 24 for takeoff and made our departure call on UNICOM.  Helitack helicopter said on UNICOM they were lifting from the ramp and would hold for our takeoff.  We started our takeoff roll and the helicopter departed to the north crossing runway 24 approximately 4,000 feet in front of us.  We called on UNICOM that we were already on our takeoff roll and the helicopter stated that they had us in sight.</t>
+  </si>
+  <si>
+    <t>proximity</t>
+  </si>
+  <si>
+    <t>conflict</t>
+  </si>
+  <si>
+    <t>collision</t>
+  </si>
+  <si>
+    <t>confusion</t>
+  </si>
+  <si>
+    <t>airfield</t>
+  </si>
+  <si>
+    <t>trainee</t>
+  </si>
+  <si>
+    <t>[21, 30, 69, 83]</t>
+  </si>
+  <si>
+    <t>[40, 73, 80, 88]</t>
+  </si>
+  <si>
+    <t>[3, 63, 80, 88]</t>
+  </si>
+  <si>
+    <t>[13, 46, 69, 96]</t>
+  </si>
+  <si>
+    <t>[7, 12, 69, 78, 91]</t>
+  </si>
+  <si>
+    <t>[7, 37]</t>
+  </si>
+  <si>
+    <t>[38, 65]</t>
+  </si>
+  <si>
+    <t>[8, 22, 51, 92]</t>
+  </si>
+  <si>
+    <t>[8, 11]</t>
+  </si>
+  <si>
+    <t>[7, 14, 23, 57, 97]</t>
+  </si>
+  <si>
+    <t>[7, 8, 82]</t>
+  </si>
+  <si>
+    <t>[69, 96]</t>
+  </si>
+  <si>
+    <t>[47, 39]</t>
+  </si>
+  <si>
+    <t>[12, 69, 7]</t>
+  </si>
+  <si>
+    <t>[37, 7]</t>
+  </si>
+  <si>
+    <t>[65]</t>
+  </si>
+  <si>
+    <t>97-0124</t>
+  </si>
+  <si>
+    <t>I was air attack Group Supervisor (AA6) flying over fire B441 talking to jump 17. We assigned them an altitude to come over the fire for a streamer pass while the air tanker was reloading. Jump17 finished his streamer run and started to climb without talking to us. We had jump 17 in sight at all times. Jay requested the pilot to notify air attack prior to changing elevations.</t>
+  </si>
+  <si>
+    <t>streamer</t>
+  </si>
+  <si>
+    <t>[34]</t>
+  </si>
+  <si>
+    <t>20-0733</t>
+  </si>
+  <si>
+    <t>01-0465</t>
+  </si>
+  <si>
+    <t>Approaching SBD for a load and return to the XXXXX Fire, TXXX had a bird strike on the underside of the right wing with damage to the outer flap tab hinge fairing. There was no damage to the actual mechanism.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While flying recon on the Plumas NF I was about to call dispatch with adirection change when I noticed that radio #3 had gone off. I then triedto talk to the pilot and was unable to. I got his attention and then wenoticed that radio #2 had gone off. We then noticed the victor radio wasoff. We then started checking and found that the amp guage was showing adischarge. I called dispatch on my hand held radio and informed them thatwe lost the aircraft alternator and were in route to Quincy (Gansner)airport. The pilot turned off all other unnecessary electrical equipmentto save as much battery life as possibe. We were able to make a safe landing at Quincy airport even though we did not have any flaps. </t>
+  </si>
+  <si>
+    <t>flap</t>
+  </si>
+  <si>
+    <t>[2, 21, 23, 25]</t>
+  </si>
+  <si>
+    <t>[11, 14, 46, 74, 90]</t>
+  </si>
+  <si>
+    <t>[23]</t>
+  </si>
+  <si>
+    <t>18-0517</t>
+  </si>
+  <si>
+    <t>05-0559</t>
+  </si>
+  <si>
+    <t>06-0519</t>
+  </si>
+  <si>
+    <t>15-0631</t>
+  </si>
+  <si>
+    <t>09-0269</t>
+  </si>
+  <si>
+    <t>01-0299</t>
+  </si>
+  <si>
+    <t>02-0566</t>
+  </si>
+  <si>
+    <t>16-0289</t>
+  </si>
+  <si>
+    <t>03-0497</t>
+  </si>
+  <si>
+    <t>16-0706</t>
+  </si>
+  <si>
+    <t>06-0331</t>
+  </si>
+  <si>
+    <t>08-0326</t>
+  </si>
+  <si>
+    <t>03-0781</t>
+  </si>
+  <si>
+    <t>00-0163</t>
+  </si>
+  <si>
+    <t>07-0833</t>
+  </si>
+  <si>
+    <t>11-0806</t>
+  </si>
+  <si>
+    <t>08-0578</t>
+  </si>
+  <si>
+    <t>11-0174</t>
+  </si>
+  <si>
+    <t>04-0434</t>
+  </si>
+  <si>
+    <t>02-0758</t>
+  </si>
+  <si>
+    <t>07-0608</t>
+  </si>
+  <si>
+    <t>16-0815</t>
+  </si>
+  <si>
+    <t>00-0698</t>
+  </si>
+  <si>
+    <t>13-0416</t>
+  </si>
+  <si>
+    <t>03-0192</t>
+  </si>
+  <si>
+    <t>03-1106</t>
+  </si>
+  <si>
+    <t>19-0126</t>
+  </si>
+  <si>
+    <t>WADNR UH-1H xxxxx was dispatched to the Ryegrass Coulee fire in the vicinity of Vantage, WA at 0730, 07/10/2018. xxxxx flew one fuel cycle and then landed at the helibase/ fuel site for a fuel and hold. At approximately 11:00 Air Attack requested xxxxx for bucket work, while lifting to leave the helibase a chip detector and warning light activated. The pilot contacted air attack and informed him the aircraft would be down for maintenance. xxxxx set down at the helibase, contacted agency mechanics and went through the proper procedures to isolate and remedy the issue. After the appropriate steps were taken the agency mechanic cleared xxxxx for incident operations. The aircraft finished up the day and returned to ellensburg base with no further issues.</t>
+  </si>
+  <si>
+    <t>NXXXX was flying air attack on the Burnt River Complex, over incident 154, call dispatch with a report that they lost an engine and were going to try to fly back to Baker on a single engine. At the time of engine failure, they were 22 miles out of Baker. Maintained Contact with NXXXX throughout the flight to Baker. They were able maintain altitude and land safely @ Baker without incident.Contacted Forest Aviation Officer and vendor. Also requested emergency response at the Baker Airport.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilot failed to untie main rotor blades before start up. Pilot noticed that he did not untie at the same time he attempted to start engine. Immediately aborted start. Total time was approximately one second. Pilot untied blades and started helicopter. </t>
+  </si>
+  <si>
+    <t>Turbocharged 337 Cessna Skymaster pilot started the front engine without any problems. Attempted to start the rear engine but it would not start. The pilot followed other starting procedures as recommended by the owner but without success. The company mechanic was contacted and it was determined the fuel pump had failed. At 1900 aircraft was unavailable.</t>
+  </si>
+  <si>
+    <t>The helicopter departed CKX and upon arrival at the fire several warning lights{particle separator, rpm, engine 1 out, and engine 2 out} became illuminated. The pilot immediately began maneuvering toward the nearest landing spot, but all other gauges read normally &amp; we could still hear the engines running, so we returned to CKX. Enroute all warning lights except one paticle separator light went out. The helicopter landed without incident and the mechanic, IC, and AMD maintenance inspector were notified of the problem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanker 14 was responding to the Silent fire (RRU-47545) and developed an oil leak at the number three engine.  Tanker 14 then returned to SBD Tanker Base.  After inspection it was noted that an oil line was loose.  Oil line tightened, and aircraft put into contract availability.Gerry Burney notified and approved. </t>
+  </si>
+  <si>
+    <t>Dispatched as initial attack to a fire. Started acft engine and all appeared normal until the gas produced tachometer (N) went through 40%,I released the started switch and the engine flamed out, all indicationsof the start up to that point were normal.I contacted the DNR mechanic supervisor and he thought that perhaps thethrottle was rolled back a little to far off the detent to continuestarting sequence. Also, he said that there was the possibility of something similar to a vapor lock (air bubble) may have occured.I attempted a restart at his request and everything performednormally.After the restart Helicopter Manager contacted DNR Mechanic Supervisor once again to obtain clearance to resume operations. Clearancewas granted by mechanic.Helibase Manager contacted USFS to discuss start difficulties. After a conference between FS and DNR representatives Rotor 338 was fullyoperational.</t>
+  </si>
+  <si>
+    <t>We left the Airtanker Base at 1046 to do a requested Recon mission over the Galeuros and the Chirichua Ranges. We finished the Galeuros and were at the Dos Cabezas Mountains enroute to the Chrichuas when the pilot alerted me that the right engine tachometer needle was falling. I looked at the gauges and was a slow descent to 0 rpms. The pilot checked all the other gauges and they were all in the green. I visually looked at the right engine which showed no outward abnormalities. The pilot said that the xxx airport was close and we agreed that we would head the aircraft to there. Once that decision was made I called Dispatch and informed them that we had a malfunction with one of the gauges but operations were good and we were proceeding to the airport. We landed and went to maintenance facilities. Once parked, I notified Dispatch we were safe on the ground, and then notified management, and the OAS Maintenance Inspector of the situation.</t>
+  </si>
+  <si>
+    <t>Assign to lighting recon flight at 1050 Hrs. At end of planned flight, pilot noted right engine HP would not come back below 250 HP. Made landing at SBA at 1200 hrs. Mechanic worked on aircraft with test flight being OK. SZ Aviation Maintenace Inspector was called and aircraft was return to availability status. At 1549 hrs response to SB co fire #5209. 1615 hrs right engine would not come back below 250 HP, landed at SBA at 1641 hrs. SZ Maintenance Inspector was called on the situation, log book entry will be fax to Jerry when aircraft is returned to availability status.</t>
+  </si>
+  <si>
+    <t>Bird strike on engine number 1 noticed by crew chief on walk-around and discontinued reload for fire. Operations shut down. Pilots did not notice any engine concerns. Do not know the altitude, coordinates of strike or time it happened.</t>
+  </si>
+  <si>
+    <t>Aborted start on fire dispatch. Pilot attempted to start the aircraft with the battery cart. Initial voltage OK, upon spooling engine pilot noted excessive voltage drop. Not enough battery voltage to continue start. Pilot verified condition - low NG speed. Pilot followed proper procedure and correctly aborted start without any damage to aircraft.</t>
+  </si>
+  <si>
+    <t>On 6.16.2008 at approximately 1730 airtanker Lockheed P2 Neptune tail number xx was in the blocks and was under supervision of fixed wing parking tender. Aircraft had just completed loading retardent, loading crew was cleared, and airtanker was given permission to start engines. Pilot signaled to FWPT to clear him to start engine {#}2, clearance was given. As engine {#}2 was starting the suction from the propeller sucked a collapsible fabric and wire sunscreen out of the copilots window. The sunscreen disappeared with the engine blowby smoke behind the aircraft. Clearance was asked and given to start engine {#}1. As engine {#}1 cleared of smoke the sunscreen reappeared and swirled with the engine turbulence, threatening to be sucked into engine air intakes of both engine {#}1 and engine {#}2. Parking tender gave the pilot an emergency immediate cut-engine signal. Pilot responded immediately. The sunscreen fell to the ground in front of engine {#}2 and was retrieved by FWPT.</t>
+  </si>
+  <si>
+    <t>Pilot reported low fuel pressure indicator illuminated on the number 4 engine while over fire preparing for a drop.  PIC elected not to drop and returned to MFR for repairs.   Aircraft landed without incident.</t>
+  </si>
+  <si>
+    <t>After landing at KGCN for fuel the cowl of the right engine was observed to have a coating of grease that appeared to have come from the area of the propeller hub.  The aircraft had returned from spending 3.5 hours conducting leadplane activities on the Outlet Fire.</t>
+  </si>
+  <si>
+    <t>On takeoff fuel pressure gauges read normal, 10 minutes into the flight the right engine fuel pressure gauge was reading high. So the pilot decided to terminate the flight on return to the airport. aircraft was placed into contract unavailable status. Company maintenance chief decided to replace the right engine driven fuel pump and do the scheduled 50 hr inspection at the same time. During the inspection the mechanic found the right engine driven hydraulic pump had failed. Hydraulic pump was replaced 8/8/07.</t>
+  </si>
+  <si>
+    <t>Aircraft had an ‘Engine’ chip light starting up at Spring Creek Helibase and immediately shut back down.</t>
+  </si>
+  <si>
+    <t>Pilots heard a noise in the aft rotor system and a vibration upon returning to helibase, the aircraft was shut down while it was inspected by the mechanics, after inspection the mechanics advised the manager that the aircraft was out of service. There was a scheduled maintance to change the aft transmission the next day. The aircraft was made unavailable for the remainder of the afternoon.</t>
+  </si>
+  <si>
+    <t>After flying 4.6 hours on the Rockhouse Fire a transmission oil pressure warning light illuminated but transmission pressure indications were normal. Warning light is turned on by two pressure switches, one plumbed to the forward transmission and one on the aft transmission. This occured upon startup after refueling.</t>
+  </si>
+  <si>
+    <t>While performing large fire support on the Incident, an oil leak was discovered. Oil was dripping out of the valve and pooling in the carriage. 7/2/04 This narrative is an ammendment to the SAFECOM filed for this helicopter on 6/30/2004 (submitted by Helicopter Manager). Narrative: While performing a longline hookup I noticed a couple of puffs of white smoke come out of the left side cowl. I immediately had the pilot land and shut down the A/C. Upon inspection a leak was discovered on the breather tube flange that returns excess oil to the exhaust to be burned off. After discussion with the pilot it was determined that the helicopter needed to be repaired and that it would become un-available. I discussed the problem with my HELB(t) and we decided one of us needed to return to helibase to begin working on getting the helicopter repaired. The HELB(t) flew to helibase with the A/C. While I had confidence in the judgement of the pilot that the leak did not jeopardize the safety of the flight, I should have not asked the HELB(t) to fly down with the ship. This was a MAJOR oversight on my part. Policy dictates that when a problem is discovered that the A/C becomes unavailable @ that point. Once unavailable NO government personnel should be transported until the A/C is returned to service by an appropriate maintenance inspector.</t>
+  </si>
+  <si>
+    <t>Pilot reported low torque, inspection revealed fuel stream from P1 port in the inlet.  P1 bellows cracked.  Removed fuel control, installed fuel control with Allied Signal 1330.2 manual, chapter 73.  Put back into contract availability by the Regional Aviation Maintenance Inspector.</t>
+  </si>
+  <si>
+    <t>Pilot stated that he had an Engine/Airframe/Oil Filter Chip Light while on a Initial Attack mission. Pilot landed the aircraft and checked the chip plug and found very light fuzz on the plug. Pilot is an A/P mechanic.</t>
+  </si>
+  <si>
+    <t>Pilot attempted start of aircraft with main rotor tie down still in place. It was recognized prior to light off of engine by crew followed by immediate shut-down of starter generator.</t>
+  </si>
+  <si>
+    <t>The helicopter was getting ready to start and depart for the project site.  The pilot tried to start the helicopter and it did not.  He tried a second time and was uncessful.  He motioned to the fuel truck driver to bring out the APU and hook it up.  The pilot then tried a thrid time and determined the ignitor had gone bad.  Pilot called the office and had a mechanic dispatched.  A maintenance inspector was contacted and he said that in order to put the helicopter back in service the ignitor would have to be replaced and make a entry in the log book.</t>
+  </si>
+  <si>
+    <t>On duty at 0900, this would be day 3 for mission over site for the Fire within the Zone. At 0920 we did a aircraft systems check before departure and all ops normal, at 0941 we departed airport for the incident with: two souls, 4 1/2 hours of fuel, on a heading 214 degree`s for a 22 min, ETE to the incident. at this point all operations were normal and during this time was calculating the times for relief air attack over the fire. At 12 miles from incident contacted IA helicopter on victor for entry into the airspace of the fire TFR in place, we proceeded into the area at 10,000 dropping to 9,000 ft all ops normal. Established ground contact with operations and IC for operational update and reconfiguration of divisions from the previous day. ordered up fixed wing aircraft: 2 seats for retardant line across the west flank of the fire towards the head. All ops normal. about 3 3/4 hours into the flight the pilot noticed that the fuel use gauge that reads pounds of fuel used per sec was not operational for the right engine, the engine never quit running. The pilot re-calculated the weights and measures for passenger, fuel and cargo, determined that it was either a gauge failure or sending unit and we had plenty of fuel. At 1348 air attack relief was over the fire, did a brief on the tactics and division break downs and handed off to the relief air attack. We proceeded back to The designated base, all ops normal except for the faulty reading of the right fuel/use gauge. Landed safely, notified UAM and Dispatch that aircraft was unavailable due to gauge failure.</t>
+  </si>
+  <si>
+    <t>On the 2nd load of the morning, with the 2nd stick of rappellers, the engine fuel pump caution light came on.  The indicator light came on while the rappellers were on the skids, ready to exit the aircraft.  The pilot notified the spotter after the rappellers were on the ground and off the ropes, due to the fact that there was no fluctuation in fuel pressure.  The spotter disconnected ropes, closed doors and returned to the helipad.  Helicopter was then shutdown for inspection.</t>
+  </si>
+  <si>
+    <t>After refueling in Ely Nevada, XXX was enroute back to Battle Mountain Nevada.  Two minutes outside of Battle Mountain the pilot and I noticed the aroma of fuel.  Upon landing in Battle Mountain, we were in the process of parking the aircraft and noticed a fuel leak on the right side engine.  The pilot shut down the aircraft and made his inspections.  The problem appeared to be a broken fuel line.  The pilot then made calls to his company and mechanics.  I notified Battle Mountain Dispatch, WGBCC and Boise Smokejumpers Duty Officer.  Returned to service 7/1/03.  All repairs done at 0800.</t>
+  </si>
+  <si>
+    <t>As we were coming in to the LZ, one of the crew members on the ground noticed something leaking by the fuel tank. Once we landed and shut the helicopter down the pilot came and examined the leak. He said it was for sure fuel and we needed to find out where it was coming from. The pilot looked into the engine a little more and found out it was leaking between the electric fuel shut off valve. The pilot pressurized the system with the boost pumps and could not recreate the leak. He returned to base without the helitack crew.</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>transmission</t>
+  </si>
+  <si>
+    <t>white smoke come</t>
+  </si>
+  <si>
+    <t>generator</t>
+  </si>
+  <si>
+    <t>[33, 41, 50]</t>
+  </si>
+  <si>
+    <t>[7, 11, 59, 65, 69]</t>
+  </si>
+  <si>
+    <t>[29, 83]</t>
+  </si>
+  <si>
+    <t>[7, 88]</t>
+  </si>
+  <si>
+    <t>[73, 82, 85]</t>
+  </si>
+  <si>
+    <t>[8, 14, 67, 71, 97]</t>
+  </si>
+  <si>
+    <t>[55, 80, 83, 97]</t>
+  </si>
+  <si>
+    <t>[21, 43, 82]</t>
+  </si>
+  <si>
+    <t>[25, 41]</t>
+  </si>
+  <si>
+    <t>[13, 83]</t>
+  </si>
+  <si>
+    <t>[2, 8, 50, 88]</t>
+  </si>
+  <si>
+    <t>[8, 11, 41]</t>
+  </si>
+  <si>
+    <t>[3, 14, 23, 69, 97]</t>
+  </si>
+  <si>
+    <t>[53, 67, 82]</t>
+  </si>
+  <si>
+    <t>[80, 93]</t>
+  </si>
+  <si>
+    <t>[24, 74]</t>
+  </si>
+  <si>
+    <t>[50, 53, 58, 85]</t>
+  </si>
+  <si>
+    <t>[64, 67, 68, 80]</t>
+  </si>
+  <si>
+    <t>[7, 23, 43, 97]</t>
+  </si>
+  <si>
+    <t>[50, 80]</t>
+  </si>
+  <si>
+    <t>[11, 22, 58, 68, 97]</t>
+  </si>
+  <si>
+    <t>[63, 83]</t>
+  </si>
+  <si>
+    <t>[3, 41, 53, 97]</t>
+  </si>
+  <si>
+    <t>[8, 53, 67]</t>
+  </si>
+  <si>
+    <t>[41, 67, 88]</t>
+  </si>
+  <si>
+    <t>[50, 41]</t>
+  </si>
+  <si>
+    <t>[8, 97]</t>
+  </si>
+  <si>
+    <t>[83, 97]</t>
+  </si>
+  <si>
+    <t>[41]</t>
+  </si>
+  <si>
+    <t>[50, 8]</t>
+  </si>
+  <si>
+    <t>[8, 41]</t>
+  </si>
+  <si>
+    <t>[97]</t>
+  </si>
+  <si>
+    <t>[50]</t>
+  </si>
+  <si>
+    <t>[64]</t>
+  </si>
+  <si>
+    <t>[41, 97]</t>
+  </si>
+  <si>
+    <t>00-0509</t>
+  </si>
+  <si>
+    <t>Subject:  SAFECOM - Canadian Bird Dog#52,           Left Engine Failure.At approximately 1100 hours MDT Canadian Bird Dog#52, a Turbo Commander, departed Miles City, Montana for Helena, MT.  After reaching cruising altitude of 12,500 feet westbound, and 25 minutes out of Miles City, the left engine suddenly lost power and went to auto feather.  There were no prior indications (instrumentation) that there was a problem developing.  After a cool down period of approximately 2 minutes, and attempt to restart the engine was made but immediately aborted due to no indication of oil pressure.The aircraft was under FS flight following with Lewistown as Billings could not be raised.  Flight following and position reports were also conveyed to Helena on FS nets.The aircraft had no difficulty maintaining altitude and was operating in CAVU conditions.  The flight crew made a judgement call to continue on to Missoula where they had maintenance support even though it was somewhat further than Helena where the logistics of repair would be difficult.  This decision was based on what the flight crew believed to be inpracticablein given the circumstances of clear air, no problems in maintaining altitude, other available landing places along the route, and the availability of maintenance support in Missoula.Bird Dog #52 continued west at 12,500 feet MSL with no further difficulties, other than reduced airspeed, and maintained visuals on airports and landing area's they could reach if problems developed with the right engine.Landing was affected in Missoula at near 1200 hours where they taxied to Northstar Aviation and met with their maintenance team.  The cowling was removed, screens pulled showing a lot of evidence of metal particle, i.e., steel and brass.  The engine had failed and required an engine change.USDA Forest Service LiaisonCanadian Airtanker Deployment</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>[8, 14, 62, 80, 82]</t>
+  </si>
+  <si>
+    <t>07-0629</t>
+  </si>
+  <si>
     <t>03-0668</t>
   </si>
   <si>
-    <t>20-0256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At 1646 local time, two Panavia Tornado fighter jets passed through the Bear Fire TFR at low level (&lt;500 feet AGL) at a high rate of speed (&gt;250 knots estimated) travelling west to east. The two jets were painted in a dark gray paint scheme much darker than the USAF gray paint. Air attack was just entering the area. Ground personnel including the AOBD and team ATGS witnessed the intrusion from Bear ICP which was overflown by the trailing jet in the pair. The Bear Fire was covered at the time by NOTAM Number : FDC 6/0867 . </t>
-  </si>
-  <si>
-    <t>On July 8 2016 19:10 a Temporary Flight Restriction {TFR} intrusion occurred on the XXX Fire near Pine Valley Utah involving an Unmanned Aircraft System {UAS} or drone. This TFR intrusion resulted in a near collision with Air Attack XXX. XXX was at an altitude of 11,000 feet when they passed the drone 30 feet off the right wing of the plane. The incident occurred on the XXX Fire at approximately LAT/LONG 37 23 .104 113 31.149. Geographical location of Lloyds canyon and Forsythe Canyon on the Pine Valley Mountain range. This is the forth confirmed UAS intrusion on this fire.</t>
-  </si>
-  <si>
-    <t>At approximately 1444 on 7/31/95 the incident commander on the Pilot Fire (X-051) called Elko Interagency Dispatch Center and reported to the aircraft desk that five jets flew directly over their fire at an elevation of 1000 feet AGL and below.  We had a TFR issued to us for this area notam #5/3745.  This was a sensitive area as it was in a MOA and on the edge of a restricted area so we made ample notification both by phone and fax to both the FAA and the military unit responsible for the scheduling of the air space.  I called the Hill Command Post and spoke with the supervisor who said that they had some Air Force Reserve jets flying in the area they were briefed on the TFR in effect for the fire.  He said he would make an investigation and submit a report to the BLM State Aviation Manager.  It was fortunate that the two helicopters doing crew shuttles and bucket work on this fire were both on the ground getting ready to take off at the time of the intrusion.  The jets were flying below some of the crews working the ridges around the fire.  This type of incident has serious potential and is an on going problem with the military.</t>
-  </si>
-  <si>
-    <t>A TFR 91.137 violation was reported by helibase manager and helicopter NXXX.  A yellow SuperCub landed at Spanish Fork Airport (U77) and was ingreetedin by the ASGS for Type 1 Team.  I asked the pilot if he was flying over Payson Canyon and Walker Flats.  He admitted he was, but when he saw the helicopter he left the vicinity.  He further stated that he thought the fire was out.  I asked him if he circled over Payson Helibase and he said no, it was a white Husky.  I then asked the NYYYY pilot if he had checked the NOTAMS for TFR's.  He said no, he had not checked any NOTAMS.  I then stated that it was required the myself, as the ASGS, to file a SAFECOM for the incident.  The pilot said inFine, notify the FAAin, inBring 'em on!in.  I further stated that TFRs are in place for your safety, and the safety of fire aviation personnel, both in the air and on the ground.  He then proceeded to turn and walk away.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At 1751, MDC called and told me T-xx was en route from WYS to the incident, but that the fire had cancelled them. They wanted HLN aircraft to call T-xx and have him go directly to MSO instead of to the incident. AFF showed T-xx just SW of HLN. I called him on National Flight Following - no response at 1752. Tried again, 1753 - no response. 1753 - AIR GUARD contact attempted. No response. 1754, Tried contact on National Flight Following and again on AIR GUARD - no response. Icon went red on Automated Flight Following (AFF) screen. 1757, tried AIR GUARD again. No response. Called the HLN Tower. They had not seen T-xx in the skies (HLN tower does not have radar). A leadplane tried to raise him on NFF and on 125.125 (receiving incident''s Air-Air). I told Leadplane that the last point I had him on AFF was at 1739 (note time there - it is now 1758 on the clock), and relayed the last known position check: lat/long, heading 337 degrees @ 247 mph. Had MDC on the phone (to check the status of T-xx as far as they knew). They reported T-xx was ''yellow'' on their screen - relayed to leadplane. Moments later, MDC reported he''d gone ''red'' on her screen too. Relayed to Leadplane. Moments later, the lead successfully established contact with the tanker, who reported he was almost to the fire. HDC dispatcher checked with our Forest Aviation Officer, the GACC a/c desk (NRCC), neighboring dispatch center involved (MDC), as well as my center manager (HDC). All suggested a Safecom be filed for a number of related reasons, all centering on the fact that Air Guard is to be monitored at all times in aircraft, even when said a/c are employing Automated Flight Following. </t>
-  </si>
-  <si>
-    <t>May 16, 2001During flight operations over the Hurst Hammock fire the air attack pilot and the ATGS observed an intruder helicopter at their altitude (2000 ft MSL).  Sudden maneuvering was required to avoid collision.  The intruder aircraft then descended to 1500 ft and into the path of the lead plane.  The lead plane pilot then maneuvered to avoid collision and contacted ARTCC and asked if they were working a helicopter in the vicinity of the TFR over the fire.  ARTCC stated that they were not.  Lead maintained visual contact with the intruder aircraft and tanker operations were suspended until the intruder departed.  The aircraft maneuvered unpredictably in the vicinity of the fire, following the participating aircraft.  Positive identification was made that the intruder was a media helicopter and it was determined that he/she was maneuvering to photograph firefighting operations.  At one point the intruder departed the fire to film a fire-fighting helicopter dip water and then he/she chased the firefighting helo at the same altitude to the drop site.  All fire-fighting operations were ceased and the intruder departed.  Lead followed the intruder to class C airspace (approximately 2 mile to the East) and ensured that approach control had radar contact with the intruder aircraft.  Lead then coordinated with the fire and ATC to return to Pensacola Regional Airport to meet with the ARTCC supervisor.</t>
-  </si>
-  <si>
-    <t>After arriving to Cascade, ID from completing a mission on the bolder creek fire, the pilot and myself were advised that a potential hail storm was moving into the area. After refueling in Cascade to potentially fly to Boise, our alternate landing base, we received a mission from Cascade ID BOF to deliver food to the bolder creek fire. After discussing the incoming weather with the pilot, we decided we could complete the mission as it would take us out of the area, away from tracking storm, and allow us to circum navigate to Boise from the east/southeast. After the cargo mission was completed, we flight followed with Boise dispatch and asked for a weather update for the Ola helibase, our originally destination. They advised us of the same storm and suggested we not fly to Ola helibase. After discussing this with the pilot, we both concurred that the best course of action would be to continue to circumnavigate the storm to the east/southeast and continue to Boise. As we continued to circumnavigate the storm, we received an inflight weather briefing advising us of the storm tracking over the Ola helibase/Cascade area. During this time the weather was bumpy, there was no precipitation, and the visibility was 8-10 miles. About 40 miles out from Boise, we had a sudden on set of heavy rain. The exact words out of my mouth were “I hope that’s not hail,” and no later then finishing that sentence did we get hit by hail. The pilot immediately maneuvered the aircraft to the east and to a lower altitude, we continued to receive heavy rain for about another 15 -30 seconds before it ended. The whole incident lasted about a minute, from onset of rain to getting out of the hail. The flight continued to be bumpy but no other forms of precipitation was encountered for the rest of the flight. The first noticeable damage to the aircraft was the broken bubble window on the left door of the aircraft. After landing at Boise airport, the pilot, mechanic, and crew looked over the aircraft for damage. Damage to the aircraft consisted of the broken bubble window, divots in the skin on the nose, primarily isolated on the batter hatch cover, minor divots on the horizontal stabilizers leading edge, and divots on the upper vertical stabilizer. I notified my COR and Boise dispatch of what occurred. The pilot notified the company and further inspections by the OAS AMD’s will take place before becoming available for fire assignment.</t>
-  </si>
-  <si>
-    <t>On August 21st while returning from a recon of the Williams Butte fire on a Type 3 helicopter assigned to the fire, we spotted a jump ship flying up valley over the Foster Helibase. Immediately following, we saw a parachute in the trees below and another chute in the air at about 11 o’clock ahead. The pilot took immediate action turning to our right to avoid any additional conflict with the jumpers. Our flight path between Foster Helibase and the Williams Butte Fire was in constant use by as many as 11 helicopters on that date. The Williams Butte Fire had 4 type 1’s, 4 type 2’s, and 3 type 3’s. No communications were made by Wenatchee Dispatch (CWICC), the Smokejumper Base (NCSB), on a victor frequency by the jumpship to Foster helibase regarding the NCSB mission. Corrective Action: When a team is managing an incident on a Forest or other jurisdiction, close communication must be maintained between that jurisdiction’s aviation resources and the incident. Local jurisdiction on Initial Attack activities in the flight path of IMT aviation activities must be closely monitored. Frequencies need to be shared and commo exercised to ensure all aircraft are aware of others in the area. Somkejumpers should be assured that no other aircraft are in the same airspace</t>
-  </si>
-  <si>
-    <t>While enroute to the Duke Fire and West of Midland Texas the pilot tried to adjust the pitch on the {{{{{#}}}}}2 engine prop. The prop control failed at 2200 rpm. The pilot made the decision to return to Midland International Airfield to have the prop control checked. He then contacted the company mechanic who was enroute to meet the A/C in Midland. The mechanic found a broken wire at a solder point.</t>
-  </si>
-  <si>
-    <t>On July 20th at approximately 0916 air attack departed Redmond Tanker base to respond to Incident #0521 with pilot, air attack trainee and air attack instructor on board. Immediately after take-off, pilot in command informed air attack that we have a mechanical problem and we are returning to Redmond. After landing pilot informed air attack that the fuel flow gauge was inoperable and that he will take the plane to the local A&amp;P mechanic to inspect faulty gauge.</t>
+    <t>During departure with 2 nets weighing 1600lbs, NXXX did not gain enough altitude to clear the canopy north of the Helibase. Load calc at 7000 @ 25 was 1825lbs. Manager told pilot to return to cargo and place loads on deck, pilot did so. NXXXX than took different loads weighing less with no problem. Upon completion of mission the pilot realized he turned the pitch control setting (dial) 30 degrees in the wrong direction. He set it at -30 instead of +30. This caused the ship to show itself redlining while it still had enough power for the load.</t>
   </si>
   <si>
     <t>N1048Y was doing fire suppression bucket work on the Togo fire.  Ship was dipping water out of a 15,000 gallon heli-well with a Griffith bucket, at an established dip site about 2 miles south-east of the fire.  Ship had dipped out of the heli-well, and was beginning to depart the dip site when winds changed unfavorably. Consequently, ship had insufficent power/lift, so pilot dumped part of the water cargo.  The bucket came near (6-8 feet) to hitting ground as pilot was trying to regain lift, but the bucket did not hit ground.  The bucket was still part full (1/3 to 1/2) when pilot regained sufficient lift.  With a partially loaded bucket, pilot maneuvered ship back to the heli-well to again fill to capacity.  As pilot was positioning bucket over the heli-well to top it off to capacity, the partially loaded bucket came down on the rim of the heli-well.  The weight of the rigid bucket and water cargo buckled two panels of the heli-well, bending the panels inward, causing a slight overhang in the dip tank diameter.  Resulting damage may require replacing these two panels, if they cannot be bent back into shape.Note that damage only occurred to the heli-well, with no damage to N1048Y ship.</t>
   </si>
   <si>
-    <t>We, the smokejumper aircraft took runway 24 for takeoff and made our departure call on UNICOM.  Helitack helicopter said on UNICOM they were lifting from the ramp and would hold for our takeoff.  We started our takeoff roll and the helicopter departed to the north crossing runway 24 approximately 4,000 feet in front of us.  We called on UNICOM that we were already on our takeoff roll and the helicopter stated that they had us in sight.</t>
-  </si>
-  <si>
-    <t>notam</t>
-  </si>
-  <si>
-    <t>temporary flight restriction</t>
-  </si>
-  <si>
-    <t>confusion</t>
-  </si>
-  <si>
-    <t>collision</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> maneuver</t>
-  </si>
-  <si>
-    <t>airfield</t>
-  </si>
-  <si>
-    <t>trainee</t>
-  </si>
-  <si>
-    <t>[3, 7, 13, 39]</t>
-  </si>
-  <si>
-    <t>[7, 37]</t>
-  </si>
-  <si>
-    <t>[7, 14, 29, 39, 97]</t>
-  </si>
-  <si>
-    <t>[7, 14, 15, 24, 97]</t>
-  </si>
-  <si>
-    <t>[38, 65]</t>
-  </si>
-  <si>
-    <t>[27, 39, 58, 69, 80]</t>
-  </si>
-  <si>
-    <t>[36, 80, 88, 92]</t>
-  </si>
-  <si>
-    <t>[31, 34, 69, 72]</t>
-  </si>
-  <si>
-    <t>[8, 22, 51, 92]</t>
-  </si>
-  <si>
-    <t>[8, 11]</t>
+    <t>overload</t>
+  </si>
+  <si>
+    <t>load calc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> weight </t>
+  </si>
+  <si>
+    <t>[3, 63, 82]</t>
   </si>
   <si>
     <t>[3, 7, 63, 80, 88]</t>
   </si>
   <si>
-    <t>[7, 8, 82]</t>
-  </si>
-  <si>
-    <t>[39, 7]</t>
-  </si>
-  <si>
-    <t>[37, 7]</t>
-  </si>
-  <si>
-    <t>[65]</t>
-  </si>
-  <si>
-    <t>[27, 39, 69, 80]</t>
-  </si>
-  <si>
-    <t>[69, 31]</t>
-  </si>
-  <si>
-    <t>[7, 80]</t>
-  </si>
-  <si>
-    <t>97-0124</t>
-  </si>
-  <si>
-    <t>I was air attack Group Supervisor (AA6) flying over fire B441 talking to jump 17. We assigned them an altitude to come over the fire for a streamer pass while the air tanker was reloading. Jump17 finished his streamer run and started to climb without talking to us. We had jump 17 in sight at all times. Jay requested the pilot to notify air attack prior to changing elevations.</t>
-  </si>
-  <si>
-    <t>smokejumper</t>
-  </si>
-  <si>
-    <t>streamer</t>
-  </si>
-  <si>
-    <t>[34]</t>
-  </si>
-  <si>
-    <t>20-0733</t>
-  </si>
-  <si>
-    <t>01-0465</t>
-  </si>
-  <si>
-    <t>Approaching SBD for a load and return to the XXXXX Fire, TXXX had a bird strike on the underside of the right wing with damage to the outer flap tab hinge fairing. There was no damage to the actual mechanism.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While flying recon on the Plumas NF I was about to call dispatch with adirection change when I noticed that radio #3 had gone off. I then triedto talk to the pilot and was unable to. I got his attention and then wenoticed that radio #2 had gone off. We then noticed the victor radio wasoff. We then started checking and found that the amp guage was showing adischarge. I called dispatch on my hand held radio and informed them thatwe lost the aircraft alternator and were in route to Quincy (Gansner)airport. The pilot turned off all other unnecessary electrical equipmentto save as much battery life as possibe. We were able to make a safe landing at Quincy airport even though we did not have any flaps. </t>
-  </si>
-  <si>
-    <t>flap</t>
-  </si>
-  <si>
-    <t>[2, 21, 23, 25]</t>
-  </si>
-  <si>
-    <t>[11, 14, 46, 74, 90]</t>
-  </si>
-  <si>
-    <t>[23]</t>
-  </si>
-  <si>
-    <t>04-0341</t>
-  </si>
-  <si>
-    <t>18-0517</t>
-  </si>
-  <si>
-    <t>05-0559</t>
-  </si>
-  <si>
-    <t>06-0519</t>
-  </si>
-  <si>
-    <t>15-0631</t>
-  </si>
-  <si>
-    <t>09-0269</t>
-  </si>
-  <si>
-    <t>01-0299</t>
-  </si>
-  <si>
-    <t>02-0566</t>
-  </si>
-  <si>
-    <t>16-0289</t>
-  </si>
-  <si>
-    <t>03-0497</t>
-  </si>
-  <si>
-    <t>16-0706</t>
-  </si>
-  <si>
-    <t>06-0331</t>
-  </si>
-  <si>
-    <t>08-0326</t>
-  </si>
-  <si>
-    <t>03-0781</t>
-  </si>
-  <si>
-    <t>00-0163</t>
-  </si>
-  <si>
-    <t>07-0833</t>
-  </si>
-  <si>
-    <t>11-0806</t>
-  </si>
-  <si>
-    <t>08-0578</t>
-  </si>
-  <si>
-    <t>11-0174</t>
-  </si>
-  <si>
-    <t>04-0434</t>
-  </si>
-  <si>
-    <t>02-0758</t>
-  </si>
-  <si>
-    <t>07-0608</t>
-  </si>
-  <si>
-    <t>16-0815</t>
-  </si>
-  <si>
-    <t>00-0698</t>
-  </si>
-  <si>
-    <t>13-0416</t>
-  </si>
-  <si>
-    <t>03-0192</t>
-  </si>
-  <si>
-    <t>03-1106</t>
-  </si>
-  <si>
-    <t>19-0126</t>
-  </si>
-  <si>
-    <t>After take-off, acft could not retract left main gear. Flight manual procedures were followed which directed the crew to lower the gear. A safe gear down and locked indication was displayed. Once a safe indication is indicated no further trouble shooting is allowed in flight. Flight engineer visually checked for safe indications thru inspection windows. Retardant was dumped at the fire site due to its proximity. Acft landed at IWA without incident.</t>
-  </si>
-  <si>
-    <t>WADNR UH-1H xxxxx was dispatched to the Ryegrass Coulee fire in the vicinity of Vantage, WA at 0730, 07/10/2018. xxxxx flew one fuel cycle and then landed at the helibase/ fuel site for a fuel and hold. At approximately 11:00 Air Attack requested xxxxx for bucket work, while lifting to leave the helibase a chip detector and warning light activated. The pilot contacted air attack and informed him the aircraft would be down for maintenance. xxxxx set down at the helibase, contacted agency mechanics and went through the proper procedures to isolate and remedy the issue. After the appropriate steps were taken the agency mechanic cleared xxxxx for incident operations. The aircraft finished up the day and returned to ellensburg base with no further issues.</t>
-  </si>
-  <si>
-    <t>NXXXX was flying air attack on the Burnt River Complex, over incident 154, call dispatch with a report that they lost an engine and were going to try to fly back to Baker on a single engine. At the time of engine failure, they were 22 miles out of Baker. Maintained Contact with NXXXX throughout the flight to Baker. They were able maintain altitude and land safely @ Baker without incident.Contacted Forest Aviation Officer and vendor. Also requested emergency response at the Baker Airport.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilot failed to untie main rotor blades before start up. Pilot noticed that he did not untie at the same time he attempted to start engine. Immediately aborted start. Total time was approximately one second. Pilot untied blades and started helicopter. </t>
-  </si>
-  <si>
-    <t>Turbocharged 337 Cessna Skymaster pilot started the front engine without any problems. Attempted to start the rear engine but it would not start. The pilot followed other starting procedures as recommended by the owner but without success. The company mechanic was contacted and it was determined the fuel pump had failed. At 1900 aircraft was unavailable.</t>
-  </si>
-  <si>
-    <t>The helicopter departed CKX and upon arrival at the fire several warning lights{particle separator, rpm, engine 1 out, and engine 2 out} became illuminated. The pilot immediately began maneuvering toward the nearest landing spot, but all other gauges read normally &amp; we could still hear the engines running, so we returned to CKX. Enroute all warning lights except one paticle separator light went out. The helicopter landed without incident and the mechanic, IC, and AMD maintenance inspector were notified of the problem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanker 14 was responding to the Silent fire (RRU-47545) and developed an oil leak at the number three engine.  Tanker 14 then returned to SBD Tanker Base.  After inspection it was noted that an oil line was loose.  Oil line tightened, and aircraft put into contract availability.Gerry Burney notified and approved. </t>
-  </si>
-  <si>
-    <t>Dispatched as initial attack to a fire. Started acft engine and all appeared normal until the gas produced tachometer (N) went through 40%,I released the started switch and the engine flamed out, all indicationsof the start up to that point were normal.I contacted the DNR mechanic supervisor and he thought that perhaps thethrottle was rolled back a little to far off the detent to continuestarting sequence. Also, he said that there was the possibility of something similar to a vapor lock (air bubble) may have occured.I attempted a restart at his request and everything performednormally.After the restart Helicopter Manager contacted DNR Mechanic Supervisor once again to obtain clearance to resume operations. Clearancewas granted by mechanic.Helibase Manager contacted USFS to discuss start difficulties. After a conference between FS and DNR representatives Rotor 338 was fullyoperational.</t>
-  </si>
-  <si>
-    <t>We left the Airtanker Base at 1046 to do a requested Recon mission over the Galeuros and the Chirichua Ranges. We finished the Galeuros and were at the Dos Cabezas Mountains enroute to the Chrichuas when the pilot alerted me that the right engine tachometer needle was falling. I looked at the gauges and was a slow descent to 0 rpms. The pilot checked all the other gauges and they were all in the green. I visually looked at the right engine which showed no outward abnormalities. The pilot said that the xxx airport was close and we agreed that we would head the aircraft to there. Once that decision was made I called Dispatch and informed them that we had a malfunction with one of the gauges but operations were good and we were proceeding to the airport. We landed and went to maintenance facilities. Once parked, I notified Dispatch we were safe on the ground, and then notified management, and the OAS Maintenance Inspector of the situation.</t>
-  </si>
-  <si>
-    <t>Assign to lighting recon flight at 1050 Hrs. At end of planned flight, pilot noted right engine HP would not come back below 250 HP. Made landing at SBA at 1200 hrs. Mechanic worked on aircraft with test flight being OK. SZ Aviation Maintenace Inspector was called and aircraft was return to availability status. At 1549 hrs response to SB co fire #5209. 1615 hrs right engine would not come back below 250 HP, landed at SBA at 1641 hrs. SZ Maintenance Inspector was called on the situation, log book entry will be fax to Jerry when aircraft is returned to availability status.</t>
-  </si>
-  <si>
-    <t>Bird strike on engine number 1 noticed by crew chief on walk-around and discontinued reload for fire. Operations shut down. Pilots did not notice any engine concerns. Do not know the altitude, coordinates of strike or time it happened.</t>
-  </si>
-  <si>
-    <t>Aborted start on fire dispatch. Pilot attempted to start the aircraft with the battery cart. Initial voltage OK, upon spooling engine pilot noted excessive voltage drop. Not enough battery voltage to continue start. Pilot verified condition - low NG speed. Pilot followed proper procedure and correctly aborted start without any damage to aircraft.</t>
-  </si>
-  <si>
-    <t>On 6.16.2008 at approximately 1730 airtanker Lockheed P2 Neptune tail number xx was in the blocks and was under supervision of fixed wing parking tender. Aircraft had just completed loading retardent, loading crew was cleared, and airtanker was given permission to start engines. Pilot signaled to FWPT to clear him to start engine {#}2, clearance was given. As engine {#}2 was starting the suction from the propeller sucked a collapsible fabric and wire sunscreen out of the copilots window. The sunscreen disappeared with the engine blowby smoke behind the aircraft. Clearance was asked and given to start engine {#}1. As engine {#}1 cleared of smoke the sunscreen reappeared and swirled with the engine turbulence, threatening to be sucked into engine air intakes of both engine {#}1 and engine {#}2. Parking tender gave the pilot an emergency immediate cut-engine signal. Pilot responded immediately. The sunscreen fell to the ground in front of engine {#}2 and was retrieved by FWPT.</t>
-  </si>
-  <si>
-    <t>Pilot reported low fuel pressure indicator illuminated on the number 4 engine while over fire preparing for a drop.  PIC elected not to drop and returned to MFR for repairs.   Aircraft landed without incident.</t>
-  </si>
-  <si>
-    <t>After landing at KGCN for fuel the cowl of the right engine was observed to have a coating of grease that appeared to have come from the area of the propeller hub.  The aircraft had returned from spending 3.5 hours conducting leadplane activities on the Outlet Fire.</t>
-  </si>
-  <si>
-    <t>On takeoff fuel pressure gauges read normal, 10 minutes into the flight the right engine fuel pressure gauge was reading high. So the pilot decided to terminate the flight on return to the airport. aircraft was placed into contract unavailable status. Company maintenance chief decided to replace the right engine driven fuel pump and do the scheduled 50 hr inspection at the same time. During the inspection the mechanic found the right engine driven hydraulic pump had failed. Hydraulic pump was replaced 8/8/07.</t>
-  </si>
-  <si>
-    <t>Aircraft had an ‘Engine’ chip light starting up at Spring Creek Helibase and immediately shut back down.</t>
-  </si>
-  <si>
-    <t>Pilots heard a noise in the aft rotor system and a vibration upon returning to helibase, the aircraft was shut down while it was inspected by the mechanics, after inspection the mechanics advised the manager that the aircraft was out of service. There was a scheduled maintance to change the aft transmission the next day. The aircraft was made unavailable for the remainder of the afternoon.</t>
-  </si>
-  <si>
-    <t>After flying 4.6 hours on the Rockhouse Fire a transmission oil pressure warning light illuminated but transmission pressure indications were normal. Warning light is turned on by two pressure switches, one plumbed to the forward transmission and one on the aft transmission. This occured upon startup after refueling.</t>
-  </si>
-  <si>
-    <t>While performing large fire support on the Incident, an oil leak was discovered. Oil was dripping out of the valve and pooling in the carriage. 7/2/04 This narrative is an ammendment to the SAFECOM filed for this helicopter on 6/30/2004 (submitted by Helicopter Manager). Narrative: While performing a longline hookup I noticed a couple of puffs of white smoke come out of the left side cowl. I immediately had the pilot land and shut down the A/C. Upon inspection a leak was discovered on the breather tube flange that returns excess oil to the exhaust to be burned off. After discussion with the pilot it was determined that the helicopter needed to be repaired and that it would become un-available. I discussed the problem with my HELB(t) and we decided one of us needed to return to helibase to begin working on getting the helicopter repaired. The HELB(t) flew to helibase with the A/C. While I had confidence in the judgement of the pilot that the leak did not jeopardize the safety of the flight, I should have not asked the HELB(t) to fly down with the ship. This was a MAJOR oversight on my part. Policy dictates that when a problem is discovered that the A/C becomes unavailable @ that point. Once unavailable NO government personnel should be transported until the A/C is returned to service by an appropriate maintenance inspector.</t>
-  </si>
-  <si>
-    <t>Pilot reported low torque, inspection revealed fuel stream from P1 port in the inlet.  P1 bellows cracked.  Removed fuel control, installed fuel control with Allied Signal 1330.2 manual, chapter 73.  Put back into contract availability by the Regional Aviation Maintenance Inspector.</t>
-  </si>
-  <si>
-    <t>Pilot stated that he had an Engine/Airframe/Oil Filter Chip Light while on a Initial Attack mission. Pilot landed the aircraft and checked the chip plug and found very light fuzz on the plug. Pilot is an A/P mechanic.</t>
-  </si>
-  <si>
-    <t>Pilot attempted start of aircraft with main rotor tie down still in place. It was recognized prior to light off of engine by crew followed by immediate shut-down of starter generator.</t>
-  </si>
-  <si>
-    <t>The helicopter was getting ready to start and depart for the project site.  The pilot tried to start the helicopter and it did not.  He tried a second time and was uncessful.  He motioned to the fuel truck driver to bring out the APU and hook it up.  The pilot then tried a thrid time and determined the ignitor had gone bad.  Pilot called the office and had a mechanic dispatched.  A maintenance inspector was contacted and he said that in order to put the helicopter back in service the ignitor would have to be replaced and make a entry in the log book.</t>
-  </si>
-  <si>
-    <t>On duty at 0900, this would be day 3 for mission over site for the Fire within the Zone. At 0920 we did a aircraft systems check before departure and all ops normal, at 0941 we departed airport for the incident with: two souls, 4 1/2 hours of fuel, on a heading 214 degree`s for a 22 min, ETE to the incident. at this point all operations were normal and during this time was calculating the times for relief air attack over the fire. At 12 miles from incident contacted IA helicopter on victor for entry into the airspace of the fire TFR in place, we proceeded into the area at 10,000 dropping to 9,000 ft all ops normal. Established ground contact with operations and IC for operational update and reconfiguration of divisions from the previous day. ordered up fixed wing aircraft: 2 seats for retardant line across the west flank of the fire towards the head. All ops normal. about 3 3/4 hours into the flight the pilot noticed that the fuel use gauge that reads pounds of fuel used per sec was not operational for the right engine, the engine never quit running. The pilot re-calculated the weights and measures for passenger, fuel and cargo, determined that it was either a gauge failure or sending unit and we had plenty of fuel. At 1348 air attack relief was over the fire, did a brief on the tactics and division break downs and handed off to the relief air attack. We proceeded back to The designated base, all ops normal except for the faulty reading of the right fuel/use gauge. Landed safely, notified UAM and Dispatch that aircraft was unavailable due to gauge failure.</t>
-  </si>
-  <si>
-    <t>On the 2nd load of the morning, with the 2nd stick of rappellers, the engine fuel pump caution light came on.  The indicator light came on while the rappellers were on the skids, ready to exit the aircraft.  The pilot notified the spotter after the rappellers were on the ground and off the ropes, due to the fact that there was no fluctuation in fuel pressure.  The spotter disconnected ropes, closed doors and returned to the helipad.  Helicopter was then shutdown for inspection.</t>
-  </si>
-  <si>
-    <t>After refueling in Ely Nevada, XXX was enroute back to Battle Mountain Nevada.  Two minutes outside of Battle Mountain the pilot and I noticed the aroma of fuel.  Upon landing in Battle Mountain, we were in the process of parking the aircraft and noticed a fuel leak on the right side engine.  The pilot shut down the aircraft and made his inspections.  The problem appeared to be a broken fuel line.  The pilot then made calls to his company and mechanics.  I notified Battle Mountain Dispatch, WGBCC and Boise Smokejumpers Duty Officer.  Returned to service 7/1/03.  All repairs done at 0800.</t>
-  </si>
-  <si>
-    <t>As we were coming in to the LZ, one of the crew members on the ground noticed something leaking by the fuel tank. Once we landed and shut the helicopter down the pilot came and examined the leak. He said it was for sure fuel and we needed to find out where it was coming from. The pilot looked into the engine a little more and found out it was leaking between the electric fuel shut off valve. The pilot pressurized the system with the boost pumps and could not recreate the leak. He returned to base without the helitack crew.</t>
-  </si>
-  <si>
-    <t>engine</t>
-  </si>
-  <si>
-    <t>transmission</t>
-  </si>
-  <si>
-    <t>white smoke come</t>
-  </si>
-  <si>
-    <t>generator</t>
-  </si>
-  <si>
-    <t>[21, 30, 69, 83]</t>
-  </si>
-  <si>
-    <t>[33, 41, 50]</t>
-  </si>
-  <si>
-    <t>[7, 11, 59, 65, 69]</t>
-  </si>
-  <si>
-    <t>[29, 83]</t>
-  </si>
-  <si>
-    <t>[7, 88]</t>
-  </si>
-  <si>
-    <t>[73, 82, 85]</t>
-  </si>
-  <si>
-    <t>[8, 14, 67, 71, 97]</t>
-  </si>
-  <si>
-    <t>[55, 80, 83, 97]</t>
-  </si>
-  <si>
-    <t>[21, 43, 82]</t>
-  </si>
-  <si>
-    <t>[3, 69, 80]</t>
-  </si>
-  <si>
-    <t>[25, 41]</t>
-  </si>
-  <si>
-    <t>[13, 83]</t>
-  </si>
-  <si>
-    <t>[2, 8, 50, 88]</t>
-  </si>
-  <si>
-    <t>[8, 11, 41]</t>
-  </si>
-  <si>
-    <t>[3, 14, 23, 69, 97]</t>
-  </si>
-  <si>
-    <t>[53, 67, 82]</t>
-  </si>
-  <si>
-    <t>[80, 93]</t>
-  </si>
-  <si>
-    <t>[24, 74]</t>
-  </si>
-  <si>
-    <t>[50, 53, 58, 85]</t>
-  </si>
-  <si>
-    <t>[64, 67, 68, 80]</t>
-  </si>
-  <si>
-    <t>[7, 23, 43, 97]</t>
-  </si>
-  <si>
-    <t>[50, 80]</t>
-  </si>
-  <si>
-    <t>[11, 22, 58, 68, 97]</t>
-  </si>
-  <si>
-    <t>[63, 83]</t>
-  </si>
-  <si>
-    <t>[3, 41, 53, 97]</t>
-  </si>
-  <si>
-    <t>[8, 53, 67]</t>
-  </si>
-  <si>
-    <t>[41, 67, 88]</t>
-  </si>
-  <si>
-    <t>[50, 41]</t>
-  </si>
-  <si>
-    <t>[8, 97]</t>
-  </si>
-  <si>
-    <t>[83, 97]</t>
-  </si>
-  <si>
-    <t>[41]</t>
-  </si>
-  <si>
-    <t>[50, 8]</t>
-  </si>
-  <si>
-    <t>[8, 41]</t>
-  </si>
-  <si>
-    <t>[97]</t>
-  </si>
-  <si>
-    <t>[50]</t>
-  </si>
-  <si>
-    <t>[64]</t>
-  </si>
-  <si>
-    <t>[41, 97]</t>
-  </si>
-  <si>
-    <t>00-0509</t>
-  </si>
-  <si>
-    <t>Subject:  SAFECOM - Canadian Bird Dog#52,           Left Engine Failure.At approximately 1100 hours MDT Canadian Bird Dog#52, a Turbo Commander, departed Miles City, Montana for Helena, MT.  After reaching cruising altitude of 12,500 feet westbound, and 25 minutes out of Miles City, the left engine suddenly lost power and went to auto feather.  There were no prior indications (instrumentation) that there was a problem developing.  After a cool down period of approximately 2 minutes, and attempt to restart the engine was made but immediately aborted due to no indication of oil pressure.The aircraft was under FS flight following with Lewistown as Billings could not be raised.  Flight following and position reports were also conveyed to Helena on FS nets.The aircraft had no difficulty maintaining altitude and was operating in CAVU conditions.  The flight crew made a judgement call to continue on to Missoula where they had maintenance support even though it was somewhat further than Helena where the logistics of repair would be difficult.  This decision was based on what the flight crew believed to be inpracticablein given the circumstances of clear air, no problems in maintaining altitude, other available landing places along the route, and the availability of maintenance support in Missoula.Bird Dog #52 continued west at 12,500 feet MSL with no further difficulties, other than reduced airspeed, and maintained visuals on airports and landing area's they could reach if problems developed with the right engine.Landing was affected in Missoula at near 1200 hours where they taxied to Northstar Aviation and met with their maintenance team.  The cowling was removed, screens pulled showing a lot of evidence of metal particle, i.e., steel and brass.  The engine had failed and required an engine change.USDA Forest Service LiaisonCanadian Airtanker Deployment</t>
-  </si>
-  <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t>[8, 14, 62, 80, 82]</t>
-  </si>
-  <si>
-    <t>07-0629</t>
-  </si>
-  <si>
-    <t>During departure with 2 nets weighing 1600lbs, NXXX did not gain enough altitude to clear the canopy north of the Helibase. Load calc at 7000 @ 25 was 1825lbs. Manager told pilot to return to cargo and place loads on deck, pilot did so. NXXXX than took different loads weighing less with no problem. Upon completion of mission the pilot realized he turned the pitch control setting (dial) 30 degrees in the wrong direction. He set it at -30 instead of +30. This caused the ship to show itself redlining while it still had enough power for the load.</t>
-  </si>
-  <si>
-    <t>load calc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> weight </t>
-  </si>
-  <si>
-    <t>[3, 63, 82]</t>
-  </si>
-  <si>
     <t>[63]</t>
   </si>
   <si>
@@ -1558,15 +1567,30 @@
     <t>[56]</t>
   </si>
   <si>
+    <t>05-0739</t>
+  </si>
+  <si>
     <t>00-0573</t>
   </si>
   <si>
+    <t xml:space="preserve">Our helicopter and crew was dispatched to IA a fire on the north end of the District. Upon arrival we discovered 2 civilians near the heel of the fire, along with a vehicle inside the fire perimeter that had been consumed by fire. After landing near the two individuals, I asked them about the situation, I was informed that their vechicle had started the fire. I made the decision to fly them off the fire to the Carey airstrip without full PPE(except for flight helmets) because of several reasons:(1)they were in danger of being over-run by the fire,(2)they were experiencing health problems, probably due to dehydration and (3)they were in the middle of the desert without food, water, or transportation.  </t>
+  </si>
+  <si>
     <t xml:space="preserve">116 was enroute back from the fire to the helibase for water and noticed a 206-L3 flying 300-400' AGL just south of the helibase.  No evasive maneuvers were needed.  Helibase personnel recognized the L3 as a Globe medivac ship. </t>
   </si>
   <si>
+    <t>ems</t>
+  </si>
+  <si>
+    <t>[6, 68, 98]</t>
+  </si>
+  <si>
     <t>[7, 14, 69, 80, 97]</t>
   </si>
   <si>
+    <t>[98]</t>
+  </si>
+  <si>
     <t>13-0868</t>
   </si>
   <si>
@@ -1630,112 +1654,61 @@
     <t>[55, 55]</t>
   </si>
   <si>
-    <t>13-0415</t>
-  </si>
-  <si>
-    <t>14-0601</t>
-  </si>
-  <si>
-    <t>02-0619</t>
-  </si>
-  <si>
-    <t>13-0619</t>
-  </si>
-  <si>
-    <t>00-0689</t>
-  </si>
-  <si>
-    <t>13-0438</t>
-  </si>
-  <si>
-    <t>08-0212</t>
+    <t>03-0995</t>
+  </si>
+  <si>
+    <t>04-0654</t>
   </si>
   <si>
     <t>18-0633</t>
   </si>
   <si>
-    <t>02-1289</t>
-  </si>
-  <si>
     <t>08-0924</t>
   </si>
   <si>
-    <t>On July 1, at approximately 2000 while on approach for Designated base, the aircraft struck a bird. The impact occurred on the front center{nose}of the helicopter and the bird departed up and to the pilot side {left} of the windscreen. Damage to the nose cone includes 2 cracks thru the skin of the nose cone, each approximately 7 inches in length, one vertical on the left side of the impact area, and one horizontal crack across the bottom of the impact area, viewed from the perspective of one looking at the nose cone from the front of the aircraft. No other damage other than these cracks was noted. The bird species unknown, but did not seem to be particularly large for the split second it was observed before impact.</t>
-  </si>
-  <si>
-    <t>Aircraft had performed multiple crew shuttles as well as a cycle of bucket work on two fires that were in close proximity to each other. Aircraft set down for fuel at local IA helibase and was shut down preparing to shuttle additional FFTR’s into Fire. Helitack personnel opened right rear door to load gear and door dropped due to only being attached by the lower door pin. Upper door pin was missing. Helitack caught door preventing it from being damaged. How the pin became dislodged or when is unknown. Cause of the pin to become missing is also unknown, but previous inspections have revealed one of two ball bearings missing that could potentially allow for the pin to back its way out of the door hinge.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     HELICOPTER XXX, AN S-64 SKYCRANE WITH INTERNAL TANK ANDSNORKLE, WAS DOING WATER DROPS ON THE BOULDER FIRE ON 7/27/02.  UPONSHUTDOWN ON LAST SORTIE OF THE DAY, THE PILOT AND MAINTENANCE CREW CAMEOVER AND REPORTED A NEED TO REPLACE A DELAMINATING ROTOR BLADE.  THEREHAD BEEN NO STRIKE OR ACCIDENT REPORTED PRIOR.       AN INSPECTION OF THE BLADE REVEALED A 2inX4in PEEL BACK ON THE BOTTOMOF ONE ROTOR BLADE ABOUT ONE THIRD OF THE WAY DOWN FROM THE TIP. THE PEELTURNS OUTWARD AND LOOKS LIKE A inTEAR TO THE SHEETMETALin.  THE SPAR UNDERIT IS VISIBLE AND APPEARS UNDAMAGED.  THE BIMS READS WHITE, INDICATINGNO LOSS OF PRESSURE.  THE CREW REPORTED IT AS SOON AS IT WAS DISCOVERED,ABOUT 2030 HOURS.</t>
-  </si>
-  <si>
-    <t>During a routine preflight inspection in the morning 7/26, I noticed a divot in the left propeller. The divot was located on the leading edge, approximately 5 inches from the prop tip and was roughly the length of a penny in width and half a penny in depth. I grounded the aircraft until further notice and reported the discrepancy to my supervisor and the persons responsible for maintenance of the aircraft. I believe the damage was caused from a rock or bolt making contact with the prop during landing or taxi. A factor which likely contributed to the FOD damage was darkness, as I landed 20 minutes after sunset the previous night. Exacerbating the darkness factor are the lights in the Cedar City ATB light fixed wing parking area, which shine from the ground up, directly into the pilot````s eyes during taxi/parking operations. A parking tender was present, which helped. A factor which may have led to the FOD in the first place may have been the path used by vehicles between the main tanker base vehicle parking lot and the light fixed wing ramp. The path short cuts the paved route to the ramp via a loose gravel two track. See attached images for FOD damages and dirt path shortcut.</t>
-  </si>
-  <si>
-    <t>H534 was inbound to Mill Creek Helibase after a water dropping missison on the East Fire.  While landing the Pilot landed the helicoptors' snorkel toofar forward under neath the fixed tank.  The fixed tank has a 50 gallon fiberglass extension on it behind the standard 300 gallon steel tank.  The result was a horseshoe size crack on the fiberglass extension. A parking tender was in place at the time, but he was too for back and the skidswere above eye level.  Parking tender informed the manager of the incident.  The helicoptor manager informed the parking tender that he should of been a little bit closer, so he could see the position of the snorkel in regards to the fixed tank.  The tank was repared with no difficulty at all.  The Pilot also stated that he would pay more attention the the position of the snorkel while landing.</t>
-  </si>
-  <si>
-    <t>After a Ferry Flight lasting 30 minutes, and during post flight inspection performed by the mechanics, a blade delimitation {a bubble approximatly 8 inches long by 3 inches wide} was found at the underside and outer 1/4 of the right blade. The inspection revealed the delamination was due to what appeared to be a manufacture defect. The Pilot was consulted and reported no unusual or abnormal flight characteristics during the ferry flight. Mechanic informed the Helicopter Manager of the situation and made the aircraft unavailable.</t>
-  </si>
-  <si>
-    <t>While performing a routine maintenance inspection on the aircraft following a water dropping mission on the fire the mechanic discovered that the tail rotor box on the aircraft was cracked. The aircraft was made unavailable until a new tail rotor box could be installed.</t>
+    <t>06-1277</t>
+  </si>
+  <si>
+    <t>During preflight pilot found a crack in the exhaust cone         near the attachment clamp. The exhaust cone was removed          from service. Aircraft was unavailable.</t>
+  </si>
+  <si>
+    <t>After returning from the XXXXXXX Fire, the pilot fueled the aircraft and then proceeded to taxi across the runway to the Tanker Base. During the taxi, the right engine stalled. A restart was attempted and failed. Subsequent inspection revealed that 2-3 wires were burned and arced inside the engine compartment apparently from exposure to extreme heat from the turbocharger. On 7/28/2004 The wires were replaced and re-routed away from the turbocharger to prevent additional occurences. A test flight was attempted but the right engine mag test failed. Subsequent tests revealed that some spark plugs were fouled/replaced and the test flight was accomplished. Upon return from the flight the pilot opened the cowls for an inspection and discovered hot air coming from the side of the turbocharger waste gate (possibly the original cause of the burned wires). The FS Mechanic Inspector was notified and recommended a closer look at the exhaust components. It was found that the crack in the right engine turbo waste gate was adjcent to an old weld repair. Further inspection from the FS Mechanic revealed no heat shields installed and several repairs were evident on the existing exhaust parts.</t>
   </si>
   <si>
     <t>When T-XX was returning off the Bruneau fire PIC reported a bird strike. Upon landing in TWF, crew chief conducted an inspection. Bird remains were found on the 2nd right pylon. Crew Chief pulled the panel to ensure no damage. COR notified and COR Contacted AMI. No damage was found during inspection. Maintenance inspector returned aircraft returned to service @ 1530</t>
   </si>
   <si>
-    <t>Upon doing pre-use inspection I noticed fuel on the ground.  After looking closer, there was a leak on the fuel tank on the support/service trailer.  The leak was located on the lower right side of the tank.  A previous impact to the tank appeared to have created a crack that had rusted and a leak start.</t>
-  </si>
-  <si>
     <t>On assignment for the Lonesome Complex the aircraft was ordered up with a bucket. The Helicopter is equiped with a fixed tank under the exclusive-use National Helicopter contract and within section B-12 is necessary to have a variable capacity collapsible bucket as an addition or back-up with the fixed-tank helicopter. The contracted fixed-tank helicopter has along with it a FAST {Fire Attack Storm Tank} Bucket, manufactured by Absolute Fire Solutions, INC and distributed by Simplex MFG. While making a dip at the dip site, one of the purse string wires hooked underneath the bolts rubber stopper and nut on the metal frame; this resulting in the frame bending under the added stress to the frame itself rather than the anchor points as intended. The frame was bent in a twisting manor and the purse string wire had groves {ware} along it showing that it caught on ''something'' with an edge.</t>
   </si>
   <si>
-    <t xml:space="preserve"> damage</t>
-  </si>
-  <si>
-    <t>tear</t>
-  </si>
-  <si>
-    <t>crack</t>
-  </si>
-  <si>
-    <t>delamination</t>
+    <t>The pilot of 28M noticed that the main cabin door had play in the door hinge and some of the rivets had started to pull through the sheet metal.  It was brought to the attention of maintenance and the door was removed for inspection.  Maintenance found several rivets that had pulled through the sheet metal that covers the outside of the door and the metal door hinge had ripped several inches on the aft section of the hinge.</t>
+  </si>
+  <si>
+    <t>weld</t>
   </si>
   <si>
     <t>pylon</t>
   </si>
   <si>
-    <t>bent</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wing</t>
-  </si>
-  <si>
-    <t>[23, 25]</t>
-  </si>
-  <si>
-    <t>[23, 72, 88]</t>
-  </si>
-  <si>
-    <t>[3, 23, 37, 62, 67]</t>
-  </si>
-  <si>
-    <t>[2, 12, 23]</t>
-  </si>
-  <si>
-    <t>[3, 23, 31, 70, 80]</t>
-  </si>
-  <si>
-    <t>[23, 80]</t>
+    <t>metal frame</t>
+  </si>
+  <si>
+    <t>sheet metal</t>
+  </si>
+  <si>
+    <t>[23, 69, 80]</t>
+  </si>
+  <si>
+    <t>[8, 22, 23, 54, 82]</t>
   </si>
   <si>
     <t>[23, 24]</t>
   </si>
   <si>
-    <t>[18, 23, 69, 97]</t>
-  </si>
-  <si>
     <t>[3, 23, 35, 68, 81]</t>
+  </si>
+  <si>
+    <t>[23, 88]</t>
   </si>
   <si>
     <t>[23, 35]</t>
@@ -2282,7 +2255,7 @@
         <v>174</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F2" t="s">
         <v>198</v>
@@ -2293,7 +2266,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2302,21 +2275,21 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F3" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="G3" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2325,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -2339,7 +2312,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2348,21 +2321,21 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="G5" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2371,21 +2344,21 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="F6" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="G6" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2394,21 +2367,21 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2417,21 +2390,21 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="F8" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="G8" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2440,21 +2413,21 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="G9" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2463,21 +2436,21 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="G10" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2486,10 +2459,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="E11" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F11" t="s">
         <v>143</v>
@@ -2541,7 +2514,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2572,7 +2545,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2581,21 +2554,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F2" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="G2" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2604,13 +2577,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -2618,7 +2591,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2627,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="G4" t="s">
         <v>71</v>
@@ -2653,7 +2626,7 @@
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="F5" t="s">
         <v>73</v>
@@ -2664,7 +2637,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2673,13 +2646,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="E6" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="F6" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="G6" t="s">
         <v>71</v>
@@ -2687,7 +2660,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>293</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2696,21 +2669,21 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>300</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="F7" t="s">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>313</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2719,21 +2692,21 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E8" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F8" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2742,16 +2715,39 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F9" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F9" t="s">
-        <v>312</v>
-      </c>
-      <c r="G9" t="s">
-        <v>314</v>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E10" t="s">
+        <v>311</v>
+      </c>
+      <c r="F10" t="s">
+        <v>321</v>
+      </c>
+      <c r="G10" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2761,7 +2757,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2792,7 +2788,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2801,44 +2797,44 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="E2" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="F2" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="G2" t="s">
-        <v>358</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="E3" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G3" t="s">
-        <v>359</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>326</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2847,13 +2843,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>337</v>
       </c>
       <c r="E4" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>354</v>
       </c>
       <c r="G4" t="s">
         <v>147</v>
@@ -2861,99 +2857,99 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>347</v>
       </c>
       <c r="F5" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>329</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>339</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="E7" t="s">
-        <v>339</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>348</v>
       </c>
       <c r="F8" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="G8" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>320</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2962,44 +2958,44 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>332</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="F9" t="s">
-        <v>351</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>361</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>321</v>
+        <v>158</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>333</v>
+        <v>180</v>
       </c>
       <c r="E10" t="s">
-        <v>343</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>352</v>
+        <v>204</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3008,21 +3004,21 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G11" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3031,13 +3027,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E12" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F12" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G12" t="s">
         <v>101</v>
@@ -3045,7 +3041,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3054,13 +3050,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="E13" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F13" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G13" t="s">
         <v>101</v>
@@ -3068,7 +3064,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3077,44 +3073,44 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>337</v>
+        <v>250</v>
       </c>
       <c r="E14" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="F14" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="G14" t="s">
-        <v>363</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>238</v>
+        <v>28</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>345</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3123,15 +3119,38 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>345</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>362</v>
+      </c>
+      <c r="G17" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3178,7 +3197,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3232,7 +3251,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3241,39 +3260,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="E3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F3" t="s">
-        <v>353</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E4" t="s">
-        <v>367</v>
-      </c>
-      <c r="F4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -3314,7 +3310,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3323,21 +3319,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3346,13 +3342,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G3" t="s">
         <v>217</v>
@@ -3432,7 +3428,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3441,21 +3437,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>405</v>
+        <v>335</v>
       </c>
       <c r="E2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F2" t="s">
-        <v>437</v>
+        <v>352</v>
       </c>
       <c r="G2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3464,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -3473,12 +3469,12 @@
         <v>438</v>
       </c>
       <c r="G3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3487,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -3501,7 +3497,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3510,21 +3506,21 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F5" t="s">
         <v>440</v>
       </c>
       <c r="G5" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3533,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -3547,7 +3543,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3556,10 +3552,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F7" t="s">
         <v>442</v>
@@ -3570,7 +3566,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3579,21 +3575,21 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F8" t="s">
         <v>443</v>
       </c>
       <c r="G8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3602,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -3611,12 +3607,12 @@
         <v>444</v>
       </c>
       <c r="G9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3625,10 +3621,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F10" t="s">
         <v>445</v>
@@ -3651,7 +3647,7 @@
         <v>176</v>
       </c>
       <c r="E11" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F11" t="s">
         <v>200</v>
@@ -3662,7 +3658,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3671,13 +3667,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>446</v>
+        <v>240</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
@@ -3685,7 +3681,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3694,21 +3690,21 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3717,21 +3713,21 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G14" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3740,21 +3736,21 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E15" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3763,16 +3759,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E16" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3789,18 +3785,18 @@
         <v>182</v>
       </c>
       <c r="E17" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F17" t="s">
         <v>206</v>
       </c>
       <c r="G17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3809,21 +3805,21 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E18" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3832,13 +3828,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G19" t="s">
         <v>220</v>
@@ -3846,7 +3842,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3855,13 +3851,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G20" t="s">
         <v>219</v>
@@ -3869,7 +3865,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3878,13 +3874,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G21" t="s">
         <v>23</v>
@@ -3892,7 +3888,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3901,21 +3897,21 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E22" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3924,21 +3920,21 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E23" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3947,21 +3943,21 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E24" t="s">
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G24" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3970,21 +3966,21 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E25" t="s">
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G25" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3993,21 +3989,21 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="E26" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F26" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="G26" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4016,21 +4012,21 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E27" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F27" t="s">
         <v>440</v>
       </c>
       <c r="G27" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4039,21 +4035,21 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E28" t="s">
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4062,16 +4058,16 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G29" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4088,7 +4084,7 @@
         <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F30" t="s">
         <v>78</v>
@@ -4099,7 +4095,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4108,21 +4104,21 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E31" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4131,13 +4127,13 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E32" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G32" t="s">
         <v>101</v>
@@ -4145,7 +4141,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4154,16 +4150,16 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E33" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G33" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -4204,22 +4200,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>474</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>475</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>476</v>
-      </c>
-      <c r="F2" t="s">
-        <v>477</v>
       </c>
       <c r="G2" t="s">
         <v>220</v>
@@ -4429,7 +4425,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4460,7 +4456,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>478</v>
+        <v>85</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4469,21 +4465,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>479</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F2" t="s">
-        <v>482</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>483</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>325</v>
+        <v>477</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4492,16 +4488,39 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>337</v>
+        <v>479</v>
       </c>
       <c r="E3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F3" t="s">
-        <v>356</v>
+        <v>484</v>
       </c>
       <c r="G3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>480</v>
+      </c>
+      <c r="E4" t="s">
         <v>483</v>
+      </c>
+      <c r="F4" t="s">
+        <v>485</v>
+      </c>
+      <c r="G4" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -4542,7 +4561,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4551,21 +4570,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="E2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4574,21 +4593,21 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E3" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F3" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G3" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4597,21 +4616,21 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E4" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F4" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G4" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4620,16 +4639,16 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E5" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F5" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G5" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -4675,7 +4694,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4706,24 +4725,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>503</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F3" t="s">
+        <v>510</v>
+      </c>
+      <c r="G3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4765,7 +4807,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4774,21 +4816,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="E2" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="F2" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="G2" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4797,21 +4839,21 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="G3" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4820,21 +4862,21 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="G4" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4843,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -4869,18 +4911,18 @@
         <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="F6" t="s">
         <v>201</v>
       </c>
       <c r="G6" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4889,21 +4931,21 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="E7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="F7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="G7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4912,21 +4954,21 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G8" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4935,16 +4977,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="G9" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -4954,7 +4996,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4985,7 +5027,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4994,21 +5036,21 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5017,21 +5059,21 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="G3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5040,21 +5082,21 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="E4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F4" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G4" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5063,21 +5105,21 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="E5" t="s">
         <v>545</v>
       </c>
       <c r="F5" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="G5" t="s">
-        <v>376</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5086,154 +5128,16 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="E6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F6" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>540</v>
-      </c>
-      <c r="E7" t="s">
-        <v>548</v>
-      </c>
-      <c r="F7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>541</v>
-      </c>
-      <c r="E8" t="s">
-        <v>547</v>
-      </c>
-      <c r="F8" t="s">
-        <v>557</v>
-      </c>
-      <c r="G8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>542</v>
-      </c>
-      <c r="E9" t="s">
-        <v>549</v>
-      </c>
-      <c r="F9" t="s">
-        <v>558</v>
-      </c>
-      <c r="G9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>543</v>
-      </c>
-      <c r="E10" t="s">
-        <v>547</v>
-      </c>
-      <c r="F10" t="s">
-        <v>559</v>
-      </c>
-      <c r="G10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>544</v>
-      </c>
-      <c r="E11" t="s">
-        <v>550</v>
-      </c>
-      <c r="F11" t="s">
-        <v>560</v>
-      </c>
-      <c r="G11" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>242</v>
-      </c>
-      <c r="E12" t="s">
-        <v>551</v>
-      </c>
-      <c r="F12" t="s">
-        <v>249</v>
-      </c>
-      <c r="G12" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -5286,7 +5190,7 @@
         <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="F2" t="s">
         <v>200</v>
@@ -5297,7 +5201,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5306,16 +5210,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="E3" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F3" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -6724,7 +6628,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6764,16 +6668,62 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" t="s">
-        <v>234</v>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G4" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -6814,7 +6764,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6823,21 +6773,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F2" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="G2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6846,21 +6796,21 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F3" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="G3" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6869,13 +6819,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -6883,7 +6833,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6892,13 +6842,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E5" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F5" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G5" t="s">
         <v>217</v>
